--- a/app/config/tables/ronda/forms/ronda/ronda.xlsx
+++ b/app/config/tables/ronda/forms/ronda/ronda.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celso\odkx\celsoapp\app\config\tables\ronda\forms\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celso\odkx\celsoapp\app\config\tables\ronda\forms\ronda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5282BDFD-C748-4EC8-88FF-776B5D13263D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79D7B481-3C84-4F7D-A2B4-266B51E602BC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -1250,11 +1250,11 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:W110"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E11" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A21" sqref="A21:XFD21"/>
+      <selection pane="bottomRight" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -1489,7 +1489,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.5">
       <c r="D15" s="2" t="s">
         <v>9</v>
       </c>
@@ -1600,7 +1600,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="27" spans="2:11" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.5">
       <c r="D27" s="2" t="s">
         <v>4</v>
       </c>
@@ -2967,7 +2967,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>

--- a/app/config/tables/ronda/forms/ronda/ronda.xlsx
+++ b/app/config/tables/ronda/forms/ronda/ronda.xlsx
@@ -8,22 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celso\odkx\celsoapp\app\config\tables\ronda\forms\ronda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79D7B481-3C84-4F7D-A2B4-266B51E602BC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A223F4FF-10B4-461B-A5A4-DEA7A1A699FD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="survey" sheetId="1" r:id="rId1"/>
-    <sheet name="choices" sheetId="2" r:id="rId2"/>
-    <sheet name="settings" sheetId="3" r:id="rId3"/>
+    <sheet name="settings" sheetId="3" r:id="rId1"/>
+    <sheet name="survey" sheetId="1" r:id="rId2"/>
+    <sheet name="choices" sheetId="2" r:id="rId3"/>
     <sheet name="queries" sheetId="5" r:id="rId4"/>
     <sheet name="model" sheetId="4" r:id="rId5"/>
     <sheet name="prompt_types" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">survey!$D$1:$K$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">survey!$D$1:$K$1</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="175">
   <si>
     <t>type</t>
   </si>
@@ -130,18 +130,12 @@
     <t>mes</t>
   </si>
   <si>
-    <t>mae</t>
-  </si>
-  <si>
     <t>region</t>
   </si>
   <si>
     <t>sector</t>
   </si>
   <si>
-    <t>local</t>
-  </si>
-  <si>
     <t>choice_filter</t>
   </si>
   <si>
@@ -226,15 +220,6 @@
     <t>data_inscricao</t>
   </si>
   <si>
-    <t>r1d1</t>
-  </si>
-  <si>
-    <t>r1d2</t>
-  </si>
-  <si>
-    <t>r1d3</t>
-  </si>
-  <si>
     <t>1º dia - ASC</t>
   </si>
   <si>
@@ -253,9 +238,6 @@
     <t>Dor de barriga intensa</t>
   </si>
   <si>
-    <t>Diarréia (&gt;= 7)</t>
-  </si>
-  <si>
     <t>Convulsões</t>
   </si>
   <si>
@@ -271,9 +253,6 @@
     <t>select_multiple</t>
   </si>
   <si>
-    <t>ef_adveso_r1</t>
-  </si>
-  <si>
     <t>Efeitos Adverso</t>
   </si>
   <si>
@@ -286,64 +265,7 @@
     <t xml:space="preserve">if </t>
   </si>
   <si>
-    <t>esp_ef_adverso_r1</t>
-  </si>
-  <si>
     <t>Especica o efeito adverso</t>
-  </si>
-  <si>
-    <t>r2d1</t>
-  </si>
-  <si>
-    <t>r2d2</t>
-  </si>
-  <si>
-    <t>r2d3</t>
-  </si>
-  <si>
-    <t>tem_adverso_r2</t>
-  </si>
-  <si>
-    <t>ef_adveso_r2</t>
-  </si>
-  <si>
-    <t>esp_ef_adverso_r2</t>
-  </si>
-  <si>
-    <t>r3d1</t>
-  </si>
-  <si>
-    <t>r3d2</t>
-  </si>
-  <si>
-    <t>r3d3</t>
-  </si>
-  <si>
-    <t>tem_adverso_r3</t>
-  </si>
-  <si>
-    <t>ef_adveso_r3</t>
-  </si>
-  <si>
-    <t>esp_ef_adverso_r3</t>
-  </si>
-  <si>
-    <t>r4d1</t>
-  </si>
-  <si>
-    <t>r4d2</t>
-  </si>
-  <si>
-    <t>r4d3</t>
-  </si>
-  <si>
-    <t>tem_adverso_r4</t>
-  </si>
-  <si>
-    <t>ef_adveso_r4</t>
-  </si>
-  <si>
-    <t>esp_ef_adverso_r4</t>
   </si>
   <si>
     <t>id_paciente</t>
@@ -551,9 +473,6 @@
     <t>consentimento</t>
   </si>
   <si>
-    <t>data('tem_adverso')=='1'</t>
-  </si>
-  <si>
     <t>ef_adveso</t>
   </si>
   <si>
@@ -587,9 +506,6 @@
     <t>tto_ACT</t>
   </si>
   <si>
-    <t>data('transferencia')=='1'</t>
-  </si>
-  <si>
     <t>motivo</t>
   </si>
   <si>
@@ -621,6 +537,33 @@
   </si>
   <si>
     <t>(data('n_ronda')&lt;4)</t>
+  </si>
+  <si>
+    <t>nome_casa</t>
+  </si>
+  <si>
+    <t>tabanca</t>
+  </si>
+  <si>
+    <t>AF</t>
+  </si>
+  <si>
+    <t>abrir_ronda</t>
+  </si>
+  <si>
+    <t>selected(data('tem_adverso'),'1')</t>
+  </si>
+  <si>
+    <t>transf</t>
+  </si>
+  <si>
+    <t>data('transf')=='1'</t>
+  </si>
+  <si>
+    <t>Diarreia (mais ou igual 7)</t>
+  </si>
+  <si>
+    <t>ef_adverso</t>
   </si>
 </sst>
 </file>
@@ -787,9 +730,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -822,6 +762,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1246,15 +1189,84 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="1" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3">
+        <v>2019073000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:W110"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E62" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F19" sqref="F19"/>
+      <selection pane="bottomRight" activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -1262,7 +1274,7 @@
     <col min="1" max="1" width="13.0625" style="2" customWidth="1"/>
     <col min="2" max="2" width="17.125" style="2" customWidth="1"/>
     <col min="3" max="3" width="33.25" style="2" customWidth="1"/>
-    <col min="4" max="4" width="13.375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16.75" style="2" customWidth="1"/>
     <col min="5" max="5" width="16.125" style="2" customWidth="1"/>
     <col min="6" max="6" width="15.75" style="2" customWidth="1"/>
     <col min="7" max="7" width="63" style="2" customWidth="1"/>
@@ -1277,7 +1289,7 @@
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>7</v>
@@ -1285,7 +1297,7 @@
       <c r="C1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="19" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -1298,7 +1310,7 @@
         <v>19</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I1" t="s">
         <v>20</v>
@@ -1313,31 +1325,31 @@
         <v>3</v>
       </c>
       <c r="M1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O1" t="s">
         <v>35</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>36</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>37</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>38</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>39</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>40</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>41</v>
-      </c>
-      <c r="T1" t="s">
-        <v>42</v>
-      </c>
-      <c r="U1" t="s">
-        <v>43</v>
       </c>
       <c r="V1" t="s">
         <v>18</v>
@@ -1368,8 +1380,8 @@
       <c r="W2"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.5">
-      <c r="B3" s="21" t="s">
-        <v>112</v>
+      <c r="B3" s="20" t="s">
+        <v>86</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -1393,100 +1405,100 @@
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.5">
       <c r="D4" s="1" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="2" t="s">
-        <v>168</v>
+        <v>142</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>155</v>
+        <v>129</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="3"/>
     </row>
-    <row r="5" spans="1:23" s="13" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="D5" s="13" t="s">
+    <row r="5" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="D5" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="G5" s="13" t="s">
+      <c r="F5" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="G5" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="K5" s="14"/>
-    </row>
-    <row r="6" spans="1:23" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="K6" s="14"/>
-      <c r="N6" s="15"/>
-    </row>
-    <row r="7" spans="1:23" s="13" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="17"/>
-    </row>
-    <row r="8" spans="1:23" s="13" customFormat="1" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="D8" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="I8" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="K8" s="14"/>
-    </row>
-    <row r="9" spans="1:23" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="D9" s="13" t="s">
+      <c r="K5" s="13"/>
+    </row>
+    <row r="6" spans="1:23" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="K6" s="13"/>
+      <c r="N6" s="14"/>
+    </row>
+    <row r="7" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="16"/>
+    </row>
+    <row r="8" spans="1:23" s="12" customFormat="1" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="D8" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="I8" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="K8" s="13"/>
+    </row>
+    <row r="9" spans="1:23" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="D9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="I9" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="K9" s="14"/>
-    </row>
-    <row r="10" spans="1:23" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="I10" s="18"/>
-      <c r="K10" s="14"/>
-    </row>
-    <row r="11" spans="1:23" s="13" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="K11" s="14"/>
-    </row>
-    <row r="12" spans="1:23" s="13" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="B12" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="K12" s="14"/>
+      <c r="F9" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="I9" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="K9" s="13"/>
+    </row>
+    <row r="10" spans="1:23" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="I10" s="17"/>
+      <c r="K10" s="13"/>
+    </row>
+    <row r="11" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="K11" s="13"/>
+    </row>
+    <row r="12" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B12" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="K12" s="13"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.5">
       <c r="D14" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>191</v>
+        <v>163</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>192</v>
+        <v>164</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>193</v>
+        <v>165</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.5">
@@ -1494,66 +1506,66 @@
         <v>9</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>169</v>
+        <v>143</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>134</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.5">
       <c r="B16" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D16" s="22"/>
+        <v>109</v>
+      </c>
+      <c r="D16" s="21"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B17" s="2" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B18" s="2" t="s">
-        <v>137</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.5">
       <c r="D19" s="2" t="s">
-        <v>156</v>
+        <v>130</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>188</v>
+        <v>160</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="K19" s="19"/>
+        <v>60</v>
+      </c>
+      <c r="K19" s="18"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.5">
       <c r="D20" s="2" t="s">
-        <v>156</v>
+        <v>130</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>189</v>
+        <v>161</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.5">
       <c r="D21" s="2" t="s">
-        <v>156</v>
+        <v>130</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>190</v>
+        <v>162</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.5">
@@ -1561,18 +1573,18 @@
         <v>9</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B24" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>170</v>
@@ -1580,24 +1592,24 @@
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.5">
       <c r="D25" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B26" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.5">
@@ -1605,36 +1617,36 @@
         <v>4</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B29" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B33" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B34" s="2" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
     </row>
     <row r="35" spans="2:11" ht="110.25" x14ac:dyDescent="0.5">
       <c r="D35" s="2" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>174</v>
+        <v>147</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>142</v>
+        <v>116</v>
       </c>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.5">
@@ -1642,21 +1654,21 @@
         <v>9</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>175</v>
+        <v>148</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>138</v>
+        <v>112</v>
       </c>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B37" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>176</v>
+        <v>149</v>
       </c>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.5">
@@ -1664,21 +1676,21 @@
         <v>9</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>177</v>
+        <v>150</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>139</v>
+        <v>113</v>
       </c>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B39" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>178</v>
+        <v>151</v>
       </c>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.5">
@@ -1692,22 +1704,22 @@
         <v>9</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>179</v>
+        <v>152</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>140</v>
+        <v>114</v>
       </c>
       <c r="K42" s="4"/>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B43" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>180</v>
+        <v>153</v>
       </c>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.5">
@@ -1715,63 +1727,60 @@
         <v>9</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>181</v>
+        <v>154</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>141</v>
+        <v>115</v>
       </c>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B47" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B48" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.5">
       <c r="B49" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.5">
       <c r="B50" s="2" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.5">
       <c r="B51" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A54" s="2" t="s">
-        <v>157</v>
-      </c>
       <c r="D54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>149</v>
+        <v>123</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.5">
       <c r="B55" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.5">
@@ -1779,65 +1788,65 @@
         <v>9</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>183</v>
+        <v>155</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.5">
       <c r="B58" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.5">
       <c r="B59" s="2" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="63" x14ac:dyDescent="0.5">
       <c r="A60" s="2" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>184</v>
+        <v>156</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.5">
       <c r="B61" s="2" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="47.25" x14ac:dyDescent="0.5">
       <c r="A62" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="D62" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="F62" s="2" t="s">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>126</v>
+        <v>100</v>
       </c>
       <c r="K62" s="4"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.5">
       <c r="B63" s="2" t="s">
-        <v>127</v>
+        <v>101</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>185</v>
+        <v>157</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.5">
@@ -1845,36 +1854,36 @@
         <v>4</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>186</v>
+        <v>158</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>128</v>
+        <v>102</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.5">
       <c r="B65" s="2" t="s">
-        <v>129</v>
+        <v>103</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="63" x14ac:dyDescent="0.5">
       <c r="D66" s="2" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>187</v>
+        <v>159</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>130</v>
+        <v>104</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.5">
       <c r="B67" s="2" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.5">
       <c r="B69" s="2" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.5">
@@ -1883,122 +1892,122 @@
     <row r="72" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.5"/>
     <row r="74" spans="1:11" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A74" s="2" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>132</v>
+        <v>106</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="K74" s="4"/>
     </row>
     <row r="81" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="E81" s="19"/>
+      <c r="E81" s="18"/>
     </row>
     <row r="82" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="E82" s="19"/>
+      <c r="E82" s="18"/>
     </row>
     <row r="83" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="E83" s="19"/>
+      <c r="E83" s="18"/>
     </row>
     <row r="85" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="E85" s="19"/>
+      <c r="E85" s="18"/>
     </row>
     <row r="86" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="E86" s="19"/>
+      <c r="E86" s="18"/>
     </row>
     <row r="87" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="E87" s="19"/>
+      <c r="E87" s="18"/>
     </row>
     <row r="88" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="E88" s="19"/>
+      <c r="E88" s="18"/>
     </row>
     <row r="89" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="E89" s="19"/>
+      <c r="E89" s="18"/>
     </row>
     <row r="90" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="E90" s="19"/>
+      <c r="E90" s="18"/>
     </row>
     <row r="91" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="E91" s="19"/>
+      <c r="E91" s="18"/>
     </row>
     <row r="94" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="B94" s="19"/>
-      <c r="C94" s="19"/>
-      <c r="D94" s="19"/>
-      <c r="E94" s="19"/>
-      <c r="F94" s="19"/>
-      <c r="G94" s="19"/>
-      <c r="H94" s="19"/>
+      <c r="B94" s="18"/>
+      <c r="C94" s="18"/>
+      <c r="D94" s="18"/>
+      <c r="E94" s="18"/>
+      <c r="F94" s="18"/>
+      <c r="G94" s="18"/>
+      <c r="H94" s="18"/>
     </row>
     <row r="95" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="B95" s="19"/>
-      <c r="C95" s="19"/>
-      <c r="D95" s="19"/>
-      <c r="E95" s="19"/>
-      <c r="F95" s="19"/>
-      <c r="G95" s="19"/>
-      <c r="H95" s="19"/>
+      <c r="B95" s="18"/>
+      <c r="C95" s="18"/>
+      <c r="D95" s="18"/>
+      <c r="E95" s="18"/>
+      <c r="F95" s="18"/>
+      <c r="G95" s="18"/>
+      <c r="H95" s="18"/>
       <c r="K95" s="4"/>
     </row>
     <row r="96" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="B96" s="19"/>
-      <c r="C96" s="19"/>
-      <c r="D96" s="19"/>
-      <c r="E96" s="19"/>
-      <c r="F96" s="19"/>
-      <c r="G96" s="19"/>
-      <c r="H96" s="19"/>
+      <c r="B96" s="18"/>
+      <c r="C96" s="18"/>
+      <c r="D96" s="18"/>
+      <c r="E96" s="18"/>
+      <c r="F96" s="18"/>
+      <c r="G96" s="18"/>
+      <c r="H96" s="18"/>
       <c r="K96" s="4"/>
     </row>
     <row r="97" spans="2:8" x14ac:dyDescent="0.5">
-      <c r="B97" s="19"/>
-      <c r="C97" s="19"/>
-      <c r="D97" s="19"/>
-      <c r="E97" s="19"/>
-      <c r="F97" s="19"/>
-      <c r="G97" s="19"/>
-      <c r="H97" s="19"/>
+      <c r="B97" s="18"/>
+      <c r="C97" s="18"/>
+      <c r="D97" s="18"/>
+      <c r="E97" s="18"/>
+      <c r="F97" s="18"/>
+      <c r="G97" s="18"/>
+      <c r="H97" s="18"/>
     </row>
     <row r="98" spans="2:8" x14ac:dyDescent="0.5">
-      <c r="B98" s="19"/>
-      <c r="C98" s="19"/>
-      <c r="D98" s="19"/>
-      <c r="E98" s="19"/>
-      <c r="F98" s="19"/>
-      <c r="G98" s="19"/>
-      <c r="H98" s="19"/>
+      <c r="B98" s="18"/>
+      <c r="C98" s="18"/>
+      <c r="D98" s="18"/>
+      <c r="E98" s="18"/>
+      <c r="F98" s="18"/>
+      <c r="G98" s="18"/>
+      <c r="H98" s="18"/>
     </row>
     <row r="99" spans="2:8" x14ac:dyDescent="0.5">
-      <c r="B99" s="19"/>
-      <c r="C99" s="19"/>
-      <c r="D99" s="19"/>
-      <c r="E99" s="19"/>
-      <c r="F99" s="19"/>
-      <c r="G99" s="19"/>
-      <c r="H99" s="19"/>
+      <c r="B99" s="18"/>
+      <c r="C99" s="18"/>
+      <c r="D99" s="18"/>
+      <c r="E99" s="18"/>
+      <c r="F99" s="18"/>
+      <c r="G99" s="18"/>
+      <c r="H99" s="18"/>
     </row>
     <row r="100" spans="2:8" x14ac:dyDescent="0.5">
-      <c r="B100" s="19"/>
-      <c r="C100" s="19"/>
-      <c r="D100" s="19"/>
-      <c r="E100" s="19"/>
-      <c r="F100" s="19"/>
-      <c r="G100" s="19"/>
-      <c r="H100" s="19"/>
+      <c r="B100" s="18"/>
+      <c r="C100" s="18"/>
+      <c r="D100" s="18"/>
+      <c r="E100" s="18"/>
+      <c r="F100" s="18"/>
+      <c r="G100" s="18"/>
+      <c r="H100" s="18"/>
     </row>
     <row r="101" spans="2:8" x14ac:dyDescent="0.5">
-      <c r="B101" s="19"/>
-      <c r="C101" s="19"/>
-      <c r="D101" s="19"/>
-      <c r="E101" s="19"/>
-      <c r="F101" s="19"/>
-      <c r="G101" s="19"/>
-      <c r="H101" s="19"/>
+      <c r="B101" s="18"/>
+      <c r="C101" s="18"/>
+      <c r="D101" s="18"/>
+      <c r="E101" s="18"/>
+      <c r="F101" s="18"/>
+      <c r="G101" s="18"/>
+      <c r="H101" s="18"/>
     </row>
     <row r="102" spans="2:8" x14ac:dyDescent="0.5">
       <c r="B102" s="23"/>
@@ -2007,7 +2016,7 @@
       <c r="E102" s="23"/>
       <c r="F102" s="23"/>
       <c r="G102" s="23"/>
-      <c r="H102" s="19"/>
+      <c r="H102" s="18"/>
     </row>
     <row r="103" spans="2:8" x14ac:dyDescent="0.5">
       <c r="B103" s="23"/>
@@ -2016,70 +2025,70 @@
       <c r="E103" s="23"/>
       <c r="F103" s="23"/>
       <c r="G103" s="23"/>
-      <c r="H103" s="19"/>
+      <c r="H103" s="18"/>
     </row>
     <row r="104" spans="2:8" x14ac:dyDescent="0.5">
-      <c r="B104" s="19"/>
-      <c r="C104" s="19"/>
-      <c r="D104" s="19"/>
-      <c r="E104" s="19"/>
-      <c r="F104" s="19"/>
-      <c r="G104" s="19"/>
-      <c r="H104" s="19"/>
+      <c r="B104" s="18"/>
+      <c r="C104" s="18"/>
+      <c r="D104" s="18"/>
+      <c r="E104" s="18"/>
+      <c r="F104" s="18"/>
+      <c r="G104" s="18"/>
+      <c r="H104" s="18"/>
     </row>
     <row r="105" spans="2:8" x14ac:dyDescent="0.5">
-      <c r="B105" s="19"/>
-      <c r="C105" s="19"/>
-      <c r="D105" s="19"/>
-      <c r="E105" s="19"/>
-      <c r="F105" s="19"/>
-      <c r="G105" s="19"/>
-      <c r="H105" s="19"/>
+      <c r="B105" s="18"/>
+      <c r="C105" s="18"/>
+      <c r="D105" s="18"/>
+      <c r="E105" s="18"/>
+      <c r="F105" s="18"/>
+      <c r="G105" s="18"/>
+      <c r="H105" s="18"/>
     </row>
     <row r="106" spans="2:8" x14ac:dyDescent="0.5">
-      <c r="B106" s="19"/>
-      <c r="C106" s="19"/>
-      <c r="D106" s="19"/>
-      <c r="E106" s="19"/>
-      <c r="F106" s="19"/>
-      <c r="G106" s="19"/>
-      <c r="H106" s="19"/>
+      <c r="B106" s="18"/>
+      <c r="C106" s="18"/>
+      <c r="D106" s="18"/>
+      <c r="E106" s="18"/>
+      <c r="F106" s="18"/>
+      <c r="G106" s="18"/>
+      <c r="H106" s="18"/>
     </row>
     <row r="107" spans="2:8" x14ac:dyDescent="0.5">
-      <c r="B107" s="19"/>
-      <c r="C107" s="19"/>
-      <c r="D107" s="19"/>
-      <c r="E107" s="19"/>
-      <c r="F107" s="19"/>
-      <c r="G107" s="19"/>
-      <c r="H107" s="19"/>
+      <c r="B107" s="18"/>
+      <c r="C107" s="18"/>
+      <c r="D107" s="18"/>
+      <c r="E107" s="18"/>
+      <c r="F107" s="18"/>
+      <c r="G107" s="18"/>
+      <c r="H107" s="18"/>
     </row>
     <row r="108" spans="2:8" x14ac:dyDescent="0.5">
-      <c r="B108" s="19"/>
-      <c r="C108" s="19"/>
-      <c r="D108" s="19"/>
-      <c r="E108" s="19"/>
-      <c r="F108" s="19"/>
-      <c r="G108" s="19"/>
-      <c r="H108" s="19"/>
+      <c r="B108" s="18"/>
+      <c r="C108" s="18"/>
+      <c r="D108" s="18"/>
+      <c r="E108" s="18"/>
+      <c r="F108" s="18"/>
+      <c r="G108" s="18"/>
+      <c r="H108" s="18"/>
     </row>
     <row r="109" spans="2:8" x14ac:dyDescent="0.5">
-      <c r="B109" s="19"/>
-      <c r="C109" s="19"/>
-      <c r="D109" s="19"/>
-      <c r="E109" s="19"/>
-      <c r="F109" s="19"/>
-      <c r="G109" s="19"/>
-      <c r="H109" s="19"/>
+      <c r="B109" s="18"/>
+      <c r="C109" s="18"/>
+      <c r="D109" s="18"/>
+      <c r="E109" s="18"/>
+      <c r="F109" s="18"/>
+      <c r="G109" s="18"/>
+      <c r="H109" s="18"/>
     </row>
     <row r="110" spans="2:8" x14ac:dyDescent="0.5">
-      <c r="B110" s="19"/>
-      <c r="C110" s="19"/>
-      <c r="D110" s="19"/>
-      <c r="E110" s="19"/>
-      <c r="F110" s="19"/>
-      <c r="G110" s="19"/>
-      <c r="H110" s="19"/>
+      <c r="B110" s="18"/>
+      <c r="C110" s="18"/>
+      <c r="D110" s="18"/>
+      <c r="E110" s="18"/>
+      <c r="F110" s="18"/>
+      <c r="G110" s="18"/>
+      <c r="H110" s="18"/>
     </row>
   </sheetData>
   <autoFilter ref="D1:K1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
@@ -2101,13 +2110,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:D238"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A9" sqref="A1:XFD1048576"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.5" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -2137,7 +2146,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.5">
@@ -2148,12 +2157,12 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A5" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B5" s="2">
         <v>1</v>
@@ -2164,13 +2173,13 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A6" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B6" s="2">
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.5">
@@ -2179,24 +2188,24 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A8" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B8" s="2">
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A9" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B9" s="2">
         <v>2</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.5">
@@ -2205,79 +2214,79 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A11" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B11" s="2">
         <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A12" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B12" s="2">
         <v>2</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A13" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B13" s="2">
         <v>3</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A14" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B14" s="2">
         <v>4</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>71</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A15" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B15" s="2">
         <v>5</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A16" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B16" s="2">
         <v>6</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A17" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B17" s="2">
         <v>7</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.5">
@@ -2290,57 +2299,57 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A20" s="1" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="B20" s="2">
         <v>8</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>144</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A21" s="1" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="B21" s="2">
         <v>9</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>145</v>
+        <v>119</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A22" s="1" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="B22" s="2">
         <v>10</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>146</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A23" s="1" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="B23" s="2">
         <v>11</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>147</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A24" s="1" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="B24" s="2">
         <v>12</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>148</v>
+        <v>122</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.5">
@@ -2348,46 +2357,46 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A27" s="1" t="s">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="B27" s="2">
         <v>1</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>151</v>
+        <v>125</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A28" s="1" t="s">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="B28" s="2">
         <v>2</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>152</v>
+        <v>126</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A29" s="1" t="s">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="B29" s="2">
         <v>3</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A30" s="1" t="s">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="B30" s="2">
         <v>4</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>154</v>
+        <v>128</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.5">
@@ -2885,75 +2894,6 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:C5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
-  <cols>
-    <col min="1" max="1" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3">
-        <v>2019072500</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" t="s">
-        <v>159</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2967,7 +2907,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -2981,31 +2921,31 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C1" t="s">
-        <v>161</v>
+        <v>135</v>
       </c>
       <c r="D1" t="s">
-        <v>162</v>
+        <v>136</v>
       </c>
       <c r="E1" t="s">
-        <v>163</v>
+        <v>137</v>
       </c>
       <c r="F1" t="s">
-        <v>164</v>
+        <v>138</v>
       </c>
       <c r="G1" t="s">
-        <v>165</v>
+        <v>139</v>
       </c>
       <c r="H1" t="s">
-        <v>166</v>
+        <v>140</v>
       </c>
       <c r="I1" t="s">
-        <v>167</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -3016,10 +2956,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:B67"/>
+  <dimension ref="A1:B45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -3029,10 +2969,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
     </row>
@@ -3041,87 +2981,87 @@
         <v>22</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A3" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>61</v>
+      <c r="A3" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A4" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>24</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5" s="2" t="s">
-        <v>9</v>
+        <v>130</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A6" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A7" s="10" t="s">
-        <v>103</v>
+      <c r="A7" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>27</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A8" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A9" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A10" s="2" t="s">
-        <v>4</v>
+        <v>130</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A11" s="6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A12" s="6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.5">
@@ -3129,23 +3069,23 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A14" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A15" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>47</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.5">
@@ -3153,7 +3093,7 @@
         <v>5</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>48</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.5">
@@ -3161,7 +3101,7 @@
         <v>5</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.5">
@@ -3169,300 +3109,212 @@
         <v>5</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
+      <c r="A19" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A20" s="2" t="s">
-        <v>103</v>
+        <v>5</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A21" s="2" t="s">
-        <v>103</v>
+        <v>5</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A22" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>64</v>
+        <v>169</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A23" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>79</v>
-      </c>
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A24" s="2" t="s">
-        <v>76</v>
+        <v>5</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>77</v>
+        <v>163</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A25" s="2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>82</v>
+        <v>143</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
+      <c r="A26" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="B26" s="22" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A27" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>84</v>
+      <c r="A27" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="B27" s="22" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A28" s="2" t="s">
-        <v>103</v>
+        <v>130</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>85</v>
+        <v>162</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A29" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>86</v>
+      <c r="A29" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="22" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A30" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>87</v>
+      <c r="A30" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="B30" s="22" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A31" s="2" t="s">
-        <v>76</v>
+        <v>4</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>88</v>
+        <v>146</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A33" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A34" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" s="22" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A35" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" s="22" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A36" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" s="22" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A37" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37" s="22" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A38" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38" s="22" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A39" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="B39" s="22" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A40" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="B40" s="22" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A41" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A33" s="8"/>
-      <c r="B33" s="8"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A34" s="8"/>
-      <c r="B34" s="8"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A35" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A36" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A37" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A38" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A39" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A40" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A41" s="8"/>
-      <c r="B41" s="8"/>
+      <c r="B41" s="22" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A42" s="8"/>
-      <c r="B42" s="8"/>
+      <c r="A42" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="B42" s="22" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A43" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B43" s="2" t="s">
+      <c r="A43" s="22" t="s">
         <v>96</v>
       </c>
+      <c r="B43" s="22" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A44" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>97</v>
-      </c>
+      <c r="A44" s="22"/>
+      <c r="B44" s="22"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A45" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A46" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A47" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A48" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A49" s="8"/>
-      <c r="B49" s="8"/>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A50" s="8"/>
-      <c r="B50" s="8"/>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A51" s="8"/>
-      <c r="B51" s="8"/>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A52" s="8"/>
-      <c r="B52" s="8"/>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A53" s="8"/>
-      <c r="B53" s="8"/>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A54" s="8"/>
-      <c r="B54" s="8"/>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A55" s="8"/>
-      <c r="B55" s="8"/>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A56" s="8"/>
-      <c r="B56" s="8"/>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A57" s="8"/>
-      <c r="B57" s="8"/>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A58" s="8"/>
-      <c r="B58" s="8"/>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A59" s="8"/>
-      <c r="B59" s="8"/>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A60" s="8"/>
-      <c r="B60" s="8"/>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A61" s="8"/>
-      <c r="B61" s="8"/>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A62" s="8"/>
-      <c r="B62" s="8"/>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A63" s="8"/>
-      <c r="B63" s="8"/>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A64" s="8"/>
-      <c r="B64" s="8"/>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A65" s="8"/>
-      <c r="B65" s="8"/>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A66" s="8"/>
-      <c r="B66" s="8"/>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A67" s="8"/>
-      <c r="B67" s="8"/>
+      <c r="A45" s="22"/>
+      <c r="B45" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3490,46 +3342,46 @@
     <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="B1" s="11" t="s">
+    <row r="1" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>106</v>
+      <c r="C1" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="B2" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="C2" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="D2" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
-        <v>156</v>
+        <v>130</v>
       </c>
       <c r="B3" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="C3" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="D3" t="s">
-        <v>158</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/tables/ronda/forms/ronda/ronda.xlsx
+++ b/app/config/tables/ronda/forms/ronda/ronda.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21901"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celso\odkx\celsoapp\app\config\tables\ronda\forms\ronda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A223F4FF-10B4-461B-A5A4-DEA7A1A699FD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85143C20-8908-4D3E-93BE-DDB291FFEB5D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="3" r:id="rId1"/>
@@ -23,7 +23,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">survey!$D$1:$K$1</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="158">
   <si>
     <t>type</t>
   </si>
@@ -112,30 +112,12 @@
     <t>Escanea o codigo de barra</t>
   </si>
   <si>
-    <t>nome</t>
-  </si>
-  <si>
     <t>sexo</t>
   </si>
   <si>
     <t>Data de Nascimento</t>
   </si>
   <si>
-    <t>dn</t>
-  </si>
-  <si>
-    <t>ano</t>
-  </si>
-  <si>
-    <t>mes</t>
-  </si>
-  <si>
-    <t>region</t>
-  </si>
-  <si>
-    <t>sector</t>
-  </si>
-  <si>
     <t>choice_filter</t>
   </si>
   <si>
@@ -172,27 +154,9 @@
     <t>query_name</t>
   </si>
   <si>
-    <t>equipa</t>
-  </si>
-  <si>
-    <t>mtn_equi</t>
-  </si>
-  <si>
-    <t>orange_equi</t>
-  </si>
-  <si>
-    <t>mtn_RAS</t>
-  </si>
-  <si>
-    <t>orange_RAS</t>
-  </si>
-  <si>
     <t>data_ou_idade</t>
   </si>
   <si>
-    <t>Data_ou_idade</t>
-  </si>
-  <si>
     <t>Masculino</t>
   </si>
   <si>
@@ -215,9 +179,6 @@
   </si>
   <si>
     <t>end if</t>
-  </si>
-  <si>
-    <t>data_inscricao</t>
   </si>
   <si>
     <t>1º dia - ASC</t>
@@ -537,18 +498,6 @@
   </si>
   <si>
     <t>(data('n_ronda')&lt;4)</t>
-  </si>
-  <si>
-    <t>nome_casa</t>
-  </si>
-  <si>
-    <t>tabanca</t>
-  </si>
-  <si>
-    <t>AF</t>
-  </si>
-  <si>
-    <t>abrir_ronda</t>
   </si>
   <si>
     <t>selected(data('tem_adverso'),'1')</t>
@@ -570,7 +519,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -607,12 +556,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -709,7 +652,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -726,15 +669,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -742,14 +679,14 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1220,7 +1157,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.5">
@@ -1228,7 +1165,7 @@
         <v>14</v>
       </c>
       <c r="B3">
-        <v>2019073000</v>
+        <v>2019082600</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.5">
@@ -1236,7 +1173,7 @@
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.5">
@@ -1244,7 +1181,7 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -1262,7 +1199,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:W110"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E62" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -1289,7 +1226,7 @@
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>7</v>
@@ -1297,7 +1234,7 @@
       <c r="C1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="17" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -1309,8 +1246,8 @@
       <c r="G1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="7" t="s">
-        <v>32</v>
+      <c r="H1" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="I1" t="s">
         <v>20</v>
@@ -1325,31 +1262,31 @@
         <v>3</v>
       </c>
       <c r="M1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S1" t="s">
         <v>33</v>
       </c>
-      <c r="N1" t="s">
+      <c r="T1" t="s">
         <v>34</v>
       </c>
-      <c r="O1" t="s">
+      <c r="U1" t="s">
         <v>35</v>
-      </c>
-      <c r="P1" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>37</v>
-      </c>
-      <c r="R1" t="s">
-        <v>38</v>
-      </c>
-      <c r="S1" t="s">
-        <v>39</v>
-      </c>
-      <c r="T1" t="s">
-        <v>40</v>
-      </c>
-      <c r="U1" t="s">
-        <v>41</v>
       </c>
       <c r="V1" t="s">
         <v>18</v>
@@ -1362,7 +1299,7 @@
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="7"/>
+      <c r="H2" s="6"/>
       <c r="I2"/>
       <c r="J2"/>
       <c r="K2"/>
@@ -1380,13 +1317,13 @@
       <c r="W2"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.5">
-      <c r="B3" s="20" t="s">
-        <v>86</v>
+      <c r="B3" s="18" t="s">
+        <v>73</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="7"/>
+      <c r="H3" s="6"/>
       <c r="I3"/>
       <c r="J3"/>
       <c r="K3"/>
@@ -1405,100 +1342,100 @@
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.5">
       <c r="D4" s="1" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="2" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="3"/>
     </row>
-    <row r="5" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="D5" s="12" t="s">
+    <row r="5" spans="1:23" s="10" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="D5" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="G5" s="12" t="s">
+      <c r="F5" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="K5" s="13"/>
-    </row>
-    <row r="6" spans="1:23" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="K6" s="13"/>
-      <c r="N6" s="14"/>
-    </row>
-    <row r="7" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="16"/>
-    </row>
-    <row r="8" spans="1:23" s="12" customFormat="1" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="D8" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="I8" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="K8" s="13"/>
-    </row>
-    <row r="9" spans="1:23" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="D9" s="12" t="s">
+      <c r="K5" s="11"/>
+    </row>
+    <row r="6" spans="1:23" s="10" customFormat="1" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="K6" s="11"/>
+      <c r="N6" s="12"/>
+    </row>
+    <row r="7" spans="1:23" s="10" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="14"/>
+    </row>
+    <row r="8" spans="1:23" s="10" customFormat="1" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="D8" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="K8" s="11"/>
+    </row>
+    <row r="9" spans="1:23" s="10" customFormat="1" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="D9" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="I9" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="K9" s="13"/>
-    </row>
-    <row r="10" spans="1:23" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="I10" s="17"/>
-      <c r="K10" s="13"/>
-    </row>
-    <row r="11" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="K11" s="13"/>
-    </row>
-    <row r="12" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="B12" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="K12" s="13"/>
+      <c r="F9" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="I9" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="K9" s="11"/>
+    </row>
+    <row r="10" spans="1:23" s="10" customFormat="1" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="I10" s="15"/>
+      <c r="K10" s="11"/>
+    </row>
+    <row r="11" spans="1:23" s="10" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="K11" s="11"/>
+    </row>
+    <row r="12" spans="1:23" s="10" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B12" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="K12" s="11"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.5">
       <c r="D14" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.5">
@@ -1506,66 +1443,66 @@
         <v>9</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.5">
       <c r="B16" s="2" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D16" s="21"/>
+        <v>96</v>
+      </c>
+      <c r="D16" s="19"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B17" s="2" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B18" s="2" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.5">
       <c r="D19" s="2" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="K19" s="18"/>
+        <v>47</v>
+      </c>
+      <c r="K19" s="16"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.5">
       <c r="D20" s="2" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.5">
       <c r="D21" s="2" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.5">
@@ -1573,43 +1510,43 @@
         <v>9</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B24" s="2" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.5">
       <c r="D25" s="2" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B26" s="2" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.5">
@@ -1617,36 +1554,36 @@
         <v>4</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B29" s="2" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B33" s="2" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B34" s="2" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35" spans="2:11" ht="110.25" x14ac:dyDescent="0.5">
       <c r="D35" s="2" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.5">
@@ -1654,21 +1591,21 @@
         <v>9</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B37" s="2" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.5">
@@ -1676,21 +1613,21 @@
         <v>9</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B39" s="2" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.5">
@@ -1704,22 +1641,22 @@
         <v>9</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="K42" s="4"/>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B43" s="2" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.5">
@@ -1727,38 +1664,38 @@
         <v>9</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B47" s="2" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B48" s="2" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.5">
       <c r="B49" s="2" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.5">
       <c r="B50" s="2" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.5">
       <c r="B51" s="2" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.5">
@@ -1766,21 +1703,21 @@
         <v>9</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.5">
       <c r="B55" s="2" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.5">
@@ -1788,65 +1725,65 @@
         <v>9</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.5">
       <c r="B58" s="2" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.5">
       <c r="B59" s="2" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="63" x14ac:dyDescent="0.5">
       <c r="A60" s="2" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.5">
       <c r="B61" s="2" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="47.25" x14ac:dyDescent="0.5">
       <c r="A62" s="2" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="K62" s="4"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.5">
       <c r="B63" s="2" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.5">
@@ -1854,36 +1791,36 @@
         <v>4</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.5">
       <c r="B65" s="2" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="63" x14ac:dyDescent="0.5">
       <c r="D66" s="2" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.5">
       <c r="B67" s="2" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.5">
       <c r="B69" s="2" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.5">
@@ -1892,203 +1829,203 @@
     <row r="72" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.5"/>
     <row r="74" spans="1:11" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A74" s="2" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="K74" s="4"/>
     </row>
     <row r="81" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="E81" s="18"/>
+      <c r="E81" s="16"/>
     </row>
     <row r="82" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="E82" s="18"/>
+      <c r="E82" s="16"/>
     </row>
     <row r="83" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="E83" s="18"/>
+      <c r="E83" s="16"/>
     </row>
     <row r="85" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="E85" s="18"/>
+      <c r="E85" s="16"/>
     </row>
     <row r="86" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="E86" s="18"/>
+      <c r="E86" s="16"/>
     </row>
     <row r="87" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="E87" s="18"/>
+      <c r="E87" s="16"/>
     </row>
     <row r="88" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="E88" s="18"/>
+      <c r="E88" s="16"/>
     </row>
     <row r="89" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="E89" s="18"/>
+      <c r="E89" s="16"/>
     </row>
     <row r="90" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="E90" s="18"/>
+      <c r="E90" s="16"/>
     </row>
     <row r="91" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="E91" s="18"/>
+      <c r="E91" s="16"/>
     </row>
     <row r="94" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="B94" s="18"/>
-      <c r="C94" s="18"/>
-      <c r="D94" s="18"/>
-      <c r="E94" s="18"/>
-      <c r="F94" s="18"/>
-      <c r="G94" s="18"/>
-      <c r="H94" s="18"/>
+      <c r="B94" s="16"/>
+      <c r="C94" s="16"/>
+      <c r="D94" s="16"/>
+      <c r="E94" s="16"/>
+      <c r="F94" s="16"/>
+      <c r="G94" s="16"/>
+      <c r="H94" s="16"/>
     </row>
     <row r="95" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="B95" s="18"/>
-      <c r="C95" s="18"/>
-      <c r="D95" s="18"/>
-      <c r="E95" s="18"/>
-      <c r="F95" s="18"/>
-      <c r="G95" s="18"/>
-      <c r="H95" s="18"/>
+      <c r="B95" s="16"/>
+      <c r="C95" s="16"/>
+      <c r="D95" s="16"/>
+      <c r="E95" s="16"/>
+      <c r="F95" s="16"/>
+      <c r="G95" s="16"/>
+      <c r="H95" s="16"/>
       <c r="K95" s="4"/>
     </row>
     <row r="96" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="B96" s="18"/>
-      <c r="C96" s="18"/>
-      <c r="D96" s="18"/>
-      <c r="E96" s="18"/>
-      <c r="F96" s="18"/>
-      <c r="G96" s="18"/>
-      <c r="H96" s="18"/>
+      <c r="B96" s="16"/>
+      <c r="C96" s="16"/>
+      <c r="D96" s="16"/>
+      <c r="E96" s="16"/>
+      <c r="F96" s="16"/>
+      <c r="G96" s="16"/>
+      <c r="H96" s="16"/>
       <c r="K96" s="4"/>
     </row>
     <row r="97" spans="2:8" x14ac:dyDescent="0.5">
-      <c r="B97" s="18"/>
-      <c r="C97" s="18"/>
-      <c r="D97" s="18"/>
-      <c r="E97" s="18"/>
-      <c r="F97" s="18"/>
-      <c r="G97" s="18"/>
-      <c r="H97" s="18"/>
+      <c r="B97" s="16"/>
+      <c r="C97" s="16"/>
+      <c r="D97" s="16"/>
+      <c r="E97" s="16"/>
+      <c r="F97" s="16"/>
+      <c r="G97" s="16"/>
+      <c r="H97" s="16"/>
     </row>
     <row r="98" spans="2:8" x14ac:dyDescent="0.5">
-      <c r="B98" s="18"/>
-      <c r="C98" s="18"/>
-      <c r="D98" s="18"/>
-      <c r="E98" s="18"/>
-      <c r="F98" s="18"/>
-      <c r="G98" s="18"/>
-      <c r="H98" s="18"/>
+      <c r="B98" s="16"/>
+      <c r="C98" s="16"/>
+      <c r="D98" s="16"/>
+      <c r="E98" s="16"/>
+      <c r="F98" s="16"/>
+      <c r="G98" s="16"/>
+      <c r="H98" s="16"/>
     </row>
     <row r="99" spans="2:8" x14ac:dyDescent="0.5">
-      <c r="B99" s="18"/>
-      <c r="C99" s="18"/>
-      <c r="D99" s="18"/>
-      <c r="E99" s="18"/>
-      <c r="F99" s="18"/>
-      <c r="G99" s="18"/>
-      <c r="H99" s="18"/>
+      <c r="B99" s="16"/>
+      <c r="C99" s="16"/>
+      <c r="D99" s="16"/>
+      <c r="E99" s="16"/>
+      <c r="F99" s="16"/>
+      <c r="G99" s="16"/>
+      <c r="H99" s="16"/>
     </row>
     <row r="100" spans="2:8" x14ac:dyDescent="0.5">
-      <c r="B100" s="18"/>
-      <c r="C100" s="18"/>
-      <c r="D100" s="18"/>
-      <c r="E100" s="18"/>
-      <c r="F100" s="18"/>
-      <c r="G100" s="18"/>
-      <c r="H100" s="18"/>
+      <c r="B100" s="16"/>
+      <c r="C100" s="16"/>
+      <c r="D100" s="16"/>
+      <c r="E100" s="16"/>
+      <c r="F100" s="16"/>
+      <c r="G100" s="16"/>
+      <c r="H100" s="16"/>
     </row>
     <row r="101" spans="2:8" x14ac:dyDescent="0.5">
-      <c r="B101" s="18"/>
-      <c r="C101" s="18"/>
-      <c r="D101" s="18"/>
-      <c r="E101" s="18"/>
-      <c r="F101" s="18"/>
-      <c r="G101" s="18"/>
-      <c r="H101" s="18"/>
+      <c r="B101" s="16"/>
+      <c r="C101" s="16"/>
+      <c r="D101" s="16"/>
+      <c r="E101" s="16"/>
+      <c r="F101" s="16"/>
+      <c r="G101" s="16"/>
+      <c r="H101" s="16"/>
     </row>
     <row r="102" spans="2:8" x14ac:dyDescent="0.5">
-      <c r="B102" s="23"/>
-      <c r="C102" s="23"/>
-      <c r="D102" s="23"/>
-      <c r="E102" s="23"/>
-      <c r="F102" s="23"/>
-      <c r="G102" s="23"/>
-      <c r="H102" s="18"/>
+      <c r="B102" s="21"/>
+      <c r="C102" s="21"/>
+      <c r="D102" s="21"/>
+      <c r="E102" s="21"/>
+      <c r="F102" s="21"/>
+      <c r="G102" s="21"/>
+      <c r="H102" s="16"/>
     </row>
     <row r="103" spans="2:8" x14ac:dyDescent="0.5">
-      <c r="B103" s="23"/>
-      <c r="C103" s="23"/>
-      <c r="D103" s="23"/>
-      <c r="E103" s="23"/>
-      <c r="F103" s="23"/>
-      <c r="G103" s="23"/>
-      <c r="H103" s="18"/>
+      <c r="B103" s="21"/>
+      <c r="C103" s="21"/>
+      <c r="D103" s="21"/>
+      <c r="E103" s="21"/>
+      <c r="F103" s="21"/>
+      <c r="G103" s="21"/>
+      <c r="H103" s="16"/>
     </row>
     <row r="104" spans="2:8" x14ac:dyDescent="0.5">
-      <c r="B104" s="18"/>
-      <c r="C104" s="18"/>
-      <c r="D104" s="18"/>
-      <c r="E104" s="18"/>
-      <c r="F104" s="18"/>
-      <c r="G104" s="18"/>
-      <c r="H104" s="18"/>
+      <c r="B104" s="16"/>
+      <c r="C104" s="16"/>
+      <c r="D104" s="16"/>
+      <c r="E104" s="16"/>
+      <c r="F104" s="16"/>
+      <c r="G104" s="16"/>
+      <c r="H104" s="16"/>
     </row>
     <row r="105" spans="2:8" x14ac:dyDescent="0.5">
-      <c r="B105" s="18"/>
-      <c r="C105" s="18"/>
-      <c r="D105" s="18"/>
-      <c r="E105" s="18"/>
-      <c r="F105" s="18"/>
-      <c r="G105" s="18"/>
-      <c r="H105" s="18"/>
+      <c r="B105" s="16"/>
+      <c r="C105" s="16"/>
+      <c r="D105" s="16"/>
+      <c r="E105" s="16"/>
+      <c r="F105" s="16"/>
+      <c r="G105" s="16"/>
+      <c r="H105" s="16"/>
     </row>
     <row r="106" spans="2:8" x14ac:dyDescent="0.5">
-      <c r="B106" s="18"/>
-      <c r="C106" s="18"/>
-      <c r="D106" s="18"/>
-      <c r="E106" s="18"/>
-      <c r="F106" s="18"/>
-      <c r="G106" s="18"/>
-      <c r="H106" s="18"/>
+      <c r="B106" s="16"/>
+      <c r="C106" s="16"/>
+      <c r="D106" s="16"/>
+      <c r="E106" s="16"/>
+      <c r="F106" s="16"/>
+      <c r="G106" s="16"/>
+      <c r="H106" s="16"/>
     </row>
     <row r="107" spans="2:8" x14ac:dyDescent="0.5">
-      <c r="B107" s="18"/>
-      <c r="C107" s="18"/>
-      <c r="D107" s="18"/>
-      <c r="E107" s="18"/>
-      <c r="F107" s="18"/>
-      <c r="G107" s="18"/>
-      <c r="H107" s="18"/>
+      <c r="B107" s="16"/>
+      <c r="C107" s="16"/>
+      <c r="D107" s="16"/>
+      <c r="E107" s="16"/>
+      <c r="F107" s="16"/>
+      <c r="G107" s="16"/>
+      <c r="H107" s="16"/>
     </row>
     <row r="108" spans="2:8" x14ac:dyDescent="0.5">
-      <c r="B108" s="18"/>
-      <c r="C108" s="18"/>
-      <c r="D108" s="18"/>
-      <c r="E108" s="18"/>
-      <c r="F108" s="18"/>
-      <c r="G108" s="18"/>
-      <c r="H108" s="18"/>
+      <c r="B108" s="16"/>
+      <c r="C108" s="16"/>
+      <c r="D108" s="16"/>
+      <c r="E108" s="16"/>
+      <c r="F108" s="16"/>
+      <c r="G108" s="16"/>
+      <c r="H108" s="16"/>
     </row>
     <row r="109" spans="2:8" x14ac:dyDescent="0.5">
-      <c r="B109" s="18"/>
-      <c r="C109" s="18"/>
-      <c r="D109" s="18"/>
-      <c r="E109" s="18"/>
-      <c r="F109" s="18"/>
-      <c r="G109" s="18"/>
-      <c r="H109" s="18"/>
+      <c r="B109" s="16"/>
+      <c r="C109" s="16"/>
+      <c r="D109" s="16"/>
+      <c r="E109" s="16"/>
+      <c r="F109" s="16"/>
+      <c r="G109" s="16"/>
+      <c r="H109" s="16"/>
     </row>
     <row r="110" spans="2:8" x14ac:dyDescent="0.5">
-      <c r="B110" s="18"/>
-      <c r="C110" s="18"/>
-      <c r="D110" s="18"/>
-      <c r="E110" s="18"/>
-      <c r="F110" s="18"/>
-      <c r="G110" s="18"/>
-      <c r="H110" s="18"/>
+      <c r="B110" s="16"/>
+      <c r="C110" s="16"/>
+      <c r="D110" s="16"/>
+      <c r="E110" s="16"/>
+      <c r="F110" s="16"/>
+      <c r="G110" s="16"/>
+      <c r="H110" s="16"/>
     </row>
   </sheetData>
   <autoFilter ref="D1:K1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
@@ -2140,46 +2077,46 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A2" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A3" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" s="2">
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A5" s="2" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B5" s="2">
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A6" s="2" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B6" s="2">
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.5">
@@ -2188,24 +2125,24 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A8" s="1" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="B8" s="2">
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A9" s="1" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="B9" s="2">
         <v>2</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.5">
@@ -2214,79 +2151,79 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A11" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="B11" s="2">
         <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A12" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="B12" s="2">
         <v>2</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="B13" s="2">
         <v>3</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A14" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="B14" s="2">
         <v>4</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A15" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="B15" s="2">
         <v>5</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A16" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="B16" s="2">
         <v>6</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A17" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="B17" s="2">
         <v>7</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.5">
@@ -2299,57 +2236,57 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A20" s="1" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="B20" s="2">
         <v>8</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A21" s="1" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="B21" s="2">
         <v>9</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A22" s="1" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="B22" s="2">
         <v>10</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A23" s="1" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="B23" s="2">
         <v>11</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A24" s="1" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="B24" s="2">
         <v>12</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.5">
@@ -2357,46 +2294,46 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A27" s="1" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="B27" s="2">
         <v>1</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A28" s="1" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="B28" s="2">
         <v>2</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A29" s="1" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="B29" s="2">
         <v>3</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A30" s="1" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="B30" s="2">
         <v>4</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.5">
@@ -2921,31 +2858,31 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="D1" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="E1" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="F1" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="G1" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="H1" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="I1" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -2956,10 +2893,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -2969,10 +2906,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
     </row>
@@ -2981,15 +2918,15 @@
         <v>22</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A3" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>87</v>
+      <c r="A3" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.5">
@@ -2997,324 +2934,180 @@
         <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A5" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>59</v>
-      </c>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A6" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>24</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A7" s="9" t="s">
-        <v>81</v>
+      <c r="A7" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>166</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>25</v>
+      <c r="A8" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>50</v>
+      <c r="A9" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A10" s="2" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>27</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A11" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" t="s">
-        <v>28</v>
+      <c r="A11" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A12" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" t="s">
-        <v>29</v>
+      <c r="A12" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A14" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A15" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A14" s="2" t="s">
+      <c r="B15" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A16" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A15" s="2" t="s">
+      <c r="B16" s="20" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A17" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A16" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A17" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>44</v>
+      <c r="B17" s="20" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A18" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>45</v>
+      <c r="A18" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A19" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="22" t="s">
-        <v>46</v>
+      <c r="A19" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A20" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>47</v>
+      <c r="A20" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A21" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>48</v>
+      <c r="A21" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A22" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>169</v>
+      <c r="A22" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
+      <c r="A23" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A24" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>163</v>
+      <c r="A24" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>143</v>
+      <c r="A25" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A26" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="B26" s="22" t="s">
-        <v>160</v>
-      </c>
+      <c r="A26" s="20"/>
+      <c r="B26" s="20"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A27" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="B27" s="22" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A28" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A29" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="B29" s="22" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A30" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="B30" s="22" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A31" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A32" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A33" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A34" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="B34" s="22" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A35" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="B35" s="22" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A36" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="B36" s="22" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A37" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="B37" s="22" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A38" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="B38" s="22" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A39" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="B39" s="22" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A40" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="B40" s="22" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A41" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="B41" s="22" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A42" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="B42" s="22" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A43" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="B43" s="22" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A44" s="22"/>
-      <c r="B44" s="22"/>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A45" s="22"/>
-      <c r="B45" s="22"/>
+      <c r="A27" s="20"/>
+      <c r="B27" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3342,46 +3135,46 @@
     <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="B1" s="10" t="s">
+    <row r="1" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>80</v>
+      <c r="C1" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="C2" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="D2" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="B3" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="C3" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="D3" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/tables/ronda/forms/ronda/ronda.xlsx
+++ b/app/config/tables/ronda/forms/ronda/ronda.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celso\odkx\celsoapp\app\config\tables\ronda\forms\ronda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85143C20-8908-4D3E-93BE-DDB291FFEB5D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7556624E-29B9-47E7-8D18-2A00BCF35A7B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38498" yWindow="-98" windowWidth="38596" windowHeight="21196" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="161">
   <si>
     <t>type</t>
   </si>
@@ -292,9 +292,6 @@
     <t>note</t>
   </si>
   <si>
-    <t>Obrigado pelo seu tempo em responder a estas perguntas. Com base em algumas das respostas que você deu, você é inelegível para fazer parte do estudo. Isso de modo algum afeta o cuidado que você receberá aqui nesta clínica. Posso responder a quaisquer perguntas que você possa ter?</t>
-  </si>
-  <si>
     <t>refuse</t>
   </si>
   <si>
@@ -311,9 +308,6 @@
   </si>
   <si>
     <t>end if // ref_reason</t>
-  </si>
-  <si>
-    <t>Diga: Obrigado por me informar porque você não quer participar. É importante que saibamos por que as mulheres podem se sentir assim. Isso de modo algum afetará os cuidados que você, seus filhos ou seu parceiro receberão na clínica.</t>
   </si>
   <si>
     <t>ending</t>
@@ -389,9 +383,6 @@
     <t>outra razão</t>
   </si>
   <si>
-    <t>Está a fazer entrevista com: {{data.nome}} and ID: {{data.id_paciente}}</t>
-  </si>
-  <si>
     <t>adate</t>
   </si>
   <si>
@@ -513,6 +504,24 @@
   </si>
   <si>
     <t>ef_adverso</t>
+  </si>
+  <si>
+    <t>Está a fazer entrevista com: {{data.nome}} e ID: {{data.id_paciente}}</t>
+  </si>
+  <si>
+    <t>resposta errada</t>
+  </si>
+  <si>
+    <t>o Codigo da Pessoa nao corresponde ao codigo escaneado</t>
+  </si>
+  <si>
+    <t>Diga: Obrigado por me informar porque você não quer participar.</t>
+  </si>
+  <si>
+    <t>Obrigado pelo seu tempo em responder a estas perguntas. Com base em algumas das respostas que você deu, você é inelegível para fazer parte do estudo.</t>
+  </si>
+  <si>
+    <t>data('stiker')==data.id_paciente</t>
   </si>
 </sst>
 </file>
@@ -1157,7 +1166,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.5">
@@ -1173,7 +1182,7 @@
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.5">
@@ -1181,7 +1190,7 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -1199,11 +1208,11 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:W110"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E62" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F26" sqref="F26"/>
+      <selection pane="bottomRight" activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -1217,8 +1226,8 @@
     <col min="7" max="7" width="63" style="2" customWidth="1"/>
     <col min="8" max="8" width="26.25" style="2" customWidth="1"/>
     <col min="9" max="9" width="35.375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="24.125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="10.75" style="5"/>
+    <col min="10" max="10" width="35.0625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="28.1875" style="5" customWidth="1"/>
     <col min="12" max="13" width="10.75" style="2"/>
     <col min="14" max="14" width="40.875" style="2" customWidth="1"/>
     <col min="15" max="16384" width="10.75" style="2"/>
@@ -1346,17 +1355,17 @@
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>116</v>
+        <v>155</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="3"/>
     </row>
-    <row r="5" spans="1:23" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:23" s="10" customFormat="1" ht="47.25" x14ac:dyDescent="0.5">
       <c r="D5" s="10" t="s">
         <v>22</v>
       </c>
@@ -1366,7 +1375,12 @@
       <c r="G5" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="K5" s="11"/>
+      <c r="J5" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="6" spans="1:23" s="10" customFormat="1" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="K6" s="11"/>
@@ -1429,13 +1443,16 @@
         <v>5</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.5">
@@ -1446,10 +1463,10 @@
         <v>42</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.5">
@@ -1457,26 +1474,26 @@
         <v>45</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D16" s="19"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B17" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B18" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.5">
       <c r="D19" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>47</v>
@@ -1485,10 +1502,10 @@
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.5">
       <c r="D20" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>48</v>
@@ -1496,10 +1513,10 @@
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.5">
       <c r="D21" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>49</v>
@@ -1524,7 +1541,7 @@
         <v>45</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.5">
@@ -1535,7 +1552,7 @@
         <v>56</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>58</v>
@@ -1546,7 +1563,7 @@
         <v>61</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.5">
@@ -1554,7 +1571,7 @@
         <v>4</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>62</v>
@@ -1580,10 +1597,10 @@
         <v>83</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.5">
@@ -1594,10 +1611,10 @@
         <v>42</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.5">
@@ -1605,7 +1622,7 @@
         <v>45</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.5">
@@ -1616,10 +1633,10 @@
         <v>42</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.5">
@@ -1627,7 +1644,7 @@
         <v>45</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.5">
@@ -1644,10 +1661,10 @@
         <v>42</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K42" s="4"/>
     </row>
@@ -1656,7 +1673,7 @@
         <v>45</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.5">
@@ -1667,10 +1684,10 @@
         <v>42</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.5">
@@ -1706,10 +1723,10 @@
         <v>42</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.5">
@@ -1717,7 +1734,7 @@
         <v>45</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.5">
@@ -1725,10 +1742,10 @@
         <v>9</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.5">
@@ -1741,7 +1758,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="63" x14ac:dyDescent="0.5">
+    <row r="60" spans="1:11" ht="47.25" x14ac:dyDescent="0.5">
       <c r="A60" s="2" t="s">
         <v>82</v>
       </c>
@@ -1749,10 +1766,10 @@
         <v>83</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>84</v>
+        <v>159</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.5">
@@ -1762,28 +1779,28 @@
     </row>
     <row r="62" spans="1:11" ht="47.25" x14ac:dyDescent="0.5">
       <c r="A62" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>57</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K62" s="4"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.5">
       <c r="B63" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.5">
@@ -1791,26 +1808,26 @@
         <v>4</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.5">
       <c r="B65" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" ht="63" x14ac:dyDescent="0.5">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" ht="31.5" x14ac:dyDescent="0.5">
       <c r="D66" s="2" t="s">
         <v>83</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>91</v>
+        <v>158</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.5">
@@ -1829,16 +1846,16 @@
     <row r="72" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.5"/>
     <row r="74" spans="1:11" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A74" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>83</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K74" s="4"/>
     </row>
@@ -2190,7 +2207,7 @@
         <v>4</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.5">
@@ -2236,57 +2253,57 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A20" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B20" s="2">
         <v>8</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A21" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B21" s="2">
         <v>9</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A22" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B22" s="2">
         <v>10</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A23" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B23" s="2">
         <v>11</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A24" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B24" s="2">
         <v>12</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.5">
@@ -2294,46 +2311,46 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A27" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B27" s="2">
         <v>1</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A28" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B28" s="2">
         <v>2</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A29" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B29" s="2">
         <v>3</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A30" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B30" s="2">
         <v>4</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.5">
@@ -2864,25 +2881,25 @@
         <v>36</v>
       </c>
       <c r="C1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F1" t="s">
         <v>122</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>123</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>124</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>125</v>
-      </c>
-      <c r="G1" t="s">
-        <v>126</v>
-      </c>
-      <c r="H1" t="s">
-        <v>127</v>
-      </c>
-      <c r="I1" t="s">
-        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -2895,8 +2912,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -2946,7 +2963,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.5">
@@ -2954,31 +2971,31 @@
         <v>9</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A8" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A9" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A10" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.5">
@@ -2994,7 +3011,7 @@
         <v>57</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.5">
@@ -3002,7 +3019,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.5">
@@ -3010,7 +3027,7 @@
         <v>83</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.5">
@@ -3018,7 +3035,7 @@
         <v>9</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.5">
@@ -3026,7 +3043,7 @@
         <v>9</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.5">
@@ -3034,7 +3051,7 @@
         <v>9</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.5">
@@ -3042,7 +3059,7 @@
         <v>9</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.5">
@@ -3050,7 +3067,7 @@
         <v>9</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.5">
@@ -3058,7 +3075,7 @@
         <v>9</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.5">
@@ -3066,15 +3083,15 @@
         <v>83</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A22" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.5">
@@ -3082,7 +3099,7 @@
         <v>4</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.5">
@@ -3090,7 +3107,7 @@
         <v>83</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.5">
@@ -3098,7 +3115,7 @@
         <v>83</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.5">
@@ -3165,7 +3182,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B3" t="s">
         <v>68</v>
@@ -3174,7 +3191,7 @@
         <v>68</v>
       </c>
       <c r="D3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/tables/ronda/forms/ronda/ronda.xlsx
+++ b/app/config/tables/ronda/forms/ronda/ronda.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celso\odkx\celsoapp\app\config\tables\ronda\forms\ronda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7556624E-29B9-47E7-8D18-2A00BCF35A7B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FBE0321-6E96-4FA1-BC22-9E811D41DC24}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38498" yWindow="-98" windowWidth="38596" windowHeight="21196" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="38596" windowHeight="21196" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="3" r:id="rId1"/>
     <sheet name="survey" sheetId="1" r:id="rId2"/>
     <sheet name="choices" sheetId="2" r:id="rId3"/>
     <sheet name="queries" sheetId="5" r:id="rId4"/>
-    <sheet name="model" sheetId="4" r:id="rId5"/>
-    <sheet name="prompt_types" sheetId="6" r:id="rId6"/>
+    <sheet name="calculates" sheetId="7" r:id="rId5"/>
+    <sheet name="model" sheetId="4" r:id="rId6"/>
+    <sheet name="prompt_types" sheetId="6" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">survey!$D$1:$K$1</definedName>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="214">
   <si>
     <t>type</t>
   </si>
@@ -175,12 +176,6 @@
     <t>Não</t>
   </si>
   <si>
-    <t>if</t>
-  </si>
-  <si>
-    <t>end if</t>
-  </si>
-  <si>
     <t>1º dia - ASC</t>
   </si>
   <si>
@@ -220,15 +215,6 @@
     <t>tem_adverso</t>
   </si>
   <si>
-    <t>Tem algun efeito adverso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">if </t>
-  </si>
-  <si>
-    <t>Especica o efeito adverso</t>
-  </si>
-  <si>
     <t>id_paciente</t>
   </si>
   <si>
@@ -268,9 +254,6 @@
     <t>Letras de códigos</t>
   </si>
   <si>
-    <t>escrever só as letras em maiuscula e sem espaco ou trassos</t>
-  </si>
-  <si>
     <t>numero_sticker</t>
   </si>
   <si>
@@ -286,9 +269,6 @@
     <t>goto ending</t>
   </si>
   <si>
-    <t>ineligible</t>
-  </si>
-  <si>
     <t>note</t>
   </si>
   <si>
@@ -326,9 +306,6 @@
   </si>
   <si>
     <t>goto refuse</t>
-  </si>
-  <si>
-    <t>else</t>
   </si>
   <si>
     <t>Febre ou história de febre</t>
@@ -488,9 +465,6 @@
     <t>Numero de Ronda</t>
   </si>
   <si>
-    <t>(data('n_ronda')&lt;4)</t>
-  </si>
-  <si>
     <t>selected(data('tem_adverso'),'1')</t>
   </si>
   <si>
@@ -506,22 +480,208 @@
     <t>ef_adverso</t>
   </si>
   <si>
-    <t>Está a fazer entrevista com: {{data.nome}} e ID: {{data.id_paciente}}</t>
-  </si>
-  <si>
     <t>resposta errada</t>
   </si>
   <si>
-    <t>o Codigo da Pessoa nao corresponde ao codigo escaneado</t>
-  </si>
-  <si>
     <t>Diga: Obrigado por me informar porque você não quer participar.</t>
   </si>
   <si>
-    <t>Obrigado pelo seu tempo em responder a estas perguntas. Com base em algumas das respostas que você deu, você é inelegível para fazer parte do estudo.</t>
-  </si>
-  <si>
-    <t>data('stiker')==data.id_paciente</t>
+    <t>Tem algun efeito adverso na ronda anterior</t>
+  </si>
+  <si>
+    <t>tolera</t>
+  </si>
+  <si>
+    <t>A criança tomou o medicamento (QPS)</t>
+  </si>
+  <si>
+    <t>tomar_qps</t>
+  </si>
+  <si>
+    <t>Sim tomou</t>
+  </si>
+  <si>
+    <t>Não tomou porque fugiu</t>
+  </si>
+  <si>
+    <t>presenca</t>
+  </si>
+  <si>
+    <t>A Criança está presente</t>
+  </si>
+  <si>
+    <t>exclusao</t>
+  </si>
+  <si>
+    <t>excluido</t>
+  </si>
+  <si>
+    <t>ausentes</t>
+  </si>
+  <si>
+    <t>Agradeça o informado</t>
+  </si>
+  <si>
+    <t>data('presenca')=='2'</t>
+  </si>
+  <si>
+    <t>goto ausentes</t>
+  </si>
+  <si>
+    <t>if //tem_adverso</t>
+  </si>
+  <si>
+    <t>if  // ef_adverso</t>
+  </si>
+  <si>
+    <t>end if //ef_adverso</t>
+  </si>
+  <si>
+    <t>end if //tem_adverso</t>
+  </si>
+  <si>
+    <t>if //consentimento</t>
+  </si>
+  <si>
+    <t>if // febre</t>
+  </si>
+  <si>
+    <t>if //tdr</t>
+  </si>
+  <si>
+    <t>if // tdrpositivo</t>
+  </si>
+  <si>
+    <t>end if // tdrpositivo</t>
+  </si>
+  <si>
+    <t>end if // tdr</t>
+  </si>
+  <si>
+    <t>end if // febre</t>
+  </si>
+  <si>
+    <t>if // transf</t>
+  </si>
+  <si>
+    <t>end if // transf</t>
+  </si>
+  <si>
+    <t>end if // presenca</t>
+  </si>
+  <si>
+    <t>goto exclusao</t>
+  </si>
+  <si>
+    <t>selected(data('ef_adverso'),'6') || selected(data('ef_adverso'),'5')</t>
+  </si>
+  <si>
+    <t>Sim tomou mas depois de vomitos (1 ou 2 vezes</t>
+  </si>
+  <si>
+    <t>Não  tomou por vomitos repetidos (mais de 2 vezes)</t>
+  </si>
+  <si>
+    <t>Recusou</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>end if // consentimento</t>
+  </si>
+  <si>
+    <t>if // presenca</t>
+  </si>
+  <si>
+    <t>Especifica o efeito adverso</t>
+  </si>
+  <si>
+    <t>(data('presenca')=='2')</t>
+  </si>
+  <si>
+    <t>(data('transf')=='1')</t>
+  </si>
+  <si>
+    <t>!data('sticker')</t>
+  </si>
+  <si>
+    <t>(data('febre')=='1')</t>
+  </si>
+  <si>
+    <t>Obrigado pelo seu tempo em responder a estas perguntas. Com base em algumas das respostas que você deu, a criança é excluida a partir deste momento.</t>
+  </si>
+  <si>
+    <t>codigo_manual</t>
+  </si>
+  <si>
+    <t>erro_id</t>
+  </si>
+  <si>
+    <t>vnome</t>
+  </si>
+  <si>
+    <t>Está a fazer entrevista com: {{data.vnome}} e ID: {{data.id_paciente}}</t>
+  </si>
+  <si>
+    <t>data('letra_sticker') + data('numero_sticker')</t>
+  </si>
+  <si>
+    <t>Erro no codigo de manual ({{calculates.codigo_manual}}) , Por favor  verifica de novo o codigo porque nao corresponde ao id ({{data.id_paciente}}). Veja bem se tem somente as letras maiusculas, sem espaco, e se os numeros corresponde ao do esticker.</t>
+  </si>
+  <si>
+    <t>if // error_qr</t>
+  </si>
+  <si>
+    <t>erro_qr</t>
+  </si>
+  <si>
+    <t>end if // error_qr</t>
+  </si>
+  <si>
+    <t>data('sticker') &amp;&amp; (data('sticker') != data('id_paciente'))</t>
+  </si>
+  <si>
+    <t>if</t>
+  </si>
+  <si>
+    <t>end if</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selected(data('tem_adverso'),'1') </t>
+  </si>
+  <si>
+    <t>data('presenca')=='1'</t>
+  </si>
+  <si>
+    <t>data('consentimento')=='1'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(data('consentimento')=='1') &amp;&amp; (data('presenca')=='1') </t>
+  </si>
+  <si>
+    <t>!data('sticker') &amp;&amp; (calculates.codigo_manual() != data('id_paciente'))</t>
+  </si>
+  <si>
+    <t>o Codigo da Pessoa ({{data.id_paciente}} não corresponde ao codigo escaneado  ({{data.sticker}}).</t>
+  </si>
+  <si>
+    <t>(data('n_ronda')&lt;5)</t>
+  </si>
+  <si>
+    <t>(data('tomar_qps')&lt;3) &amp;&amp; (data('presenca') == '1')</t>
+  </si>
+  <si>
+    <t>comentario_1</t>
+  </si>
+  <si>
+    <t>Comentário</t>
+  </si>
+  <si>
+    <t>comentario</t>
   </si>
 </sst>
 </file>
@@ -589,7 +749,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -599,6 +759,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -661,7 +833,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -711,6 +883,30 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1140,7 +1336,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -1166,7 +1362,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.5">
@@ -1174,7 +1370,7 @@
         <v>14</v>
       </c>
       <c r="B3">
-        <v>2019082600</v>
+        <v>2019083000</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.5">
@@ -1182,7 +1378,7 @@
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.5">
@@ -1190,7 +1386,7 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -1206,18 +1402,18 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:W110"/>
+  <dimension ref="A1:W125"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J6" sqref="J6"/>
+      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="13.0625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="13.125" style="2" customWidth="1"/>
     <col min="2" max="2" width="17.125" style="2" customWidth="1"/>
     <col min="3" max="3" width="33.25" style="2" customWidth="1"/>
     <col min="4" max="4" width="16.75" style="2" customWidth="1"/>
@@ -1226,16 +1422,17 @@
     <col min="7" max="7" width="63" style="2" customWidth="1"/>
     <col min="8" max="8" width="26.25" style="2" customWidth="1"/>
     <col min="9" max="9" width="35.375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="35.0625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="28.1875" style="5" customWidth="1"/>
-    <col min="12" max="13" width="10.75" style="2"/>
+    <col min="10" max="10" width="35.125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="17.875" style="5" customWidth="1"/>
+    <col min="12" max="12" width="30" style="2" customWidth="1"/>
+    <col min="13" max="13" width="10.75" style="2"/>
     <col min="14" max="14" width="40.875" style="2" customWidth="1"/>
     <col min="15" max="16384" width="10.75" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>7</v>
@@ -1327,7 +1524,7 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.5">
       <c r="B3" s="18" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -1351,36 +1548,31 @@
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.5">
       <c r="D4" s="1" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="2" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="3"/>
     </row>
-    <row r="5" spans="1:23" s="10" customFormat="1" ht="47.25" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:23" s="10" customFormat="1" x14ac:dyDescent="0.5">
       <c r="D5" s="10" t="s">
         <v>22</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="G5" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="K5" s="11" t="s">
-        <v>157</v>
-      </c>
+      <c r="K5" s="11"/>
     </row>
     <row r="6" spans="1:23" s="10" customFormat="1" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="K6" s="11"/>
@@ -1395,327 +1587,425 @@
       <c r="J7" s="13"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:23" s="10" customFormat="1" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:23" s="10" customFormat="1" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="D8" s="10" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="I8" s="15" t="s">
-        <v>76</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="I8" s="15"/>
       <c r="K8" s="11"/>
+      <c r="L8" s="10" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="9" spans="1:23" s="10" customFormat="1" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="D9" s="10" t="s">
         <v>5</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="K9" s="11"/>
-    </row>
-    <row r="10" spans="1:23" s="10" customFormat="1" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="I10" s="15"/>
+      <c r="L9" s="10" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" s="10" customFormat="1" x14ac:dyDescent="0.5">
       <c r="K10" s="11"/>
     </row>
     <row r="11" spans="1:23" s="10" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B11" s="10" t="s">
+        <v>74</v>
+      </c>
       <c r="K11" s="11"/>
     </row>
-    <row r="12" spans="1:23" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:23" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="B12" s="10" t="s">
-        <v>80</v>
+        <v>197</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>200</v>
       </c>
       <c r="K12" s="11"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.5">
-      <c r="D14" s="2" t="s">
+    <row r="13" spans="1:23" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="D13" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="K13" s="11"/>
+    </row>
+    <row r="14" spans="1:23" s="10" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B14" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="K14" s="11"/>
+    </row>
+    <row r="15" spans="1:23" s="10" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="K15" s="11"/>
+    </row>
+    <row r="16" spans="1:23" s="10" customFormat="1" ht="47.65" x14ac:dyDescent="0.55000000000000004">
+      <c r="B16" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>207</v>
+      </c>
+      <c r="I16" s="15"/>
+      <c r="K16" s="11"/>
+    </row>
+    <row r="17" spans="2:12" s="10" customFormat="1" ht="63.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D17" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="I17" s="15"/>
+      <c r="K17" s="11"/>
+    </row>
+    <row r="18" spans="2:12" s="10" customFormat="1" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="B18" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="I18" s="15"/>
+      <c r="K18" s="11"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.5">
+      <c r="D20" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="G14" s="2" t="s">
+      <c r="F20" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="L20" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.5">
+      <c r="D21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="L21" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.5">
+      <c r="B22" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D22" s="19"/>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.5">
+      <c r="B23" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="B24" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" s="21" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="D25" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="F25" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="G25" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="K25" s="22"/>
+      <c r="L25" s="21" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" s="21" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B26" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="K26" s="22"/>
+    </row>
+    <row r="27" spans="2:12" s="21" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="D27" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="E27" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="F27" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="G27" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="K27" s="22"/>
+      <c r="L27" s="21" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" s="21" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B28" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="K28" s="22"/>
+    </row>
+    <row r="29" spans="2:12" s="21" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="D29" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="F29" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="G29" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="K29" s="22"/>
+      <c r="L29" s="21" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" s="21" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="K30" s="22"/>
+    </row>
+    <row r="31" spans="2:12" s="21" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B31" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="K31" s="22"/>
+    </row>
+    <row r="32" spans="2:12" s="21" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="B32" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="K32" s="22"/>
+    </row>
+    <row r="33" spans="2:12" s="21" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="B33" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="C33" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="K33" s="22"/>
+    </row>
+    <row r="34" spans="2:12" s="23" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="D34" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="F34" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="G34" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="K34" s="24"/>
+      <c r="L34" s="23" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.5">
+      <c r="B35" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.5">
+      <c r="B36" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.5">
+      <c r="B37" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" s="23" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="D39" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" s="23" t="s">
         <v>149</v>
       </c>
-      <c r="K14" s="5" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.5">
-      <c r="D15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.5">
-      <c r="B16" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D16" s="19"/>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="B17" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="B18" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="D19" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="K19" s="16"/>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="D20" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="D21" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="D23" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="B24" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C24" s="2" t="s">
+      <c r="F39" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="G39" s="23" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="D25" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="B26" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="D27" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="B29" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="B33" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="B34" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="35" spans="2:11" ht="110.25" x14ac:dyDescent="0.5">
-      <c r="D35" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="D36" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="B37" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="D38" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="B39" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="K40" s="4"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="K41" s="4"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="K39" s="24"/>
+      <c r="L39" s="23" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12" s="23" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="K40" s="24"/>
+    </row>
+    <row r="42" spans="2:12" ht="31.5" x14ac:dyDescent="0.5">
       <c r="D42" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>42</v>
+        <v>106</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>136</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="K42" s="4"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="B43" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="K42" s="16"/>
+      <c r="L42" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.5">
+      <c r="D43" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F43" s="2" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="D46" s="2" t="s">
+      <c r="G43" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.5">
+      <c r="D44" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.5">
+      <c r="B46" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" ht="110.25" x14ac:dyDescent="0.5">
+      <c r="D47" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="D48" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E46" s="2" t="s">
+      <c r="E48" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F46" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="B47" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="B48" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="F48" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="L48" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="49" spans="2:12" x14ac:dyDescent="0.5">
       <c r="B49" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="B50" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.5">
+        <v>167</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="50" spans="2:12" x14ac:dyDescent="0.5">
+      <c r="D50" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="L50" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="51" spans="2:12" x14ac:dyDescent="0.5">
       <c r="B51" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.5">
+        <v>168</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="52" spans="2:12" x14ac:dyDescent="0.5">
+      <c r="K52" s="4"/>
+    </row>
+    <row r="53" spans="2:12" x14ac:dyDescent="0.5">
+      <c r="K53" s="4"/>
+    </row>
+    <row r="54" spans="2:12" x14ac:dyDescent="0.5">
       <c r="D54" s="2" t="s">
         <v>9</v>
       </c>
@@ -1723,310 +2013,298 @@
         <v>42</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.5">
+        <v>91</v>
+      </c>
+      <c r="K54" s="4"/>
+      <c r="L54" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="55" spans="2:12" x14ac:dyDescent="0.5">
       <c r="B55" s="2" t="s">
-        <v>45</v>
+        <v>169</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="D57" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="58" spans="2:12" x14ac:dyDescent="0.5">
+      <c r="D58" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E57" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="B58" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="E58" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L58" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="59" spans="2:12" x14ac:dyDescent="0.5">
       <c r="B59" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" ht="47.25" x14ac:dyDescent="0.5">
-      <c r="A60" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="G60" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.5">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="60" spans="2:12" x14ac:dyDescent="0.5">
+      <c r="B60" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="61" spans="2:12" x14ac:dyDescent="0.5">
       <c r="B61" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" ht="47.25" x14ac:dyDescent="0.5">
-      <c r="A62" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="G62" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="K62" s="4"/>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="B63" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.5">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="62" spans="2:12" x14ac:dyDescent="0.5">
+      <c r="B62" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="64" spans="2:12" ht="31.5" x14ac:dyDescent="0.5">
       <c r="D64" s="2" t="s">
-        <v>4</v>
+        <v>9</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>142</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.5">
+        <v>100</v>
+      </c>
+      <c r="L64" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.5">
       <c r="B65" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="D66" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="D67" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="L67" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="B68" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="B71" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A73" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="D73" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E73" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="F73" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="G73" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="K73" s="24"/>
+      <c r="L73" s="23" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B74" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="K74" s="24"/>
+    </row>
+    <row r="75" spans="1:12" ht="47.25" x14ac:dyDescent="0.5">
+      <c r="A75" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="L75" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="B76" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" ht="47.25" x14ac:dyDescent="0.5">
+      <c r="A77" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="K77" s="4"/>
+      <c r="L77" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="B78" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="D79" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="L79" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="B80" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="D81" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="L81" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="B82" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="B84" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="K85" s="4"/>
+    </row>
+    <row r="87" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="89" spans="1:12" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A89" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="F66" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="G66" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="B67" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="B69" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="K70" s="4"/>
-    </row>
-    <row r="72" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="74" spans="1:11" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A74" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="G74" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="K74" s="4"/>
-    </row>
-    <row r="81" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="E81" s="16"/>
-    </row>
-    <row r="82" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="E82" s="16"/>
-    </row>
-    <row r="83" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="E83" s="16"/>
-    </row>
-    <row r="85" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="E85" s="16"/>
-    </row>
-    <row r="86" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="E86" s="16"/>
-    </row>
-    <row r="87" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="E87" s="16"/>
-    </row>
-    <row r="88" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="E88" s="16"/>
-    </row>
-    <row r="89" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="E89" s="16"/>
-    </row>
-    <row r="90" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="E90" s="16"/>
-    </row>
-    <row r="91" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="E91" s="16"/>
-    </row>
-    <row r="94" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="B94" s="16"/>
-      <c r="C94" s="16"/>
-      <c r="D94" s="16"/>
-      <c r="E94" s="16"/>
-      <c r="F94" s="16"/>
-      <c r="G94" s="16"/>
-      <c r="H94" s="16"/>
-    </row>
-    <row r="95" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="B95" s="16"/>
-      <c r="C95" s="16"/>
-      <c r="D95" s="16"/>
-      <c r="E95" s="16"/>
-      <c r="F95" s="16"/>
-      <c r="G95" s="16"/>
-      <c r="H95" s="16"/>
-      <c r="K95" s="4"/>
-    </row>
-    <row r="96" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="B96" s="16"/>
-      <c r="C96" s="16"/>
-      <c r="D96" s="16"/>
+      <c r="D89" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="K89" s="4"/>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="D91" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.5">
       <c r="E96" s="16"/>
-      <c r="F96" s="16"/>
-      <c r="G96" s="16"/>
-      <c r="H96" s="16"/>
-      <c r="K96" s="4"/>
-    </row>
-    <row r="97" spans="2:8" x14ac:dyDescent="0.5">
-      <c r="B97" s="16"/>
-      <c r="C97" s="16"/>
-      <c r="D97" s="16"/>
+    </row>
+    <row r="97" spans="2:11" x14ac:dyDescent="0.5">
       <c r="E97" s="16"/>
-      <c r="F97" s="16"/>
-      <c r="G97" s="16"/>
-      <c r="H97" s="16"/>
-    </row>
-    <row r="98" spans="2:8" x14ac:dyDescent="0.5">
-      <c r="B98" s="16"/>
-      <c r="C98" s="16"/>
-      <c r="D98" s="16"/>
+    </row>
+    <row r="98" spans="2:11" x14ac:dyDescent="0.5">
       <c r="E98" s="16"/>
-      <c r="F98" s="16"/>
-      <c r="G98" s="16"/>
-      <c r="H98" s="16"/>
-    </row>
-    <row r="99" spans="2:8" x14ac:dyDescent="0.5">
-      <c r="B99" s="16"/>
-      <c r="C99" s="16"/>
-      <c r="D99" s="16"/>
-      <c r="E99" s="16"/>
-      <c r="F99" s="16"/>
-      <c r="G99" s="16"/>
-      <c r="H99" s="16"/>
-    </row>
-    <row r="100" spans="2:8" x14ac:dyDescent="0.5">
-      <c r="B100" s="16"/>
-      <c r="C100" s="16"/>
-      <c r="D100" s="16"/>
+    </row>
+    <row r="100" spans="2:11" x14ac:dyDescent="0.5">
       <c r="E100" s="16"/>
-      <c r="F100" s="16"/>
-      <c r="G100" s="16"/>
-      <c r="H100" s="16"/>
-    </row>
-    <row r="101" spans="2:8" x14ac:dyDescent="0.5">
-      <c r="B101" s="16"/>
-      <c r="C101" s="16"/>
-      <c r="D101" s="16"/>
+    </row>
+    <row r="101" spans="2:11" x14ac:dyDescent="0.5">
       <c r="E101" s="16"/>
-      <c r="F101" s="16"/>
-      <c r="G101" s="16"/>
-      <c r="H101" s="16"/>
-    </row>
-    <row r="102" spans="2:8" x14ac:dyDescent="0.5">
-      <c r="B102" s="21"/>
-      <c r="C102" s="21"/>
-      <c r="D102" s="21"/>
-      <c r="E102" s="21"/>
-      <c r="F102" s="21"/>
-      <c r="G102" s="21"/>
-      <c r="H102" s="16"/>
-    </row>
-    <row r="103" spans="2:8" x14ac:dyDescent="0.5">
-      <c r="B103" s="21"/>
-      <c r="C103" s="21"/>
-      <c r="D103" s="21"/>
-      <c r="E103" s="21"/>
-      <c r="F103" s="21"/>
-      <c r="G103" s="21"/>
-      <c r="H103" s="16"/>
-    </row>
-    <row r="104" spans="2:8" x14ac:dyDescent="0.5">
-      <c r="B104" s="16"/>
-      <c r="C104" s="16"/>
-      <c r="D104" s="16"/>
+    </row>
+    <row r="102" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="E102" s="16"/>
+    </row>
+    <row r="103" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="E103" s="16"/>
+    </row>
+    <row r="104" spans="2:11" x14ac:dyDescent="0.5">
       <c r="E104" s="16"/>
-      <c r="F104" s="16"/>
-      <c r="G104" s="16"/>
-      <c r="H104" s="16"/>
-    </row>
-    <row r="105" spans="2:8" x14ac:dyDescent="0.5">
-      <c r="B105" s="16"/>
-      <c r="C105" s="16"/>
-      <c r="D105" s="16"/>
+    </row>
+    <row r="105" spans="2:11" x14ac:dyDescent="0.5">
       <c r="E105" s="16"/>
-      <c r="F105" s="16"/>
-      <c r="G105" s="16"/>
-      <c r="H105" s="16"/>
-    </row>
-    <row r="106" spans="2:8" x14ac:dyDescent="0.5">
-      <c r="B106" s="16"/>
-      <c r="C106" s="16"/>
-      <c r="D106" s="16"/>
+    </row>
+    <row r="106" spans="2:11" x14ac:dyDescent="0.5">
       <c r="E106" s="16"/>
-      <c r="F106" s="16"/>
-      <c r="G106" s="16"/>
-      <c r="H106" s="16"/>
-    </row>
-    <row r="107" spans="2:8" x14ac:dyDescent="0.5">
-      <c r="B107" s="16"/>
-      <c r="C107" s="16"/>
-      <c r="D107" s="16"/>
-      <c r="E107" s="16"/>
-      <c r="F107" s="16"/>
-      <c r="G107" s="16"/>
-      <c r="H107" s="16"/>
-    </row>
-    <row r="108" spans="2:8" x14ac:dyDescent="0.5">
-      <c r="B108" s="16"/>
-      <c r="C108" s="16"/>
-      <c r="D108" s="16"/>
-      <c r="E108" s="16"/>
-      <c r="F108" s="16"/>
-      <c r="G108" s="16"/>
-      <c r="H108" s="16"/>
-    </row>
-    <row r="109" spans="2:8" x14ac:dyDescent="0.5">
+    </row>
+    <row r="109" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B109" s="16"/>
       <c r="C109" s="16"/>
       <c r="D109" s="16"/>
@@ -2035,7 +2313,7 @@
       <c r="G109" s="16"/>
       <c r="H109" s="16"/>
     </row>
-    <row r="110" spans="2:8" x14ac:dyDescent="0.5">
+    <row r="110" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B110" s="16"/>
       <c r="C110" s="16"/>
       <c r="D110" s="16"/>
@@ -2043,16 +2321,153 @@
       <c r="F110" s="16"/>
       <c r="G110" s="16"/>
       <c r="H110" s="16"/>
+      <c r="K110" s="4"/>
+    </row>
+    <row r="111" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B111" s="16"/>
+      <c r="C111" s="16"/>
+      <c r="D111" s="16"/>
+      <c r="E111" s="16"/>
+      <c r="F111" s="16"/>
+      <c r="G111" s="16"/>
+      <c r="H111" s="16"/>
+      <c r="K111" s="4"/>
+    </row>
+    <row r="112" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B112" s="16"/>
+      <c r="C112" s="16"/>
+      <c r="D112" s="16"/>
+      <c r="E112" s="16"/>
+      <c r="F112" s="16"/>
+      <c r="G112" s="16"/>
+      <c r="H112" s="16"/>
+    </row>
+    <row r="113" spans="2:8" x14ac:dyDescent="0.5">
+      <c r="B113" s="16"/>
+      <c r="C113" s="16"/>
+      <c r="D113" s="16"/>
+      <c r="E113" s="16"/>
+      <c r="F113" s="16"/>
+      <c r="G113" s="16"/>
+      <c r="H113" s="16"/>
+    </row>
+    <row r="114" spans="2:8" x14ac:dyDescent="0.5">
+      <c r="B114" s="16"/>
+      <c r="C114" s="16"/>
+      <c r="D114" s="16"/>
+      <c r="E114" s="16"/>
+      <c r="F114" s="16"/>
+      <c r="G114" s="16"/>
+      <c r="H114" s="16"/>
+    </row>
+    <row r="115" spans="2:8" x14ac:dyDescent="0.5">
+      <c r="B115" s="16"/>
+      <c r="C115" s="16"/>
+      <c r="D115" s="16"/>
+      <c r="E115" s="16"/>
+      <c r="F115" s="16"/>
+      <c r="G115" s="16"/>
+      <c r="H115" s="16"/>
+    </row>
+    <row r="116" spans="2:8" x14ac:dyDescent="0.5">
+      <c r="B116" s="16"/>
+      <c r="C116" s="16"/>
+      <c r="D116" s="16"/>
+      <c r="E116" s="16"/>
+      <c r="F116" s="16"/>
+      <c r="G116" s="16"/>
+      <c r="H116" s="16"/>
+    </row>
+    <row r="117" spans="2:8" x14ac:dyDescent="0.5">
+      <c r="B117" s="29"/>
+      <c r="C117" s="29"/>
+      <c r="D117" s="29"/>
+      <c r="E117" s="29"/>
+      <c r="F117" s="29"/>
+      <c r="G117" s="29"/>
+      <c r="H117" s="16"/>
+    </row>
+    <row r="118" spans="2:8" x14ac:dyDescent="0.5">
+      <c r="B118" s="29"/>
+      <c r="C118" s="29"/>
+      <c r="D118" s="29"/>
+      <c r="E118" s="29"/>
+      <c r="F118" s="29"/>
+      <c r="G118" s="29"/>
+      <c r="H118" s="16"/>
+    </row>
+    <row r="119" spans="2:8" x14ac:dyDescent="0.5">
+      <c r="B119" s="16"/>
+      <c r="C119" s="16"/>
+      <c r="D119" s="16"/>
+      <c r="E119" s="16"/>
+      <c r="F119" s="16"/>
+      <c r="G119" s="16"/>
+      <c r="H119" s="16"/>
+    </row>
+    <row r="120" spans="2:8" x14ac:dyDescent="0.5">
+      <c r="B120" s="16"/>
+      <c r="C120" s="16"/>
+      <c r="D120" s="16"/>
+      <c r="E120" s="16"/>
+      <c r="F120" s="16"/>
+      <c r="G120" s="16"/>
+      <c r="H120" s="16"/>
+    </row>
+    <row r="121" spans="2:8" x14ac:dyDescent="0.5">
+      <c r="B121" s="16"/>
+      <c r="C121" s="16"/>
+      <c r="D121" s="16"/>
+      <c r="E121" s="16"/>
+      <c r="F121" s="16"/>
+      <c r="G121" s="16"/>
+      <c r="H121" s="16"/>
+    </row>
+    <row r="122" spans="2:8" x14ac:dyDescent="0.5">
+      <c r="B122" s="16"/>
+      <c r="C122" s="16"/>
+      <c r="D122" s="16"/>
+      <c r="E122" s="16"/>
+      <c r="F122" s="16"/>
+      <c r="G122" s="16"/>
+      <c r="H122" s="16"/>
+    </row>
+    <row r="123" spans="2:8" x14ac:dyDescent="0.5">
+      <c r="B123" s="16"/>
+      <c r="C123" s="16"/>
+      <c r="D123" s="16"/>
+      <c r="E123" s="16"/>
+      <c r="F123" s="16"/>
+      <c r="G123" s="16"/>
+      <c r="H123" s="16"/>
+    </row>
+    <row r="124" spans="2:8" x14ac:dyDescent="0.5">
+      <c r="B124" s="16"/>
+      <c r="C124" s="16"/>
+      <c r="D124" s="16"/>
+      <c r="E124" s="16"/>
+      <c r="F124" s="16"/>
+      <c r="G124" s="16"/>
+      <c r="H124" s="16"/>
+    </row>
+    <row r="125" spans="2:8" x14ac:dyDescent="0.5">
+      <c r="B125" s="16"/>
+      <c r="C125" s="16"/>
+      <c r="D125" s="16"/>
+      <c r="E125" s="16"/>
+      <c r="F125" s="16"/>
+      <c r="G125" s="16"/>
+      <c r="H125" s="16"/>
     </row>
   </sheetData>
   <autoFilter ref="D1:K1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="6">
-    <mergeCell ref="G102:G103"/>
-    <mergeCell ref="B102:B103"/>
-    <mergeCell ref="C102:C103"/>
-    <mergeCell ref="D102:D103"/>
-    <mergeCell ref="E102:E103"/>
-    <mergeCell ref="F102:F103"/>
+    <mergeCell ref="G117:G118"/>
+    <mergeCell ref="B117:B118"/>
+    <mergeCell ref="C117:C118"/>
+    <mergeCell ref="D117:D118"/>
+    <mergeCell ref="E117:E118"/>
+    <mergeCell ref="F117:F118"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -2069,8 +2484,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:D238"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.5" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -2168,79 +2583,79 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A11" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B11" s="2">
         <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A12" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B12" s="2">
         <v>2</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A13" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B13" s="2">
         <v>3</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A14" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B14" s="2">
         <v>4</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A15" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B15" s="2">
         <v>5</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A16" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B16" s="2">
         <v>6</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A17" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B17" s="2">
         <v>7</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.5">
@@ -2253,57 +2668,57 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A20" s="1" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B20" s="2">
         <v>8</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A21" s="1" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B21" s="2">
         <v>9</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A22" s="1" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B22" s="2">
         <v>10</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A23" s="1" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B23" s="2">
         <v>11</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A24" s="1" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B24" s="2">
         <v>12</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.5">
@@ -2311,67 +2726,116 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A27" s="1" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B27" s="2">
         <v>1</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A28" s="1" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B28" s="2">
         <v>2</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A29" s="1" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B29" s="2">
         <v>3</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A30" s="1" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B30" s="2">
         <v>4</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>113</v>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A32" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B32" s="2">
+        <v>1</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A33" s="1"/>
+      <c r="A33" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B33" s="2">
+        <v>2</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A34" s="1"/>
+      <c r="A34" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B34" s="2">
+        <v>3</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A35" s="1"/>
-      <c r="C35" s="1"/>
+      <c r="A35" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B35" s="2">
+        <v>4</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A36" s="1"/>
-      <c r="C36" s="1"/>
+      <c r="A36" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B36" s="2">
+        <v>5</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A37" s="1"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A38" s="1"/>
+      <c r="A38" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B38" s="2">
+        <v>1</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A39" s="1"/>
@@ -2381,7 +2845,6 @@
       <c r="C40" s="1"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A41" s="1"/>
       <c r="C41" s="1"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.5">
@@ -2881,25 +3344,25 @@
         <v>36</v>
       </c>
       <c r="C1" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="D1" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="E1" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="F1" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="G1" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="H1" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="I1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -2908,12 +3371,55 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18A17F62-BD05-49B8-9BEB-0F803500DD2B}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="1" width="18.25" customWidth="1"/>
+    <col min="2" max="2" width="69.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A2" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A4" s="2"/>
+      <c r="B4" s="27"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -2935,15 +3441,15 @@
         <v>22</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A3" s="7" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.5">
@@ -2951,19 +3457,23 @@
         <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.5">
@@ -2971,31 +3481,31 @@
         <v>9</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A8" s="20" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A9" s="20" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A10" s="2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.5">
@@ -3003,15 +3513,15 @@
         <v>9</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A12" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.5">
@@ -3019,15 +3529,15 @@
         <v>4</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A14" s="19" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.5">
@@ -3035,7 +3545,7 @@
         <v>9</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.5">
@@ -3043,7 +3553,7 @@
         <v>9</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.5">
@@ -3051,7 +3561,7 @@
         <v>9</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.5">
@@ -3059,7 +3569,7 @@
         <v>9</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.5">
@@ -3067,7 +3577,7 @@
         <v>9</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.5">
@@ -3075,23 +3585,23 @@
         <v>9</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A21" s="20" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A22" s="20" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.5">
@@ -3099,32 +3609,56 @@
         <v>4</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A24" s="20" t="s">
-        <v>83</v>
+      <c r="A24" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A25" s="20" t="s">
-        <v>83</v>
+      <c r="A25" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A26" s="20"/>
-      <c r="B26" s="20"/>
+      <c r="A26" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A27" s="20"/>
-      <c r="B27" s="20"/>
+      <c r="A27" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A28" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A29" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" s="26" t="s">
+        <v>213</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3136,7 +3670,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EEE19C4-0725-4F28-B24F-E00065190F0E}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:D3"/>
@@ -3147,51 +3681,51 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="17.6875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.0625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A1" s="8" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" t="s">
         <v>64</v>
       </c>
-      <c r="B2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C2" t="s">
-        <v>69</v>
-      </c>
       <c r="D2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D3" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/tables/ronda/forms/ronda/ronda.xlsx
+++ b/app/config/tables/ronda/forms/ronda/ronda.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celso\odkx\celsoapp\app\config\tables\ronda\forms\ronda\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celso\odkx\AQSPtest1\app\config\tables\ronda\forms\ronda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FBE0321-6E96-4FA1-BC22-9E811D41DC24}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9823FA14-9FBA-42AD-BD8D-BF6B1ABF90CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="38596" windowHeight="21196" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13035" yWindow="14055" windowWidth="13680" windowHeight="4410" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="3" r:id="rId1"/>
@@ -24,7 +24,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">survey!$D$1:$K$1</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1339,14 +1339,14 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -1357,7 +1357,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1365,7 +1365,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1373,7 +1373,7 @@
         <v>2019083000</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1381,7 +1381,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -1404,14 +1404,14 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:W125"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.125" style="2" customWidth="1"/>
     <col min="2" max="2" width="17.125" style="2" customWidth="1"/>
@@ -1430,7 +1430,7 @@
     <col min="15" max="16384" width="10.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>66</v>
       </c>
@@ -1501,7 +1501,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="G2" s="1"/>
@@ -1522,7 +1522,7 @@
       <c r="V2"/>
       <c r="W2"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B3" s="18" t="s">
         <v>68</v>
       </c>
@@ -1546,7 +1546,7 @@
       <c r="V3"/>
       <c r="W3"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D4" s="1" t="s">
         <v>76</v>
       </c>
@@ -1562,7 +1562,7 @@
       <c r="J4" s="1"/>
       <c r="K4" s="3"/>
     </row>
-    <row r="5" spans="1:23" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:23" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D5" s="10" t="s">
         <v>22</v>
       </c>
@@ -1574,11 +1574,11 @@
       </c>
       <c r="K5" s="11"/>
     </row>
-    <row r="6" spans="1:23" s="10" customFormat="1" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:23" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="K6" s="11"/>
       <c r="N6" s="12"/>
     </row>
-    <row r="7" spans="1:23" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:23" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
       <c r="G7" s="13"/>
@@ -1587,7 +1587,7 @@
       <c r="J7" s="13"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:23" s="10" customFormat="1" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:23" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D8" s="10" t="s">
         <v>63</v>
       </c>
@@ -1603,7 +1603,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="9" spans="1:23" s="10" customFormat="1" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:23" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D9" s="10" t="s">
         <v>5</v>
       </c>
@@ -1621,16 +1621,16 @@
         <v>188</v>
       </c>
     </row>
-    <row r="10" spans="1:23" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:23" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="K10" s="11"/>
     </row>
-    <row r="11" spans="1:23" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:23" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>74</v>
       </c>
       <c r="K11" s="11"/>
     </row>
-    <row r="12" spans="1:23" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:23" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
         <v>197</v>
       </c>
@@ -1639,7 +1639,7 @@
       </c>
       <c r="K12" s="11"/>
     </row>
-    <row r="13" spans="1:23" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:23" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="D13" s="10" t="s">
         <v>76</v>
       </c>
@@ -1651,16 +1651,16 @@
       </c>
       <c r="K13" s="11"/>
     </row>
-    <row r="14" spans="1:23" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:23" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="10" t="s">
         <v>199</v>
       </c>
       <c r="K14" s="11"/>
     </row>
-    <row r="15" spans="1:23" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:23" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="K15" s="11"/>
     </row>
-    <row r="16" spans="1:23" s="10" customFormat="1" ht="47.65" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:23" s="10" customFormat="1" ht="48" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
         <v>201</v>
       </c>
@@ -1670,7 +1670,7 @@
       <c r="I16" s="15"/>
       <c r="K16" s="11"/>
     </row>
-    <row r="17" spans="2:12" s="10" customFormat="1" ht="63.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="2:12" s="10" customFormat="1" ht="63.75" x14ac:dyDescent="0.3">
       <c r="D17" s="10" t="s">
         <v>76</v>
       </c>
@@ -1683,14 +1683,14 @@
       <c r="I17" s="15"/>
       <c r="K17" s="11"/>
     </row>
-    <row r="18" spans="2:12" s="10" customFormat="1" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:12" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
         <v>202</v>
       </c>
       <c r="I18" s="15"/>
       <c r="K18" s="11"/>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.5">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D20" s="2" t="s">
         <v>5</v>
       </c>
@@ -1710,7 +1710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.5">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D21" s="2" t="s">
         <v>9</v>
       </c>
@@ -1727,7 +1727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.5">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
         <v>166</v>
       </c>
@@ -1736,17 +1736,17 @@
       </c>
       <c r="D22" s="19"/>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.5">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="24" spans="2:12" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="24" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="25" spans="2:12" s="21" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="25" spans="2:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D25" s="21" t="s">
         <v>9</v>
       </c>
@@ -1764,7 +1764,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="26" spans="2:12" s="21" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="26" spans="2:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="21" t="s">
         <v>162</v>
       </c>
@@ -1773,7 +1773,7 @@
       </c>
       <c r="K26" s="22"/>
     </row>
-    <row r="27" spans="2:12" s="21" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="27" spans="2:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D27" s="21" t="s">
         <v>55</v>
       </c>
@@ -1791,7 +1791,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="28" spans="2:12" s="21" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="28" spans="2:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B28" s="21" t="s">
         <v>163</v>
       </c>
@@ -1800,7 +1800,7 @@
       </c>
       <c r="K28" s="22"/>
     </row>
-    <row r="29" spans="2:12" s="21" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="29" spans="2:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D29" s="21" t="s">
         <v>4</v>
       </c>
@@ -1815,22 +1815,22 @@
         <v>121</v>
       </c>
     </row>
-    <row r="30" spans="2:12" s="21" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="30" spans="2:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="K30" s="22"/>
     </row>
-    <row r="31" spans="2:12" s="21" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="31" spans="2:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B31" s="21" t="s">
         <v>164</v>
       </c>
       <c r="K31" s="22"/>
     </row>
-    <row r="32" spans="2:12" s="21" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="32" spans="2:12" s="21" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B32" s="21" t="s">
         <v>165</v>
       </c>
       <c r="K32" s="22"/>
     </row>
-    <row r="33" spans="2:12" s="21" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="33" spans="2:12" s="21" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B33" s="21" t="s">
         <v>176</v>
       </c>
@@ -1839,7 +1839,7 @@
       </c>
       <c r="K33" s="22"/>
     </row>
-    <row r="34" spans="2:12" s="23" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="34" spans="2:12" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D34" s="23" t="s">
         <v>9</v>
       </c>
@@ -1857,7 +1857,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.5">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B35" s="2" t="s">
         <v>184</v>
       </c>
@@ -1865,17 +1865,17 @@
         <v>160</v>
       </c>
     </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.5">
+    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B36" s="2" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.5">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="39" spans="2:12" s="23" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="39" spans="2:12" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D39" s="23" t="s">
         <v>9</v>
       </c>
@@ -1893,10 +1893,10 @@
         <v>204</v>
       </c>
     </row>
-    <row r="40" spans="2:12" s="23" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="40" spans="2:12" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="K40" s="24"/>
     </row>
-    <row r="42" spans="2:12" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="42" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="D42" s="2" t="s">
         <v>106</v>
       </c>
@@ -1911,7 +1911,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.5">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D43" s="2" t="s">
         <v>106</v>
       </c>
@@ -1922,7 +1922,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.5">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D44" s="2" t="s">
         <v>106</v>
       </c>
@@ -1933,12 +1933,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.5">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B46" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="47" spans="2:12" ht="110.25" x14ac:dyDescent="0.5">
+    <row r="47" spans="2:12" ht="110.25" x14ac:dyDescent="0.25">
       <c r="D47" s="2" t="s">
         <v>76</v>
       </c>
@@ -1949,7 +1949,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="48" spans="2:12" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="48" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="D48" s="2" t="s">
         <v>9</v>
       </c>
@@ -1966,7 +1966,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.5">
+    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B49" s="2" t="s">
         <v>167</v>
       </c>
@@ -1974,7 +1974,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.5">
+    <row r="50" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D50" s="2" t="s">
         <v>9</v>
       </c>
@@ -1991,7 +1991,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.5">
+    <row r="51" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B51" s="2" t="s">
         <v>168</v>
       </c>
@@ -1999,13 +1999,13 @@
         <v>127</v>
       </c>
     </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.5">
+    <row r="52" spans="2:12" x14ac:dyDescent="0.25">
       <c r="K52" s="4"/>
     </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.5">
+    <row r="53" spans="2:12" x14ac:dyDescent="0.25">
       <c r="K53" s="4"/>
     </row>
-    <row r="54" spans="2:12" x14ac:dyDescent="0.5">
+    <row r="54" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D54" s="2" t="s">
         <v>9</v>
       </c>
@@ -2023,7 +2023,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="55" spans="2:12" x14ac:dyDescent="0.5">
+    <row r="55" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B55" s="2" t="s">
         <v>169</v>
       </c>
@@ -2031,7 +2031,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="58" spans="2:12" x14ac:dyDescent="0.5">
+    <row r="58" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D58" s="2" t="s">
         <v>9</v>
       </c>
@@ -2048,27 +2048,27 @@
         <v>129</v>
       </c>
     </row>
-    <row r="59" spans="2:12" x14ac:dyDescent="0.5">
+    <row r="59" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B59" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="60" spans="2:12" x14ac:dyDescent="0.5">
+    <row r="60" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B60" s="2" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="61" spans="2:12" x14ac:dyDescent="0.5">
+    <row r="61" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B61" s="2" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="62" spans="2:12" x14ac:dyDescent="0.5">
+    <row r="62" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B62" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="64" spans="2:12" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="64" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="D64" s="2" t="s">
         <v>9</v>
       </c>
@@ -2085,7 +2085,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B65" s="2" t="s">
         <v>173</v>
       </c>
@@ -2093,7 +2093,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D67" s="2" t="s">
         <v>9</v>
       </c>
@@ -2107,17 +2107,17 @@
         <v>187</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B68" s="2" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B71" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="73" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="73" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="23" t="s">
         <v>158</v>
       </c>
@@ -2138,13 +2138,13 @@
         <v>186</v>
       </c>
     </row>
-    <row r="74" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="74" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B74" s="23" t="s">
         <v>75</v>
       </c>
       <c r="K74" s="24"/>
     </row>
-    <row r="75" spans="1:12" ht="47.25" x14ac:dyDescent="0.5">
+    <row r="75" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>156</v>
       </c>
@@ -2164,12 +2164,12 @@
         <v>177</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B76" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:12" ht="47.25" x14ac:dyDescent="0.5">
+    <row r="77" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>77</v>
       </c>
@@ -2190,7 +2190,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B78" s="2" t="s">
         <v>80</v>
       </c>
@@ -2198,7 +2198,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D79" s="2" t="s">
         <v>4</v>
       </c>
@@ -2212,12 +2212,12 @@
         <v>133</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B80" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="81" spans="1:12" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="81" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="D81" s="2" t="s">
         <v>9</v>
       </c>
@@ -2234,21 +2234,21 @@
         <v>87</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B82" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B84" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K85" s="4"/>
     </row>
-    <row r="87" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="89" spans="1:12" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="87" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>83</v>
       </c>
@@ -2263,7 +2263,7 @@
       </c>
       <c r="K89" s="4"/>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D91" s="2" t="s">
         <v>4</v>
       </c>
@@ -2274,37 +2274,37 @@
         <v>212</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E96" s="16"/>
     </row>
-    <row r="97" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="97" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E97" s="16"/>
     </row>
-    <row r="98" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="98" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E98" s="16"/>
     </row>
-    <row r="100" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="100" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E100" s="16"/>
     </row>
-    <row r="101" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="101" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E101" s="16"/>
     </row>
-    <row r="102" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="102" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E102" s="16"/>
     </row>
-    <row r="103" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="103" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E103" s="16"/>
     </row>
-    <row r="104" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="104" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E104" s="16"/>
     </row>
-    <row r="105" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="105" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E105" s="16"/>
     </row>
-    <row r="106" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="106" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E106" s="16"/>
     </row>
-    <row r="109" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="109" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B109" s="16"/>
       <c r="C109" s="16"/>
       <c r="D109" s="16"/>
@@ -2313,7 +2313,7 @@
       <c r="G109" s="16"/>
       <c r="H109" s="16"/>
     </row>
-    <row r="110" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="110" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B110" s="16"/>
       <c r="C110" s="16"/>
       <c r="D110" s="16"/>
@@ -2323,7 +2323,7 @@
       <c r="H110" s="16"/>
       <c r="K110" s="4"/>
     </row>
-    <row r="111" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="111" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B111" s="16"/>
       <c r="C111" s="16"/>
       <c r="D111" s="16"/>
@@ -2333,7 +2333,7 @@
       <c r="H111" s="16"/>
       <c r="K111" s="4"/>
     </row>
-    <row r="112" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="112" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B112" s="16"/>
       <c r="C112" s="16"/>
       <c r="D112" s="16"/>
@@ -2342,7 +2342,7 @@
       <c r="G112" s="16"/>
       <c r="H112" s="16"/>
     </row>
-    <row r="113" spans="2:8" x14ac:dyDescent="0.5">
+    <row r="113" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B113" s="16"/>
       <c r="C113" s="16"/>
       <c r="D113" s="16"/>
@@ -2351,7 +2351,7 @@
       <c r="G113" s="16"/>
       <c r="H113" s="16"/>
     </row>
-    <row r="114" spans="2:8" x14ac:dyDescent="0.5">
+    <row r="114" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B114" s="16"/>
       <c r="C114" s="16"/>
       <c r="D114" s="16"/>
@@ -2360,7 +2360,7 @@
       <c r="G114" s="16"/>
       <c r="H114" s="16"/>
     </row>
-    <row r="115" spans="2:8" x14ac:dyDescent="0.5">
+    <row r="115" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B115" s="16"/>
       <c r="C115" s="16"/>
       <c r="D115" s="16"/>
@@ -2369,7 +2369,7 @@
       <c r="G115" s="16"/>
       <c r="H115" s="16"/>
     </row>
-    <row r="116" spans="2:8" x14ac:dyDescent="0.5">
+    <row r="116" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B116" s="16"/>
       <c r="C116" s="16"/>
       <c r="D116" s="16"/>
@@ -2378,7 +2378,7 @@
       <c r="G116" s="16"/>
       <c r="H116" s="16"/>
     </row>
-    <row r="117" spans="2:8" x14ac:dyDescent="0.5">
+    <row r="117" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B117" s="29"/>
       <c r="C117" s="29"/>
       <c r="D117" s="29"/>
@@ -2387,7 +2387,7 @@
       <c r="G117" s="29"/>
       <c r="H117" s="16"/>
     </row>
-    <row r="118" spans="2:8" x14ac:dyDescent="0.5">
+    <row r="118" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B118" s="29"/>
       <c r="C118" s="29"/>
       <c r="D118" s="29"/>
@@ -2396,7 +2396,7 @@
       <c r="G118" s="29"/>
       <c r="H118" s="16"/>
     </row>
-    <row r="119" spans="2:8" x14ac:dyDescent="0.5">
+    <row r="119" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B119" s="16"/>
       <c r="C119" s="16"/>
       <c r="D119" s="16"/>
@@ -2405,7 +2405,7 @@
       <c r="G119" s="16"/>
       <c r="H119" s="16"/>
     </row>
-    <row r="120" spans="2:8" x14ac:dyDescent="0.5">
+    <row r="120" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B120" s="16"/>
       <c r="C120" s="16"/>
       <c r="D120" s="16"/>
@@ -2414,7 +2414,7 @@
       <c r="G120" s="16"/>
       <c r="H120" s="16"/>
     </row>
-    <row r="121" spans="2:8" x14ac:dyDescent="0.5">
+    <row r="121" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B121" s="16"/>
       <c r="C121" s="16"/>
       <c r="D121" s="16"/>
@@ -2423,7 +2423,7 @@
       <c r="G121" s="16"/>
       <c r="H121" s="16"/>
     </row>
-    <row r="122" spans="2:8" x14ac:dyDescent="0.5">
+    <row r="122" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B122" s="16"/>
       <c r="C122" s="16"/>
       <c r="D122" s="16"/>
@@ -2432,7 +2432,7 @@
       <c r="G122" s="16"/>
       <c r="H122" s="16"/>
     </row>
-    <row r="123" spans="2:8" x14ac:dyDescent="0.5">
+    <row r="123" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B123" s="16"/>
       <c r="C123" s="16"/>
       <c r="D123" s="16"/>
@@ -2441,7 +2441,7 @@
       <c r="G123" s="16"/>
       <c r="H123" s="16"/>
     </row>
-    <row r="124" spans="2:8" x14ac:dyDescent="0.5">
+    <row r="124" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B124" s="16"/>
       <c r="C124" s="16"/>
       <c r="D124" s="16"/>
@@ -2450,7 +2450,7 @@
       <c r="G124" s="16"/>
       <c r="H124" s="16"/>
     </row>
-    <row r="125" spans="2:8" x14ac:dyDescent="0.5">
+    <row r="125" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B125" s="16"/>
       <c r="C125" s="16"/>
       <c r="D125" s="16"/>
@@ -2488,7 +2488,7 @@
       <selection activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.5" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="21.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.75" style="2" customWidth="1"/>
     <col min="2" max="2" width="21.5" style="2"/>
@@ -2496,7 +2496,7 @@
     <col min="5" max="16384" width="21.5" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -2507,7 +2507,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>24</v>
       </c>
@@ -2518,7 +2518,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>24</v>
       </c>
@@ -2529,7 +2529,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>38</v>
       </c>
@@ -2540,7 +2540,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>38</v>
       </c>
@@ -2551,11 +2551,11 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>42</v>
       </c>
@@ -2566,7 +2566,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>42</v>
       </c>
@@ -2577,11 +2577,11 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>54</v>
       </c>
@@ -2592,7 +2592,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>54</v>
       </c>
@@ -2603,7 +2603,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>54</v>
       </c>
@@ -2614,7 +2614,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>54</v>
       </c>
@@ -2625,7 +2625,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>54</v>
       </c>
@@ -2636,7 +2636,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>54</v>
       </c>
@@ -2647,7 +2647,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>54</v>
       </c>
@@ -2658,15 +2658,15 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="C18" s="1"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="C19" s="1"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>94</v>
       </c>
@@ -2677,7 +2677,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>94</v>
       </c>
@@ -2688,7 +2688,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>94</v>
       </c>
@@ -2699,7 +2699,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>94</v>
       </c>
@@ -2710,7 +2710,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>94</v>
       </c>
@@ -2721,10 +2721,10 @@
         <v>99</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>101</v>
       </c>
@@ -2735,7 +2735,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>101</v>
       </c>
@@ -2746,7 +2746,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>101</v>
       </c>
@@ -2757,7 +2757,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>101</v>
       </c>
@@ -2768,7 +2768,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>149</v>
       </c>
@@ -2779,7 +2779,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>149</v>
       </c>
@@ -2790,7 +2790,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>149</v>
       </c>
@@ -2801,7 +2801,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>149</v>
       </c>
@@ -2812,7 +2812,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>149</v>
       </c>
@@ -2823,10 +2823,10 @@
         <v>153</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>181</v>
       </c>
@@ -2837,474 +2837,474 @@
         <v>182</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="C40" s="1"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C41" s="1"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="C42" s="1"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="C43" s="1"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="C44" s="1"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="C45" s="1"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="C46" s="1"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="C47" s="1"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="C51" s="1"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="C52" s="1"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="C73" s="1"/>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="C74" s="1"/>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="C75" s="1"/>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="C77" s="1"/>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="C78" s="1"/>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="C79" s="1"/>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="C82" s="1"/>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="C83" s="1"/>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="C84" s="1"/>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="C85" s="1"/>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="C86" s="1"/>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="C87" s="1"/>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="C88" s="1"/>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="C89" s="1"/>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="C90" s="1"/>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="C91" s="1"/>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="C92" s="1"/>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
       <c r="C93" s="1"/>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="C94" s="1"/>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="C95" s="1"/>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="C96" s="1"/>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="C97" s="1"/>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="C98" s="1"/>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="C99" s="1"/>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
       <c r="C100" s="1"/>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="C101" s="1"/>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
       <c r="C102" s="1"/>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
       <c r="C103" s="1"/>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
       <c r="C104" s="1"/>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
       <c r="C105" s="1"/>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
       <c r="C106" s="1"/>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
       <c r="C107" s="1"/>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
       <c r="C108" s="1"/>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
       <c r="C109" s="1"/>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
       <c r="C110" s="1"/>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
       <c r="C111" s="1"/>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
       <c r="C112" s="1"/>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
       <c r="C113" s="1"/>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
       <c r="C114" s="1"/>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
       <c r="C115" s="1"/>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
       <c r="C116" s="1"/>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
       <c r="C117" s="1"/>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
       <c r="C118" s="1"/>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
       <c r="C119" s="1"/>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
       <c r="C120" s="1"/>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
       <c r="C121" s="1"/>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
       <c r="C122" s="1"/>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
       <c r="C123" s="1"/>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
       <c r="C124" s="1"/>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
       <c r="C125" s="1"/>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
       <c r="C126" s="1"/>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
       <c r="C127" s="1"/>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
       <c r="C128" s="1"/>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
       <c r="C129" s="1"/>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
       <c r="C130" s="1"/>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
       <c r="C131" s="1"/>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
       <c r="C132" s="1"/>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
       <c r="C133" s="1"/>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
       <c r="C134" s="1"/>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
       <c r="C135" s="1"/>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
       <c r="C136" s="1"/>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
       <c r="C137" s="1"/>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
       <c r="C138" s="1"/>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" s="1"/>
       <c r="C215" s="1"/>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" s="1"/>
       <c r="C216" s="1"/>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" s="1"/>
       <c r="C217" s="1"/>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" s="1"/>
       <c r="C218" s="1"/>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" s="1"/>
       <c r="C219" s="1"/>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" s="1"/>
       <c r="C220" s="1"/>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" s="1"/>
       <c r="C221" s="1"/>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" s="1"/>
       <c r="C222" s="1"/>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" s="1"/>
       <c r="C223" s="1"/>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" s="1"/>
       <c r="C224" s="1"/>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" s="1"/>
       <c r="C225" s="1"/>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" s="1"/>
       <c r="C226" s="1"/>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" s="1"/>
       <c r="C227" s="1"/>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" s="1"/>
       <c r="C228" s="1"/>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" s="1"/>
       <c r="C229" s="1"/>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" s="1"/>
       <c r="C230" s="1"/>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" s="1"/>
       <c r="C231" s="1"/>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" s="1"/>
       <c r="C232" s="1"/>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" s="1"/>
       <c r="C233" s="1"/>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" s="1"/>
       <c r="C234" s="1"/>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" s="1"/>
       <c r="C235" s="1"/>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" s="1"/>
       <c r="C236" s="1"/>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" s="1"/>
       <c r="C237" s="1"/>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" s="1"/>
       <c r="C238" s="1"/>
     </row>
@@ -3328,7 +3328,7 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" customWidth="1"/>
@@ -3336,7 +3336,7 @@
     <col min="4" max="4" width="61" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>37</v>
       </c>
@@ -3378,13 +3378,13 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.25" customWidth="1"/>
     <col min="2" max="2" width="69.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>27</v>
       </c>
@@ -3392,7 +3392,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>191</v>
       </c>
@@ -3400,11 +3400,11 @@
         <v>195</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="27"/>
     </row>
@@ -3418,17 +3418,17 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.125" customWidth="1"/>
     <col min="2" max="2" width="40.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -3436,7 +3436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>22</v>
       </c>
@@ -3444,7 +3444,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>63</v>
       </c>
@@ -3452,7 +3452,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -3460,7 +3460,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -3468,7 +3468,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -3476,7 +3476,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
@@ -3484,7 +3484,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
         <v>106</v>
       </c>
@@ -3492,7 +3492,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
         <v>106</v>
       </c>
@@ -3500,7 +3500,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>106</v>
       </c>
@@ -3508,7 +3508,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
         <v>9</v>
       </c>
@@ -3516,7 +3516,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
         <v>55</v>
       </c>
@@ -3524,7 +3524,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
@@ -3532,7 +3532,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
         <v>76</v>
       </c>
@@ -3540,7 +3540,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
         <v>9</v>
       </c>
@@ -3548,7 +3548,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
         <v>9</v>
       </c>
@@ -3556,7 +3556,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
         <v>9</v>
       </c>
@@ -3564,7 +3564,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
         <v>9</v>
       </c>
@@ -3572,7 +3572,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
         <v>9</v>
       </c>
@@ -3580,7 +3580,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
         <v>9</v>
       </c>
@@ -3588,7 +3588,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
         <v>76</v>
       </c>
@@ -3596,7 +3596,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="20" t="s">
         <v>78</v>
       </c>
@@ -3604,7 +3604,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
         <v>4</v>
       </c>
@@ -3612,7 +3612,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>9</v>
       </c>
@@ -3620,7 +3620,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>9</v>
       </c>
@@ -3628,7 +3628,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="20" t="s">
         <v>9</v>
       </c>
@@ -3636,7 +3636,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="25" t="s">
         <v>9</v>
       </c>
@@ -3644,7 +3644,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="25" t="s">
         <v>9</v>
       </c>
@@ -3652,7 +3652,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="26" t="s">
         <v>4</v>
       </c>
@@ -3679,14 +3679,14 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>60</v>
       </c>
@@ -3700,7 +3700,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>59</v>
       </c>
@@ -3714,7 +3714,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>106</v>
       </c>

--- a/app/config/tables/ronda/forms/ronda/ronda.xlsx
+++ b/app/config/tables/ronda/forms/ronda/ronda.xlsx
@@ -1,36 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celso\odkx\celsoapp\app\config\tables\ronda\forms\ronda\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celso\odkx\QPS2020\app\config\tables\ronda\forms\ronda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FBE0321-6E96-4FA1-BC22-9E811D41DC24}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EFF56DC-7010-46FA-948A-5270E4A524BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="38596" windowHeight="21196" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="500" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="3" r:id="rId1"/>
-    <sheet name="survey" sheetId="1" r:id="rId2"/>
-    <sheet name="choices" sheetId="2" r:id="rId3"/>
-    <sheet name="queries" sheetId="5" r:id="rId4"/>
-    <sheet name="calculates" sheetId="7" r:id="rId5"/>
-    <sheet name="model" sheetId="4" r:id="rId6"/>
-    <sheet name="prompt_types" sheetId="6" r:id="rId7"/>
+    <sheet name="calculates" sheetId="7" r:id="rId2"/>
+    <sheet name="survey" sheetId="1" r:id="rId3"/>
+    <sheet name="choices" sheetId="2" r:id="rId4"/>
+    <sheet name="model" sheetId="4" r:id="rId5"/>
+    <sheet name="prompt_types" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">survey!$D$1:$K$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">survey!$D$1:$K$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -39,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="211">
   <si>
     <t>type</t>
   </si>
@@ -107,12 +101,6 @@
     <t>display.constraint_message.text</t>
   </si>
   <si>
-    <t>barcode</t>
-  </si>
-  <si>
-    <t>Escanea o codigo de barra</t>
-  </si>
-  <si>
     <t>sexo</t>
   </si>
   <si>
@@ -149,12 +137,6 @@
     <t>hideInContents</t>
   </si>
   <si>
-    <t>query_type</t>
-  </si>
-  <si>
-    <t>query_name</t>
-  </si>
-  <si>
     <t>data_ou_idade</t>
   </si>
   <si>
@@ -246,21 +228,6 @@
   </si>
   <si>
     <t>begin screen</t>
-  </si>
-  <si>
-    <t>letra_sticker</t>
-  </si>
-  <si>
-    <t>Letras de códigos</t>
-  </si>
-  <si>
-    <t>numero_sticker</t>
-  </si>
-  <si>
-    <t>Números de código</t>
-  </si>
-  <si>
-    <t>escrever os números</t>
   </si>
   <si>
     <t>end screen</t>
@@ -375,27 +342,6 @@
     <t>Rondas</t>
   </si>
   <si>
-    <t>linked_form_id</t>
-  </si>
-  <si>
-    <t>linked_table_id</t>
-  </si>
-  <si>
-    <t>selection</t>
-  </si>
-  <si>
-    <t>selectionArgs</t>
-  </si>
-  <si>
-    <t>newRowInitialElementKeyToValueMap</t>
-  </si>
-  <si>
-    <t>openRowInitialElementKeyToValueMap</t>
-  </si>
-  <si>
-    <t>fieldName</t>
-  </si>
-  <si>
     <t>nota</t>
   </si>
   <si>
@@ -606,33 +552,12 @@
     <t>(data('transf')=='1')</t>
   </si>
   <si>
-    <t>!data('sticker')</t>
-  </si>
-  <si>
     <t>(data('febre')=='1')</t>
   </si>
   <si>
     <t>Obrigado pelo seu tempo em responder a estas perguntas. Com base em algumas das respostas que você deu, a criança é excluida a partir deste momento.</t>
   </si>
   <si>
-    <t>codigo_manual</t>
-  </si>
-  <si>
-    <t>erro_id</t>
-  </si>
-  <si>
-    <t>vnome</t>
-  </si>
-  <si>
-    <t>Está a fazer entrevista com: {{data.vnome}} e ID: {{data.id_paciente}}</t>
-  </si>
-  <si>
-    <t>data('letra_sticker') + data('numero_sticker')</t>
-  </si>
-  <si>
-    <t>Erro no codigo de manual ({{calculates.codigo_manual}}) , Por favor  verifica de novo o codigo porque nao corresponde ao id ({{data.id_paciente}}). Veja bem se tem somente as letras maiusculas, sem espaco, e se os numeros corresponde ao do esticker.</t>
-  </si>
-  <si>
     <t>if // error_qr</t>
   </si>
   <si>
@@ -642,46 +567,106 @@
     <t>end if // error_qr</t>
   </si>
   <si>
-    <t>data('sticker') &amp;&amp; (data('sticker') != data('id_paciente'))</t>
+    <t xml:space="preserve">selected(data('tem_adverso'),'1') </t>
+  </si>
+  <si>
+    <t>data('presenca')=='1'</t>
+  </si>
+  <si>
+    <t>data('consentimento')=='1'</t>
+  </si>
+  <si>
+    <t>(data('n_ronda')&lt;5)</t>
+  </si>
+  <si>
+    <t>(data('tomar_qps')&lt;3) &amp;&amp; (data('presenca') == '1')</t>
+  </si>
+  <si>
+    <t>comentario_1</t>
+  </si>
+  <si>
+    <t>Comentário</t>
+  </si>
+  <si>
+    <t>comentario</t>
+  </si>
+  <si>
+    <t>nome</t>
+  </si>
+  <si>
+    <t>Está a fazer entrevista com: {{data.nome}} e ID: {{data.id_paciente}}</t>
+  </si>
+  <si>
+    <t>data('sticker') != data('id_paciente')</t>
+  </si>
+  <si>
+    <t>o Codigo da Pessoa ({{data.id_paciente}} não corresponde ao codigo introduzido  ({{data.sticker}}).</t>
+  </si>
+  <si>
+    <t>nome_casa</t>
+  </si>
+  <si>
+    <t>dn</t>
+  </si>
+  <si>
+    <t>ano</t>
+  </si>
+  <si>
+    <t>mes</t>
+  </si>
+  <si>
+    <t>af</t>
+  </si>
+  <si>
+    <t>instance_name</t>
   </si>
   <si>
     <t>if</t>
   </si>
   <si>
+    <t>data('n_ronda')&gt;1</t>
+  </si>
+  <si>
     <t>end if</t>
   </si>
   <si>
-    <t xml:space="preserve">selected(data('tem_adverso'),'1') </t>
-  </si>
-  <si>
-    <t>data('presenca')=='1'</t>
-  </si>
-  <si>
-    <t>data('consentimento')=='1'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(data('consentimento')=='1') &amp;&amp; (data('presenca')=='1') </t>
-  </si>
-  <si>
-    <t>!data('sticker') &amp;&amp; (calculates.codigo_manual() != data('id_paciente'))</t>
-  </si>
-  <si>
-    <t>o Codigo da Pessoa ({{data.id_paciente}} não corresponde ao codigo escaneado  ({{data.sticker}}).</t>
-  </si>
-  <si>
-    <t>(data('n_ronda')&lt;5)</t>
-  </si>
-  <si>
-    <t>(data('tomar_qps')&lt;3) &amp;&amp; (data('presenca') == '1')</t>
-  </si>
-  <si>
-    <t>comentario_1</t>
-  </si>
-  <si>
-    <t>Comentário</t>
-  </si>
-  <si>
-    <t>comentario</t>
+    <t>data('tomar_qps')=='4'</t>
+  </si>
+  <si>
+    <t>data('consentimento')=='1' &amp;&amp; data('n_ronda')&gt;1</t>
+  </si>
+  <si>
+    <t>assign</t>
+  </si>
+  <si>
+    <t>nome_formulario</t>
+  </si>
+  <si>
+    <t>""+"----Ronda - "+ data('n_ronda')</t>
+  </si>
+  <si>
+    <t>display.adate.fromYear</t>
+  </si>
+  <si>
+    <t>display.adate.toYear</t>
+  </si>
+  <si>
+    <t>(data('consentimento')=='1') &amp;&amp; (data('presenca')=='1')  &amp;&amp; !(data('tomar_qps')=='4')</t>
+  </si>
+  <si>
+    <t>(data('consentimento')=='1') &amp;&amp; (data('presenca')=='1') &amp;&amp; !(data('tomar_qps')=='4')</t>
+  </si>
+  <si>
+    <t>data('consentimento')=='2' &amp;&amp; data('tomar_qps')=='4'</t>
+  </si>
+  <si>
+    <t>Data_ou_idade</t>
+  </si>
+  <si>
+    <t>Introduca o codigo da criança</t>
+  </si>
+  <si>
+    <t>inscricaoID_completo</t>
   </si>
 </sst>
 </file>
@@ -749,7 +734,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -771,6 +756,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -833,7 +824,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -866,9 +857,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -903,10 +891,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1333,16 +1321,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.375" customWidth="1"/>
     <col min="3" max="3" width="28.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1362,7 +1350,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.5">
@@ -1370,7 +1358,7 @@
         <v>14</v>
       </c>
       <c r="B3">
-        <v>2019083000</v>
+        <v>2020081300</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.5">
@@ -1378,7 +1366,7 @@
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.5">
@@ -1386,7 +1374,15 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>109</v>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A6" t="s">
+        <v>194</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -1400,15 +1396,42 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{548DC097-0490-4FE8-A949-93D01957E6CC}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="1" width="25.25" customWidth="1"/>
+    <col min="2" max="2" width="125.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:W125"/>
+  <dimension ref="A1:Y125"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomRight" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -1427,12 +1450,14 @@
     <col min="12" max="12" width="30" style="2" customWidth="1"/>
     <col min="13" max="13" width="10.75" style="2"/>
     <col min="14" max="14" width="40.875" style="2" customWidth="1"/>
-    <col min="15" max="16384" width="10.75" style="2"/>
+    <col min="15" max="15" width="19.875" style="2" customWidth="1"/>
+    <col min="16" max="16" width="13.25" style="2" customWidth="1"/>
+    <col min="17" max="16384" width="10.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>7</v>
@@ -1440,7 +1465,7 @@
       <c r="C1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="16" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -1453,7 +1478,7 @@
         <v>19</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I1" t="s">
         <v>20</v>
@@ -1468,40 +1493,46 @@
         <v>3</v>
       </c>
       <c r="M1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q1" t="s">
         <v>27</v>
       </c>
-      <c r="N1" t="s">
+      <c r="R1" t="s">
         <v>28</v>
       </c>
-      <c r="O1" t="s">
+      <c r="S1" t="s">
         <v>29</v>
       </c>
-      <c r="P1" t="s">
+      <c r="T1" t="s">
         <v>30</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="U1" t="s">
         <v>31</v>
       </c>
-      <c r="R1" t="s">
+      <c r="V1" t="s">
         <v>32</v>
       </c>
-      <c r="S1" t="s">
+      <c r="W1" t="s">
         <v>33</v>
       </c>
-      <c r="T1" t="s">
-        <v>34</v>
-      </c>
-      <c r="U1" t="s">
-        <v>35</v>
-      </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>18</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.5">
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="G2" s="1"/>
@@ -1521,10 +1552,12 @@
       <c r="U2"/>
       <c r="V2"/>
       <c r="W2"/>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.5">
-      <c r="B3" s="18" t="s">
-        <v>68</v>
+      <c r="X2"/>
+      <c r="Y2"/>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.5">
+      <c r="B3" s="17" t="s">
+        <v>64</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -1545,40 +1578,44 @@
       <c r="U3"/>
       <c r="V3"/>
       <c r="W3"/>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.5">
+      <c r="X3"/>
+      <c r="Y3"/>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.5">
       <c r="D4" s="1" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="2" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="3"/>
     </row>
-    <row r="5" spans="1:23" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:25" s="10" customFormat="1" x14ac:dyDescent="0.5">
       <c r="D5" s="10" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>23</v>
+        <v>209</v>
       </c>
       <c r="K5" s="11"/>
     </row>
-    <row r="6" spans="1:23" s="10" customFormat="1" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:25" s="10" customFormat="1" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="K6" s="11"/>
       <c r="N6" s="12"/>
-    </row>
-    <row r="7" spans="1:23" s="10" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+    </row>
+    <row r="7" spans="1:25" s="10" customFormat="1" x14ac:dyDescent="0.5">
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
       <c r="G7" s="13"/>
@@ -1587,391 +1624,365 @@
       <c r="J7" s="13"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:23" s="10" customFormat="1" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="D8" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="I8" s="15"/>
+    <row r="8" spans="1:25" s="10" customFormat="1" x14ac:dyDescent="0.5">
       <c r="K8" s="11"/>
-      <c r="L8" s="10" t="s">
+    </row>
+    <row r="9" spans="1:25" s="10" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B9" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="K9" s="11"/>
+    </row>
+    <row r="10" spans="1:25" s="10" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B10" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="K10" s="11"/>
+    </row>
+    <row r="11" spans="1:25" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="D11" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="G11" s="11" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" s="10" customFormat="1" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="D9" s="10" t="s">
+      <c r="K11" s="11"/>
+    </row>
+    <row r="12" spans="1:25" s="10" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B12" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="K12" s="11"/>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.5">
+      <c r="D14" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="I9" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="K9" s="11"/>
-      <c r="L9" s="10" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" s="10" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="K10" s="11"/>
-    </row>
-    <row r="11" spans="1:23" s="10" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="B11" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="K11" s="11"/>
-    </row>
-    <row r="12" spans="1:23" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="B12" s="10" t="s">
+      <c r="F14" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="L14" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.5">
+      <c r="D15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="L15" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.5">
+      <c r="B16" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" s="18"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.5">
+      <c r="B17" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="B18" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.5">
+      <c r="B19" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" s="20" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="D20" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="G20" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="K20" s="21"/>
+      <c r="L20" s="20" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" s="20" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B21" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="K21" s="21"/>
+    </row>
+    <row r="22" spans="2:12" s="20" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="D22" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="F22" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="G22" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="K22" s="21"/>
+      <c r="L22" s="20" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" s="20" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B23" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="K23" s="21"/>
+    </row>
+    <row r="24" spans="2:12" s="20" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="D24" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="G24" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="K24" s="21"/>
+      <c r="L24" s="20" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" s="20" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="K25" s="21"/>
+    </row>
+    <row r="26" spans="2:12" s="20" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B26" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="K26" s="21"/>
+    </row>
+    <row r="27" spans="2:12" s="20" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="B27" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="K27" s="21"/>
+    </row>
+    <row r="28" spans="2:12" s="20" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B28" s="20" t="s">
         <v>197</v>
       </c>
-      <c r="C12" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="K12" s="11"/>
-    </row>
-    <row r="13" spans="1:23" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="D13" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="F13" s="10" t="s">
+      <c r="K28" s="21"/>
+    </row>
+    <row r="29" spans="2:12" s="20" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="B29" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="K29" s="21"/>
+    </row>
+    <row r="30" spans="2:12" s="20" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="K30" s="21"/>
+    </row>
+    <row r="31" spans="2:12" s="22" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="D31" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="F31" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="G31" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="K31" s="23"/>
+      <c r="L31" s="22" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.5">
+      <c r="B32" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.5">
+      <c r="B33" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.5">
+      <c r="B34" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="36" spans="2:16" s="22" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="D36" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="F36" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="G36" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="K36" s="23"/>
+      <c r="L36" s="22" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" s="22" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B37" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C37" s="22" t="s">
         <v>198</v>
       </c>
-      <c r="G13" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="K13" s="11"/>
-    </row>
-    <row r="14" spans="1:23" s="10" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="B14" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="K14" s="11"/>
-    </row>
-    <row r="15" spans="1:23" s="10" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="K15" s="11"/>
-    </row>
-    <row r="16" spans="1:23" s="10" customFormat="1" ht="47.65" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="C16" s="28" t="s">
-        <v>207</v>
-      </c>
-      <c r="I16" s="15"/>
-      <c r="K16" s="11"/>
-    </row>
-    <row r="17" spans="2:12" s="10" customFormat="1" ht="63.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D17" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="G17" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="I17" s="15"/>
-      <c r="K17" s="11"/>
-    </row>
-    <row r="18" spans="2:12" s="10" customFormat="1" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="I18" s="15"/>
-      <c r="K18" s="11"/>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.5">
-      <c r="D20" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="K20" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="L20" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.5">
-      <c r="D21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" s="2" t="s">
+      <c r="K37" s="23"/>
+    </row>
+    <row r="42" spans="2:16" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="D42" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K42" s="15"/>
+      <c r="L42" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="O42" s="2">
+        <v>2020</v>
+      </c>
+      <c r="P42" s="2">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.5">
+      <c r="D43" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G43" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F21" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="L21" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.5">
-      <c r="B22" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D22" s="19"/>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.5">
-      <c r="B23" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="B24" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12" s="21" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="D25" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="E25" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="F25" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="G25" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="K25" s="22"/>
-      <c r="L25" s="21" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12" s="21" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="B26" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="C26" s="21" t="s">
-        <v>141</v>
-      </c>
-      <c r="K26" s="22"/>
-    </row>
-    <row r="27" spans="2:12" s="21" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="D27" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="E27" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="F27" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="G27" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="K27" s="22"/>
-      <c r="L27" s="21" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="28" spans="2:12" s="21" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="B28" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="C28" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="K28" s="22"/>
-    </row>
-    <row r="29" spans="2:12" s="21" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="D29" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="F29" s="21" t="s">
+      <c r="O43" s="2">
+        <v>2020</v>
+      </c>
+      <c r="P43" s="2">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.5">
+      <c r="D44" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F44" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="G29" s="21" t="s">
-        <v>185</v>
-      </c>
-      <c r="K29" s="22"/>
-      <c r="L29" s="21" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="30" spans="2:12" s="21" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="K30" s="22"/>
-    </row>
-    <row r="31" spans="2:12" s="21" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="B31" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="K31" s="22"/>
-    </row>
-    <row r="32" spans="2:12" s="21" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="B32" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="K32" s="22"/>
-    </row>
-    <row r="33" spans="2:12" s="21" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="B33" s="21" t="s">
-        <v>176</v>
-      </c>
-      <c r="C33" s="21" t="s">
-        <v>177</v>
-      </c>
-      <c r="K33" s="22"/>
-    </row>
-    <row r="34" spans="2:12" s="23" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="D34" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="E34" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="F34" s="23" t="s">
-        <v>154</v>
-      </c>
-      <c r="G34" s="23" t="s">
-        <v>155</v>
-      </c>
-      <c r="K34" s="24"/>
-      <c r="L34" s="23" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.5">
-      <c r="B35" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.5">
-      <c r="B36" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.5">
-      <c r="B37" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="39" spans="2:12" s="23" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="D39" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="E39" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="F39" s="23" t="s">
-        <v>151</v>
-      </c>
-      <c r="G39" s="23" t="s">
-        <v>150</v>
-      </c>
-      <c r="K39" s="24"/>
-      <c r="L39" s="23" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="40" spans="2:12" s="23" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="K40" s="24"/>
-    </row>
-    <row r="42" spans="2:12" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="D42" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K42" s="16"/>
-      <c r="L42" s="2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.5">
-      <c r="D43" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.5">
-      <c r="D44" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>138</v>
-      </c>
       <c r="G44" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.5">
+        <v>43</v>
+      </c>
+      <c r="O44" s="2">
+        <v>2020</v>
+      </c>
+      <c r="P44" s="2">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.5">
       <c r="B46" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="47" spans="2:12" ht="110.25" x14ac:dyDescent="0.5">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" ht="110.25" x14ac:dyDescent="0.5">
       <c r="D47" s="2" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="48" spans="2:12" ht="31.5" x14ac:dyDescent="0.5">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" ht="47.25" x14ac:dyDescent="0.5">
       <c r="D48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.5">
       <c r="B49" s="2" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.5">
@@ -1979,24 +1990,24 @@
         <v>9</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.5">
       <c r="B51" s="2" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.5">
@@ -2010,25 +2021,25 @@
         <v>9</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K54" s="4"/>
       <c r="L54" s="2" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.5">
       <c r="B55" s="2" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
     </row>
     <row r="58" spans="2:12" x14ac:dyDescent="0.5">
@@ -2036,50 +2047,50 @@
         <v>9</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
     </row>
     <row r="59" spans="2:12" x14ac:dyDescent="0.5">
       <c r="B59" s="2" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
     </row>
     <row r="60" spans="2:12" x14ac:dyDescent="0.5">
       <c r="B60" s="2" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
     </row>
     <row r="61" spans="2:12" x14ac:dyDescent="0.5">
       <c r="B61" s="2" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
     </row>
     <row r="62" spans="2:12" x14ac:dyDescent="0.5">
       <c r="B62" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="64" spans="2:12" ht="31.5" x14ac:dyDescent="0.5">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="64" spans="2:12" ht="47.25" x14ac:dyDescent="0.5">
       <c r="D64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="L64" s="2" t="s">
         <v>206</v>
@@ -2087,10 +2098,10 @@
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.5">
       <c r="B65" s="2" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.5">
@@ -2098,104 +2109,104 @@
         <v>9</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="L67" s="2" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.5">
       <c r="B68" s="2" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.5">
       <c r="B71" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A73" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="D73" s="23" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A73" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="D73" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E73" s="23" t="s">
-        <v>181</v>
-      </c>
-      <c r="F73" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="G73" s="23" t="s">
-        <v>159</v>
-      </c>
-      <c r="K73" s="24"/>
-      <c r="L73" s="23" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="B74" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="K74" s="24"/>
+      <c r="E73" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="F73" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="G73" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="K73" s="23"/>
+      <c r="L73" s="22" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B74" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="K74" s="23"/>
     </row>
     <row r="75" spans="1:12" ht="47.25" x14ac:dyDescent="0.5">
       <c r="A75" s="2" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="L75" s="2" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.5">
       <c r="B76" s="2" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="77" spans="1:12" ht="47.25" x14ac:dyDescent="0.5">
       <c r="A77" s="2" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="K77" s="4"/>
       <c r="L77" s="2" t="s">
-        <v>87</v>
+        <v>207</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.5">
       <c r="B78" s="2" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.5">
@@ -2203,261 +2214,275 @@
         <v>4</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="L79" s="2" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.5">
       <c r="B80" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" ht="31.5" x14ac:dyDescent="0.5">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="81" spans="1:23" ht="31.5" x14ac:dyDescent="0.5">
       <c r="D81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="L81" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.5">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="82" spans="1:23" x14ac:dyDescent="0.5">
       <c r="B82" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="84" spans="1:23" x14ac:dyDescent="0.5">
+      <c r="B84" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="85" spans="1:23" x14ac:dyDescent="0.5">
+      <c r="K85" s="4"/>
+    </row>
+    <row r="87" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="89" spans="1:23" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A89" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F89" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="B84" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="K85" s="4"/>
-    </row>
-    <row r="87" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="89" spans="1:12" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A89" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D89" s="2" t="s">
+      <c r="G89" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F89" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="G89" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="K89" s="4"/>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="91" spans="1:23" x14ac:dyDescent="0.5">
       <c r="D91" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>211</v>
+        <v>182</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="E96" s="16"/>
+        <v>183</v>
+      </c>
+    </row>
+    <row r="92" spans="1:23" x14ac:dyDescent="0.5">
+      <c r="D92" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="N92" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="W92" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:23" x14ac:dyDescent="0.5">
+      <c r="E96" s="15"/>
     </row>
     <row r="97" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="E97" s="16"/>
+      <c r="E97" s="15"/>
     </row>
     <row r="98" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="E98" s="16"/>
+      <c r="E98" s="15"/>
     </row>
     <row r="100" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="E100" s="16"/>
+      <c r="E100" s="15"/>
     </row>
     <row r="101" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="E101" s="16"/>
+      <c r="E101" s="15"/>
     </row>
     <row r="102" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="E102" s="16"/>
+      <c r="E102" s="15"/>
     </row>
     <row r="103" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="E103" s="16"/>
+      <c r="E103" s="15"/>
     </row>
     <row r="104" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="E104" s="16"/>
+      <c r="E104" s="15"/>
     </row>
     <row r="105" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="E105" s="16"/>
+      <c r="E105" s="15"/>
     </row>
     <row r="106" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="E106" s="16"/>
+      <c r="E106" s="15"/>
     </row>
     <row r="109" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="B109" s="16"/>
-      <c r="C109" s="16"/>
-      <c r="D109" s="16"/>
-      <c r="E109" s="16"/>
-      <c r="F109" s="16"/>
-      <c r="G109" s="16"/>
-      <c r="H109" s="16"/>
+      <c r="B109" s="15"/>
+      <c r="C109" s="15"/>
+      <c r="D109" s="15"/>
+      <c r="E109" s="15"/>
+      <c r="F109" s="15"/>
+      <c r="G109" s="15"/>
+      <c r="H109" s="15"/>
     </row>
     <row r="110" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="B110" s="16"/>
-      <c r="C110" s="16"/>
-      <c r="D110" s="16"/>
-      <c r="E110" s="16"/>
-      <c r="F110" s="16"/>
-      <c r="G110" s="16"/>
-      <c r="H110" s="16"/>
+      <c r="B110" s="15"/>
+      <c r="C110" s="15"/>
+      <c r="D110" s="15"/>
+      <c r="E110" s="15"/>
+      <c r="F110" s="15"/>
+      <c r="G110" s="15"/>
+      <c r="H110" s="15"/>
       <c r="K110" s="4"/>
     </row>
     <row r="111" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="B111" s="16"/>
-      <c r="C111" s="16"/>
-      <c r="D111" s="16"/>
-      <c r="E111" s="16"/>
-      <c r="F111" s="16"/>
-      <c r="G111" s="16"/>
-      <c r="H111" s="16"/>
+      <c r="B111" s="15"/>
+      <c r="C111" s="15"/>
+      <c r="D111" s="15"/>
+      <c r="E111" s="15"/>
+      <c r="F111" s="15"/>
+      <c r="G111" s="15"/>
+      <c r="H111" s="15"/>
       <c r="K111" s="4"/>
     </row>
     <row r="112" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="B112" s="16"/>
-      <c r="C112" s="16"/>
-      <c r="D112" s="16"/>
-      <c r="E112" s="16"/>
-      <c r="F112" s="16"/>
-      <c r="G112" s="16"/>
-      <c r="H112" s="16"/>
+      <c r="B112" s="15"/>
+      <c r="C112" s="15"/>
+      <c r="D112" s="15"/>
+      <c r="E112" s="15"/>
+      <c r="F112" s="15"/>
+      <c r="G112" s="15"/>
+      <c r="H112" s="15"/>
     </row>
     <row r="113" spans="2:8" x14ac:dyDescent="0.5">
-      <c r="B113" s="16"/>
-      <c r="C113" s="16"/>
-      <c r="D113" s="16"/>
-      <c r="E113" s="16"/>
-      <c r="F113" s="16"/>
-      <c r="G113" s="16"/>
-      <c r="H113" s="16"/>
+      <c r="B113" s="15"/>
+      <c r="C113" s="15"/>
+      <c r="D113" s="15"/>
+      <c r="E113" s="15"/>
+      <c r="F113" s="15"/>
+      <c r="G113" s="15"/>
+      <c r="H113" s="15"/>
     </row>
     <row r="114" spans="2:8" x14ac:dyDescent="0.5">
-      <c r="B114" s="16"/>
-      <c r="C114" s="16"/>
-      <c r="D114" s="16"/>
-      <c r="E114" s="16"/>
-      <c r="F114" s="16"/>
-      <c r="G114" s="16"/>
-      <c r="H114" s="16"/>
+      <c r="B114" s="15"/>
+      <c r="C114" s="15"/>
+      <c r="D114" s="15"/>
+      <c r="E114" s="15"/>
+      <c r="F114" s="15"/>
+      <c r="G114" s="15"/>
+      <c r="H114" s="15"/>
     </row>
     <row r="115" spans="2:8" x14ac:dyDescent="0.5">
-      <c r="B115" s="16"/>
-      <c r="C115" s="16"/>
-      <c r="D115" s="16"/>
-      <c r="E115" s="16"/>
-      <c r="F115" s="16"/>
-      <c r="G115" s="16"/>
-      <c r="H115" s="16"/>
+      <c r="B115" s="15"/>
+      <c r="C115" s="15"/>
+      <c r="D115" s="15"/>
+      <c r="E115" s="15"/>
+      <c r="F115" s="15"/>
+      <c r="G115" s="15"/>
+      <c r="H115" s="15"/>
     </row>
     <row r="116" spans="2:8" x14ac:dyDescent="0.5">
-      <c r="B116" s="16"/>
-      <c r="C116" s="16"/>
-      <c r="D116" s="16"/>
-      <c r="E116" s="16"/>
-      <c r="F116" s="16"/>
-      <c r="G116" s="16"/>
-      <c r="H116" s="16"/>
+      <c r="B116" s="15"/>
+      <c r="C116" s="15"/>
+      <c r="D116" s="15"/>
+      <c r="E116" s="15"/>
+      <c r="F116" s="15"/>
+      <c r="G116" s="15"/>
+      <c r="H116" s="15"/>
     </row>
     <row r="117" spans="2:8" x14ac:dyDescent="0.5">
-      <c r="B117" s="29"/>
-      <c r="C117" s="29"/>
-      <c r="D117" s="29"/>
-      <c r="E117" s="29"/>
-      <c r="F117" s="29"/>
-      <c r="G117" s="29"/>
-      <c r="H117" s="16"/>
+      <c r="B117" s="28"/>
+      <c r="C117" s="28"/>
+      <c r="D117" s="28"/>
+      <c r="E117" s="28"/>
+      <c r="F117" s="28"/>
+      <c r="G117" s="28"/>
+      <c r="H117" s="15"/>
     </row>
     <row r="118" spans="2:8" x14ac:dyDescent="0.5">
-      <c r="B118" s="29"/>
-      <c r="C118" s="29"/>
-      <c r="D118" s="29"/>
-      <c r="E118" s="29"/>
-      <c r="F118" s="29"/>
-      <c r="G118" s="29"/>
-      <c r="H118" s="16"/>
+      <c r="B118" s="28"/>
+      <c r="C118" s="28"/>
+      <c r="D118" s="28"/>
+      <c r="E118" s="28"/>
+      <c r="F118" s="28"/>
+      <c r="G118" s="28"/>
+      <c r="H118" s="15"/>
     </row>
     <row r="119" spans="2:8" x14ac:dyDescent="0.5">
-      <c r="B119" s="16"/>
-      <c r="C119" s="16"/>
-      <c r="D119" s="16"/>
-      <c r="E119" s="16"/>
-      <c r="F119" s="16"/>
-      <c r="G119" s="16"/>
-      <c r="H119" s="16"/>
+      <c r="B119" s="15"/>
+      <c r="C119" s="15"/>
+      <c r="D119" s="15"/>
+      <c r="E119" s="15"/>
+      <c r="F119" s="15"/>
+      <c r="G119" s="15"/>
+      <c r="H119" s="15"/>
     </row>
     <row r="120" spans="2:8" x14ac:dyDescent="0.5">
-      <c r="B120" s="16"/>
-      <c r="C120" s="16"/>
-      <c r="D120" s="16"/>
-      <c r="E120" s="16"/>
-      <c r="F120" s="16"/>
-      <c r="G120" s="16"/>
-      <c r="H120" s="16"/>
+      <c r="B120" s="15"/>
+      <c r="C120" s="15"/>
+      <c r="D120" s="15"/>
+      <c r="E120" s="15"/>
+      <c r="F120" s="15"/>
+      <c r="G120" s="15"/>
+      <c r="H120" s="15"/>
     </row>
     <row r="121" spans="2:8" x14ac:dyDescent="0.5">
-      <c r="B121" s="16"/>
-      <c r="C121" s="16"/>
-      <c r="D121" s="16"/>
-      <c r="E121" s="16"/>
-      <c r="F121" s="16"/>
-      <c r="G121" s="16"/>
-      <c r="H121" s="16"/>
+      <c r="B121" s="15"/>
+      <c r="C121" s="15"/>
+      <c r="D121" s="15"/>
+      <c r="E121" s="15"/>
+      <c r="F121" s="15"/>
+      <c r="G121" s="15"/>
+      <c r="H121" s="15"/>
     </row>
     <row r="122" spans="2:8" x14ac:dyDescent="0.5">
-      <c r="B122" s="16"/>
-      <c r="C122" s="16"/>
-      <c r="D122" s="16"/>
-      <c r="E122" s="16"/>
-      <c r="F122" s="16"/>
-      <c r="G122" s="16"/>
-      <c r="H122" s="16"/>
+      <c r="B122" s="15"/>
+      <c r="C122" s="15"/>
+      <c r="D122" s="15"/>
+      <c r="E122" s="15"/>
+      <c r="F122" s="15"/>
+      <c r="G122" s="15"/>
+      <c r="H122" s="15"/>
     </row>
     <row r="123" spans="2:8" x14ac:dyDescent="0.5">
-      <c r="B123" s="16"/>
-      <c r="C123" s="16"/>
-      <c r="D123" s="16"/>
-      <c r="E123" s="16"/>
-      <c r="F123" s="16"/>
-      <c r="G123" s="16"/>
-      <c r="H123" s="16"/>
+      <c r="B123" s="15"/>
+      <c r="C123" s="15"/>
+      <c r="D123" s="15"/>
+      <c r="E123" s="15"/>
+      <c r="F123" s="15"/>
+      <c r="G123" s="15"/>
+      <c r="H123" s="15"/>
     </row>
     <row r="124" spans="2:8" x14ac:dyDescent="0.5">
-      <c r="B124" s="16"/>
-      <c r="C124" s="16"/>
-      <c r="D124" s="16"/>
-      <c r="E124" s="16"/>
-      <c r="F124" s="16"/>
-      <c r="G124" s="16"/>
-      <c r="H124" s="16"/>
+      <c r="B124" s="15"/>
+      <c r="C124" s="15"/>
+      <c r="D124" s="15"/>
+      <c r="E124" s="15"/>
+      <c r="F124" s="15"/>
+      <c r="G124" s="15"/>
+      <c r="H124" s="15"/>
     </row>
     <row r="125" spans="2:8" x14ac:dyDescent="0.5">
-      <c r="B125" s="16"/>
-      <c r="C125" s="16"/>
-      <c r="D125" s="16"/>
-      <c r="E125" s="16"/>
-      <c r="F125" s="16"/>
-      <c r="G125" s="16"/>
-      <c r="H125" s="16"/>
+      <c r="B125" s="15"/>
+      <c r="C125" s="15"/>
+      <c r="D125" s="15"/>
+      <c r="E125" s="15"/>
+      <c r="F125" s="15"/>
+      <c r="G125" s="15"/>
+      <c r="H125" s="15"/>
     </row>
   </sheetData>
   <autoFilter ref="D1:K1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
@@ -2479,7 +2504,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:D238"/>
@@ -2509,46 +2534,46 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A2" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A3" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B3" s="2">
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A5" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B5" s="2">
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A6" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B6" s="2">
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.5">
@@ -2557,24 +2582,24 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A8" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B8" s="2">
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A9" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B9" s="2">
         <v>2</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.5">
@@ -2583,79 +2608,79 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A11" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B11" s="2">
         <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A12" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B12" s="2">
         <v>2</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A13" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B13" s="2">
         <v>3</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A14" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B14" s="2">
         <v>4</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A15" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B15" s="2">
         <v>5</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A16" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B16" s="2">
         <v>6</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A17" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B17" s="2">
         <v>7</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.5">
@@ -2668,57 +2693,57 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A20" s="1" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="B20" s="2">
         <v>8</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A21" s="1" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="B21" s="2">
         <v>9</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A22" s="1" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="B22" s="2">
         <v>10</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A23" s="1" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="B23" s="2">
         <v>11</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A24" s="1" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="B24" s="2">
         <v>12</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.5">
@@ -2726,101 +2751,101 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A27" s="1" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="B27" s="2">
         <v>1</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A28" s="1" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="B28" s="2">
         <v>2</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A29" s="1" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="B29" s="2">
         <v>3</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A30" s="1" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="B30" s="2">
         <v>4</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A32" s="1" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="B32" s="2">
         <v>1</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A33" s="1" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="B33" s="2">
         <v>2</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A34" s="1" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="B34" s="2">
         <v>3</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A35" s="1" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="B35" s="2">
         <v>4</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A36" s="1" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="B36" s="2">
         <v>5</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.5">
@@ -2828,13 +2853,13 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A38" s="1" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="B38" s="2">
         <v>1</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.5">
@@ -3319,107 +3344,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97C574FB-861C-4A83-BA50-230986D05032}">
-  <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:I1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
-  <cols>
-    <col min="1" max="1" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8" customWidth="1"/>
-    <col min="3" max="3" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="61" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E1" t="s">
-        <v>113</v>
-      </c>
-      <c r="F1" t="s">
-        <v>114</v>
-      </c>
-      <c r="G1" t="s">
-        <v>115</v>
-      </c>
-      <c r="H1" t="s">
-        <v>116</v>
-      </c>
-      <c r="I1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18A17F62-BD05-49B8-9BEB-0F803500DD2B}">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
-  <cols>
-    <col min="1" max="1" width="18.25" customWidth="1"/>
-    <col min="2" max="2" width="69.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A2" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A4" s="2"/>
-      <c r="B4" s="27"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -3437,231 +3368,284 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A3" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A4" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A5" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A3" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A4" s="2" t="s">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A6" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A7" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="B7" s="27" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A8" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A9" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="27" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A6" s="2" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A10" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A11" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A8" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="B8" s="20" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A9" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A10" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A11" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A12" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>120</v>
+      <c r="B12" s="2" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A13" s="2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A14" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>123</v>
+        <v>97</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A16" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A17" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A16" s="20" t="s">
+      <c r="B17" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A18" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A20" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A21" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="20" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A17" s="20" t="s">
+      <c r="B21" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A22" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="20" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A18" s="20" t="s">
+      <c r="B22" s="19" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A23" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="20" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A19" s="20" t="s">
+      <c r="B23" s="19" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A24" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="20" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A20" s="20" t="s">
+      <c r="B24" s="19" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A25" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="20" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A21" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="B21" s="20" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A22" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="B22" s="20" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A23" s="20" t="s">
+      <c r="B25" s="19" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A26" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A27" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A28" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A29" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="20" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A24" s="2" t="s">
+      <c r="B29" s="19" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A30" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="20" t="s">
+      <c r="B30" s="19" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A32" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" s="19" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A25" s="2" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A33" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="20" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A26" s="20" t="s">
+      <c r="B33" s="19" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A34" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B26" s="20" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A27" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="B27" s="20" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A28" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="B28" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A29" s="26" t="s">
+      <c r="B34" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A35" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B29" s="26" t="s">
-        <v>213</v>
-      </c>
+      <c r="B35" s="25" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -3670,7 +3654,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EEE19C4-0725-4F28-B24F-E00065190F0E}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:D3"/>
@@ -3688,44 +3672,44 @@
   <sheetData>
     <row r="1" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A1" s="8" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" t="s">
         <v>59</v>
       </c>
-      <c r="B2" t="s">
-        <v>63</v>
-      </c>
       <c r="C2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D3" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/tables/ronda/forms/ronda/ronda.xlsx
+++ b/app/config/tables/ronda/forms/ronda/ronda.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celso\odkx\QPS2020\app\config\tables\ronda\forms\ronda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81851D3C-DD2B-442B-97ED-E3E6E1008957}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9F14AB5-FCE0-4C75-9578-1E66DA6FD176}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="3" r:id="rId1"/>
@@ -1320,18 +1320,18 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="12.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.375" customWidth="1"/>
     <col min="3" max="3" width="28.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -1342,7 +1342,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1350,15 +1350,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>14</v>
       </c>
       <c r="B3">
-        <v>2020081300</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2020092600</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1366,7 +1366,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -1374,7 +1374,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>195</v>
       </c>
@@ -1400,13 +1400,13 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="25.25" customWidth="1"/>
     <col min="2" max="2" width="125.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -1424,14 +1424,14 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Y125"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="H48" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="L77" sqref="L77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="13.125" style="2" customWidth="1"/>
     <col min="2" max="2" width="17.125" style="2" customWidth="1"/>
@@ -1452,7 +1452,7 @@
     <col min="17" max="16384" width="10.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
         <v>62</v>
       </c>
@@ -1529,7 +1529,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.5">
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="G2" s="1"/>
@@ -1552,7 +1552,7 @@
       <c r="X2"/>
       <c r="Y2"/>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.5">
       <c r="B3" s="17" t="s">
         <v>64</v>
       </c>
@@ -1578,7 +1578,7 @@
       <c r="X3"/>
       <c r="Y3"/>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.5">
       <c r="D4" s="1" t="s">
         <v>67</v>
       </c>
@@ -1594,7 +1594,7 @@
       <c r="J4" s="1"/>
       <c r="K4" s="3"/>
     </row>
-    <row r="5" spans="1:25" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" s="10" customFormat="1" x14ac:dyDescent="0.5">
       <c r="D5" s="10" t="s">
         <v>59</v>
       </c>
@@ -1606,13 +1606,13 @@
       </c>
       <c r="K5" s="11"/>
     </row>
-    <row r="6" spans="1:25" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" s="10" customFormat="1" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="K6" s="11"/>
       <c r="N6" s="12"/>
       <c r="O6" s="12"/>
       <c r="P6" s="12"/>
     </row>
-    <row r="7" spans="1:25" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" s="10" customFormat="1" x14ac:dyDescent="0.5">
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
       <c r="G7" s="13"/>
@@ -1621,16 +1621,16 @@
       <c r="J7" s="13"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:25" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" s="10" customFormat="1" x14ac:dyDescent="0.5">
       <c r="K8" s="11"/>
     </row>
-    <row r="9" spans="1:25" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" s="10" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B9" s="10" t="s">
         <v>65</v>
       </c>
       <c r="K9" s="11"/>
     </row>
-    <row r="10" spans="1:25" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" s="10" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B10" s="10" t="s">
         <v>174</v>
       </c>
@@ -1639,7 +1639,7 @@
       </c>
       <c r="K10" s="11"/>
     </row>
-    <row r="11" spans="1:25" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="D11" s="10" t="s">
         <v>67</v>
       </c>
@@ -1651,13 +1651,13 @@
       </c>
       <c r="K11" s="11"/>
     </row>
-    <row r="12" spans="1:25" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" s="10" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B12" s="10" t="s">
         <v>176</v>
       </c>
       <c r="K12" s="11"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.5">
       <c r="D14" s="2" t="s">
         <v>5</v>
       </c>
@@ -1677,7 +1677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.5">
       <c r="D15" s="2" t="s">
         <v>9</v>
       </c>
@@ -1694,7 +1694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.5">
       <c r="B16" s="2" t="s">
         <v>150</v>
       </c>
@@ -1703,17 +1703,17 @@
       </c>
       <c r="D16" s="18"/>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.5">
       <c r="B17" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12" ht="31.5" x14ac:dyDescent="0.5">
       <c r="B18" s="2" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.5">
       <c r="B19" s="2" t="s">
         <v>197</v>
       </c>
@@ -1721,7 +1721,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="20" spans="2:12" s="20" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12" s="20" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="D20" s="20" t="s">
         <v>9</v>
       </c>
@@ -1739,7 +1739,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="21" spans="2:12" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:12" s="20" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B21" s="20" t="s">
         <v>146</v>
       </c>
@@ -1748,7 +1748,7 @@
       </c>
       <c r="K21" s="21"/>
     </row>
-    <row r="22" spans="2:12" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12" s="20" customFormat="1" x14ac:dyDescent="0.5">
       <c r="D22" s="20" t="s">
         <v>51</v>
       </c>
@@ -1766,7 +1766,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="23" spans="2:12" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:12" s="20" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B23" s="20" t="s">
         <v>147</v>
       </c>
@@ -1775,7 +1775,7 @@
       </c>
       <c r="K23" s="21"/>
     </row>
-    <row r="24" spans="2:12" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12" s="20" customFormat="1" x14ac:dyDescent="0.5">
       <c r="D24" s="20" t="s">
         <v>4</v>
       </c>
@@ -1790,28 +1790,28 @@
         <v>105</v>
       </c>
     </row>
-    <row r="25" spans="2:12" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:12" s="20" customFormat="1" x14ac:dyDescent="0.5">
       <c r="K25" s="21"/>
     </row>
-    <row r="26" spans="2:12" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:12" s="20" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B26" s="20" t="s">
         <v>148</v>
       </c>
       <c r="K26" s="21"/>
     </row>
-    <row r="27" spans="2:12" s="20" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:12" s="20" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="B27" s="20" t="s">
         <v>149</v>
       </c>
       <c r="K27" s="21"/>
     </row>
-    <row r="28" spans="2:12" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:12" s="20" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B28" s="20" t="s">
         <v>199</v>
       </c>
       <c r="K28" s="21"/>
     </row>
-    <row r="29" spans="2:12" s="20" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:12" s="20" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="B29" s="20" t="s">
         <v>160</v>
       </c>
@@ -1820,10 +1820,10 @@
       </c>
       <c r="K29" s="21"/>
     </row>
-    <row r="30" spans="2:12" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:12" s="20" customFormat="1" x14ac:dyDescent="0.5">
       <c r="K30" s="21"/>
     </row>
-    <row r="31" spans="2:12" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:12" s="22" customFormat="1" x14ac:dyDescent="0.5">
       <c r="D31" s="22" t="s">
         <v>9</v>
       </c>
@@ -1841,7 +1841,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.5">
       <c r="B32" s="2" t="s">
         <v>168</v>
       </c>
@@ -1849,17 +1849,17 @@
         <v>144</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.5">
       <c r="B33" s="2" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.5">
       <c r="B34" s="2" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="36" spans="2:16" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:16" s="22" customFormat="1" x14ac:dyDescent="0.5">
       <c r="D36" s="22" t="s">
         <v>9</v>
       </c>
@@ -1877,7 +1877,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="37" spans="2:16" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:16" s="22" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B37" s="22" t="s">
         <v>79</v>
       </c>
@@ -1886,7 +1886,7 @@
       </c>
       <c r="K37" s="23"/>
     </row>
-    <row r="42" spans="2:16" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:16" ht="31.5" x14ac:dyDescent="0.5">
       <c r="D42" s="2" t="s">
         <v>97</v>
       </c>
@@ -1907,7 +1907,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.5">
       <c r="D43" s="2" t="s">
         <v>97</v>
       </c>
@@ -1924,7 +1924,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.5">
       <c r="D44" s="2" t="s">
         <v>97</v>
       </c>
@@ -1941,12 +1941,12 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.5">
       <c r="B46" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="47" spans="2:16" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:16" ht="110.25" x14ac:dyDescent="0.5">
       <c r="D47" s="2" t="s">
         <v>67</v>
       </c>
@@ -1957,7 +1957,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="48" spans="2:16" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:16" ht="47.25" x14ac:dyDescent="0.5">
       <c r="D48" s="2" t="s">
         <v>9</v>
       </c>
@@ -1974,7 +1974,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:12" x14ac:dyDescent="0.5">
       <c r="B49" s="2" t="s">
         <v>151</v>
       </c>
@@ -1982,7 +1982,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:12" x14ac:dyDescent="0.5">
       <c r="D50" s="2" t="s">
         <v>9</v>
       </c>
@@ -1999,7 +1999,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:12" x14ac:dyDescent="0.5">
       <c r="B51" s="2" t="s">
         <v>152</v>
       </c>
@@ -2007,13 +2007,13 @@
         <v>111</v>
       </c>
     </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:12" x14ac:dyDescent="0.5">
       <c r="K52" s="4"/>
     </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:12" x14ac:dyDescent="0.5">
       <c r="K53" s="4"/>
     </row>
-    <row r="54" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:12" x14ac:dyDescent="0.5">
       <c r="D54" s="2" t="s">
         <v>9</v>
       </c>
@@ -2031,7 +2031,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="55" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:12" x14ac:dyDescent="0.5">
       <c r="B55" s="2" t="s">
         <v>153</v>
       </c>
@@ -2039,7 +2039,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="58" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:12" x14ac:dyDescent="0.5">
       <c r="D58" s="2" t="s">
         <v>9</v>
       </c>
@@ -2056,27 +2056,27 @@
         <v>113</v>
       </c>
     </row>
-    <row r="59" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:12" x14ac:dyDescent="0.5">
       <c r="B59" s="2" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="60" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:12" x14ac:dyDescent="0.5">
       <c r="B60" s="2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="61" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:12" x14ac:dyDescent="0.5">
       <c r="B61" s="2" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="62" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:12" x14ac:dyDescent="0.5">
       <c r="B62" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="64" spans="2:12" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:12" ht="47.25" x14ac:dyDescent="0.5">
       <c r="D64" s="2" t="s">
         <v>9</v>
       </c>
@@ -2093,7 +2093,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.5">
       <c r="B65" s="2" t="s">
         <v>157</v>
       </c>
@@ -2101,7 +2101,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.5">
       <c r="D67" s="2" t="s">
         <v>9</v>
       </c>
@@ -2115,17 +2115,17 @@
         <v>171</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.5">
       <c r="B68" s="2" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.5">
       <c r="B71" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="73" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A73" s="22" t="s">
         <v>142</v>
       </c>
@@ -2146,13 +2146,13 @@
         <v>170</v>
       </c>
     </row>
-    <row r="74" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B74" s="22" t="s">
         <v>66</v>
       </c>
       <c r="K74" s="23"/>
     </row>
-    <row r="75" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" ht="47.25" x14ac:dyDescent="0.5">
       <c r="A75" s="2" t="s">
         <v>140</v>
       </c>
@@ -2172,12 +2172,12 @@
         <v>161</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.5">
       <c r="B76" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="77" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" ht="47.25" x14ac:dyDescent="0.5">
       <c r="A77" s="2" t="s">
         <v>68</v>
       </c>
@@ -2198,7 +2198,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.5">
       <c r="B78" s="2" t="s">
         <v>71</v>
       </c>
@@ -2206,7 +2206,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.5">
       <c r="D79" s="2" t="s">
         <v>4</v>
       </c>
@@ -2220,12 +2220,12 @@
         <v>117</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.5">
       <c r="B80" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="81" spans="1:23" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:23" ht="31.5" x14ac:dyDescent="0.5">
       <c r="D81" s="2" t="s">
         <v>9</v>
       </c>
@@ -2242,21 +2242,21 @@
         <v>78</v>
       </c>
     </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:23" x14ac:dyDescent="0.5">
       <c r="B82" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:23" x14ac:dyDescent="0.5">
       <c r="B84" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:23" x14ac:dyDescent="0.5">
       <c r="K85" s="4"/>
     </row>
-    <row r="87" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" spans="1:23" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="89" spans="1:23" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A89" s="2" t="s">
         <v>74</v>
       </c>
@@ -2271,7 +2271,7 @@
       </c>
       <c r="K89" s="4"/>
     </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:23" x14ac:dyDescent="0.5">
       <c r="D91" s="2" t="s">
         <v>4</v>
       </c>
@@ -2282,7 +2282,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:23" x14ac:dyDescent="0.5">
       <c r="D92" s="2" t="s">
         <v>202</v>
       </c>
@@ -2296,37 +2296,37 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:23" x14ac:dyDescent="0.5">
       <c r="E96" s="15"/>
     </row>
-    <row r="97" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:11" x14ac:dyDescent="0.5">
       <c r="E97" s="15"/>
     </row>
-    <row r="98" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:11" x14ac:dyDescent="0.5">
       <c r="E98" s="15"/>
     </row>
-    <row r="100" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:11" x14ac:dyDescent="0.5">
       <c r="E100" s="15"/>
     </row>
-    <row r="101" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:11" x14ac:dyDescent="0.5">
       <c r="E101" s="15"/>
     </row>
-    <row r="102" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:11" x14ac:dyDescent="0.5">
       <c r="E102" s="15"/>
     </row>
-    <row r="103" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:11" x14ac:dyDescent="0.5">
       <c r="E103" s="15"/>
     </row>
-    <row r="104" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:11" x14ac:dyDescent="0.5">
       <c r="E104" s="15"/>
     </row>
-    <row r="105" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:11" x14ac:dyDescent="0.5">
       <c r="E105" s="15"/>
     </row>
-    <row r="106" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:11" x14ac:dyDescent="0.5">
       <c r="E106" s="15"/>
     </row>
-    <row r="109" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B109" s="15"/>
       <c r="C109" s="15"/>
       <c r="D109" s="15"/>
@@ -2335,7 +2335,7 @@
       <c r="G109" s="15"/>
       <c r="H109" s="15"/>
     </row>
-    <row r="110" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B110" s="15"/>
       <c r="C110" s="15"/>
       <c r="D110" s="15"/>
@@ -2345,7 +2345,7 @@
       <c r="H110" s="15"/>
       <c r="K110" s="4"/>
     </row>
-    <row r="111" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B111" s="15"/>
       <c r="C111" s="15"/>
       <c r="D111" s="15"/>
@@ -2355,7 +2355,7 @@
       <c r="H111" s="15"/>
       <c r="K111" s="4"/>
     </row>
-    <row r="112" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B112" s="15"/>
       <c r="C112" s="15"/>
       <c r="D112" s="15"/>
@@ -2364,7 +2364,7 @@
       <c r="G112" s="15"/>
       <c r="H112" s="15"/>
     </row>
-    <row r="113" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:8" x14ac:dyDescent="0.5">
       <c r="B113" s="15"/>
       <c r="C113" s="15"/>
       <c r="D113" s="15"/>
@@ -2373,7 +2373,7 @@
       <c r="G113" s="15"/>
       <c r="H113" s="15"/>
     </row>
-    <row r="114" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:8" x14ac:dyDescent="0.5">
       <c r="B114" s="15"/>
       <c r="C114" s="15"/>
       <c r="D114" s="15"/>
@@ -2382,7 +2382,7 @@
       <c r="G114" s="15"/>
       <c r="H114" s="15"/>
     </row>
-    <row r="115" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:8" x14ac:dyDescent="0.5">
       <c r="B115" s="15"/>
       <c r="C115" s="15"/>
       <c r="D115" s="15"/>
@@ -2391,7 +2391,7 @@
       <c r="G115" s="15"/>
       <c r="H115" s="15"/>
     </row>
-    <row r="116" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:8" x14ac:dyDescent="0.5">
       <c r="B116" s="15"/>
       <c r="C116" s="15"/>
       <c r="D116" s="15"/>
@@ -2400,7 +2400,7 @@
       <c r="G116" s="15"/>
       <c r="H116" s="15"/>
     </row>
-    <row r="117" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:8" x14ac:dyDescent="0.5">
       <c r="B117" s="28"/>
       <c r="C117" s="28"/>
       <c r="D117" s="28"/>
@@ -2409,7 +2409,7 @@
       <c r="G117" s="28"/>
       <c r="H117" s="15"/>
     </row>
-    <row r="118" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:8" x14ac:dyDescent="0.5">
       <c r="B118" s="28"/>
       <c r="C118" s="28"/>
       <c r="D118" s="28"/>
@@ -2418,7 +2418,7 @@
       <c r="G118" s="28"/>
       <c r="H118" s="15"/>
     </row>
-    <row r="119" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:8" x14ac:dyDescent="0.5">
       <c r="B119" s="15"/>
       <c r="C119" s="15"/>
       <c r="D119" s="15"/>
@@ -2427,7 +2427,7 @@
       <c r="G119" s="15"/>
       <c r="H119" s="15"/>
     </row>
-    <row r="120" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:8" x14ac:dyDescent="0.5">
       <c r="B120" s="15"/>
       <c r="C120" s="15"/>
       <c r="D120" s="15"/>
@@ -2436,7 +2436,7 @@
       <c r="G120" s="15"/>
       <c r="H120" s="15"/>
     </row>
-    <row r="121" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:8" x14ac:dyDescent="0.5">
       <c r="B121" s="15"/>
       <c r="C121" s="15"/>
       <c r="D121" s="15"/>
@@ -2445,7 +2445,7 @@
       <c r="G121" s="15"/>
       <c r="H121" s="15"/>
     </row>
-    <row r="122" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:8" x14ac:dyDescent="0.5">
       <c r="B122" s="15"/>
       <c r="C122" s="15"/>
       <c r="D122" s="15"/>
@@ -2454,7 +2454,7 @@
       <c r="G122" s="15"/>
       <c r="H122" s="15"/>
     </row>
-    <row r="123" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:8" x14ac:dyDescent="0.5">
       <c r="B123" s="15"/>
       <c r="C123" s="15"/>
       <c r="D123" s="15"/>
@@ -2463,7 +2463,7 @@
       <c r="G123" s="15"/>
       <c r="H123" s="15"/>
     </row>
-    <row r="124" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:8" x14ac:dyDescent="0.5">
       <c r="B124" s="15"/>
       <c r="C124" s="15"/>
       <c r="D124" s="15"/>
@@ -2472,7 +2472,7 @@
       <c r="G124" s="15"/>
       <c r="H124" s="15"/>
     </row>
-    <row r="125" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:8" x14ac:dyDescent="0.5">
       <c r="B125" s="15"/>
       <c r="C125" s="15"/>
       <c r="D125" s="15"/>
@@ -2510,7 +2510,7 @@
       <selection activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="21.5" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="16.75" style="2" customWidth="1"/>
     <col min="2" max="2" width="21.5" style="2"/>
@@ -2518,7 +2518,7 @@
     <col min="5" max="16384" width="21.5" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -2529,7 +2529,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A2" s="2" t="s">
         <v>22</v>
       </c>
@@ -2540,7 +2540,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A3" s="2" t="s">
         <v>22</v>
       </c>
@@ -2551,7 +2551,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A5" s="2" t="s">
         <v>34</v>
       </c>
@@ -2562,7 +2562,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A6" s="2" t="s">
         <v>34</v>
       </c>
@@ -2573,11 +2573,11 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A7" s="1"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A8" s="1" t="s">
         <v>38</v>
       </c>
@@ -2588,7 +2588,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A9" s="1" t="s">
         <v>38</v>
       </c>
@@ -2599,11 +2599,11 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A10" s="1"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A11" s="1" t="s">
         <v>50</v>
       </c>
@@ -2614,7 +2614,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A12" s="1" t="s">
         <v>50</v>
       </c>
@@ -2625,7 +2625,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A13" s="1" t="s">
         <v>50</v>
       </c>
@@ -2636,7 +2636,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A14" s="1" t="s">
         <v>50</v>
       </c>
@@ -2647,7 +2647,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A15" s="1" t="s">
         <v>50</v>
       </c>
@@ -2658,7 +2658,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A16" s="1" t="s">
         <v>50</v>
       </c>
@@ -2669,7 +2669,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A17" s="1" t="s">
         <v>50</v>
       </c>
@@ -2680,15 +2680,15 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A18" s="1"/>
       <c r="C18" s="1"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A19" s="1"/>
       <c r="C19" s="1"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A20" s="1" t="s">
         <v>85</v>
       </c>
@@ -2699,7 +2699,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A21" s="1" t="s">
         <v>85</v>
       </c>
@@ -2710,7 +2710,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A22" s="1" t="s">
         <v>85</v>
       </c>
@@ -2721,7 +2721,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A23" s="1" t="s">
         <v>85</v>
       </c>
@@ -2732,7 +2732,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A24" s="1" t="s">
         <v>85</v>
       </c>
@@ -2743,10 +2743,10 @@
         <v>90</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.5">
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A27" s="1" t="s">
         <v>92</v>
       </c>
@@ -2757,7 +2757,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A28" s="1" t="s">
         <v>92</v>
       </c>
@@ -2768,7 +2768,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A29" s="1" t="s">
         <v>92</v>
       </c>
@@ -2779,7 +2779,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A30" s="1" t="s">
         <v>92</v>
       </c>
@@ -2790,7 +2790,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A32" s="1" t="s">
         <v>133</v>
       </c>
@@ -2801,7 +2801,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A33" s="1" t="s">
         <v>133</v>
       </c>
@@ -2812,7 +2812,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A34" s="1" t="s">
         <v>133</v>
       </c>
@@ -2823,7 +2823,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A35" s="1" t="s">
         <v>133</v>
       </c>
@@ -2834,7 +2834,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A36" s="1" t="s">
         <v>133</v>
       </c>
@@ -2845,10 +2845,10 @@
         <v>137</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A37" s="1"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A38" s="1" t="s">
         <v>165</v>
       </c>
@@ -2859,474 +2859,474 @@
         <v>166</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A40" s="1"/>
       <c r="C40" s="1"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.5">
       <c r="C41" s="1"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A42" s="1"/>
       <c r="C42" s="1"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A43" s="1"/>
       <c r="C43" s="1"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A44" s="1"/>
       <c r="C44" s="1"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A45" s="1"/>
       <c r="C45" s="1"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A46" s="1"/>
       <c r="C46" s="1"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A47" s="1"/>
       <c r="C47" s="1"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A48" s="1"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A49" s="1"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A50" s="1"/>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A51" s="1"/>
       <c r="C51" s="1"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A52" s="1"/>
       <c r="C52" s="1"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A53" s="1"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A54" s="1"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A55" s="1"/>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A56" s="1"/>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A57" s="1"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A58" s="1"/>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A59" s="1"/>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A60" s="1"/>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A61" s="1"/>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A62" s="1"/>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A63" s="1"/>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A64" s="1"/>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A65" s="1"/>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A66" s="1"/>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A67" s="1"/>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A68" s="1"/>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A69" s="1"/>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A70" s="1"/>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A71" s="1"/>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A72" s="1"/>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A73" s="1"/>
       <c r="C73" s="1"/>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A74" s="1"/>
       <c r="C74" s="1"/>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A75" s="1"/>
       <c r="C75" s="1"/>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A76" s="1"/>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A77" s="1"/>
       <c r="C77" s="1"/>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A78" s="1"/>
       <c r="C78" s="1"/>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A79" s="1"/>
       <c r="C79" s="1"/>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A80" s="1"/>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A81" s="1"/>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A82" s="1"/>
       <c r="C82" s="1"/>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A83" s="1"/>
       <c r="C83" s="1"/>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A84" s="1"/>
       <c r="C84" s="1"/>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A85" s="1"/>
       <c r="C85" s="1"/>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A86" s="1"/>
       <c r="C86" s="1"/>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A87" s="1"/>
       <c r="C87" s="1"/>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A88" s="1"/>
       <c r="C88" s="1"/>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A89" s="1"/>
       <c r="C89" s="1"/>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A90" s="1"/>
       <c r="C90" s="1"/>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A91" s="1"/>
       <c r="C91" s="1"/>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A92" s="1"/>
       <c r="C92" s="1"/>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A93" s="1"/>
       <c r="C93" s="1"/>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A94" s="1"/>
       <c r="C94" s="1"/>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A95" s="1"/>
       <c r="C95" s="1"/>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A96" s="1"/>
       <c r="C96" s="1"/>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A97" s="1"/>
       <c r="C97" s="1"/>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A98" s="1"/>
       <c r="C98" s="1"/>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A99" s="1"/>
       <c r="C99" s="1"/>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A100" s="1"/>
       <c r="C100" s="1"/>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A101" s="1"/>
       <c r="C101" s="1"/>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A102" s="1"/>
       <c r="C102" s="1"/>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A103" s="1"/>
       <c r="C103" s="1"/>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A104" s="1"/>
       <c r="C104" s="1"/>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A105" s="1"/>
       <c r="C105" s="1"/>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A106" s="1"/>
       <c r="C106" s="1"/>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A107" s="1"/>
       <c r="C107" s="1"/>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A108" s="1"/>
       <c r="C108" s="1"/>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A109" s="1"/>
       <c r="C109" s="1"/>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A110" s="1"/>
       <c r="C110" s="1"/>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A111" s="1"/>
       <c r="C111" s="1"/>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A112" s="1"/>
       <c r="C112" s="1"/>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A113" s="1"/>
       <c r="C113" s="1"/>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A114" s="1"/>
       <c r="C114" s="1"/>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A115" s="1"/>
       <c r="C115" s="1"/>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A116" s="1"/>
       <c r="C116" s="1"/>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A117" s="1"/>
       <c r="C117" s="1"/>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A118" s="1"/>
       <c r="C118" s="1"/>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A119" s="1"/>
       <c r="C119" s="1"/>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A120" s="1"/>
       <c r="C120" s="1"/>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A121" s="1"/>
       <c r="C121" s="1"/>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A122" s="1"/>
       <c r="C122" s="1"/>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A123" s="1"/>
       <c r="C123" s="1"/>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A124" s="1"/>
       <c r="C124" s="1"/>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A125" s="1"/>
       <c r="C125" s="1"/>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A126" s="1"/>
       <c r="C126" s="1"/>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A127" s="1"/>
       <c r="C127" s="1"/>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A128" s="1"/>
       <c r="C128" s="1"/>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A129" s="1"/>
       <c r="C129" s="1"/>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A130" s="1"/>
       <c r="C130" s="1"/>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A131" s="1"/>
       <c r="C131" s="1"/>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A132" s="1"/>
       <c r="C132" s="1"/>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A133" s="1"/>
       <c r="C133" s="1"/>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A134" s="1"/>
       <c r="C134" s="1"/>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A135" s="1"/>
       <c r="C135" s="1"/>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A136" s="1"/>
       <c r="C136" s="1"/>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A137" s="1"/>
       <c r="C137" s="1"/>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A138" s="1"/>
       <c r="C138" s="1"/>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A139" s="1"/>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A215" s="1"/>
       <c r="C215" s="1"/>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A216" s="1"/>
       <c r="C216" s="1"/>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A217" s="1"/>
       <c r="C217" s="1"/>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A218" s="1"/>
       <c r="C218" s="1"/>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A219" s="1"/>
       <c r="C219" s="1"/>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A220" s="1"/>
       <c r="C220" s="1"/>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A221" s="1"/>
       <c r="C221" s="1"/>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A222" s="1"/>
       <c r="C222" s="1"/>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A223" s="1"/>
       <c r="C223" s="1"/>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A224" s="1"/>
       <c r="C224" s="1"/>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A225" s="1"/>
       <c r="C225" s="1"/>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A226" s="1"/>
       <c r="C226" s="1"/>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A227" s="1"/>
       <c r="C227" s="1"/>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A228" s="1"/>
       <c r="C228" s="1"/>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A229" s="1"/>
       <c r="C229" s="1"/>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A230" s="1"/>
       <c r="C230" s="1"/>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A231" s="1"/>
       <c r="C231" s="1"/>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A232" s="1"/>
       <c r="C232" s="1"/>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A233" s="1"/>
       <c r="C233" s="1"/>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A234" s="1"/>
       <c r="C234" s="1"/>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A235" s="1"/>
       <c r="C235" s="1"/>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A236" s="1"/>
       <c r="C236" s="1"/>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A237" s="1"/>
       <c r="C237" s="1"/>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A238" s="1"/>
       <c r="C238" s="1"/>
     </row>
@@ -3350,13 +3350,13 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="15.125" customWidth="1"/>
     <col min="2" max="2" width="40.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -3364,7 +3364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A2" s="27" t="s">
         <v>59</v>
       </c>
@@ -3372,7 +3372,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A3" s="27" t="s">
         <v>4</v>
       </c>
@@ -3380,7 +3380,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A4" s="27" t="s">
         <v>4</v>
       </c>
@@ -3388,7 +3388,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5" s="27" t="s">
         <v>9</v>
       </c>
@@ -3396,7 +3396,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A6" s="27" t="s">
         <v>9</v>
       </c>
@@ -3404,7 +3404,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A7" s="27" t="s">
         <v>5</v>
       </c>
@@ -3412,7 +3412,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A8" s="27" t="s">
         <v>5</v>
       </c>
@@ -3420,7 +3420,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A9" s="27" t="s">
         <v>5</v>
       </c>
@@ -3428,7 +3428,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A10" s="26" t="s">
         <v>59</v>
       </c>
@@ -3436,7 +3436,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A11" s="2" t="s">
         <v>5</v>
       </c>
@@ -3444,7 +3444,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
@@ -3452,7 +3452,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A13" s="19" t="s">
         <v>97</v>
       </c>
@@ -3460,7 +3460,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A14" s="19" t="s">
         <v>97</v>
       </c>
@@ -3468,7 +3468,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A15" s="2" t="s">
         <v>97</v>
       </c>
@@ -3476,7 +3476,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A16" s="19" t="s">
         <v>9</v>
       </c>
@@ -3484,7 +3484,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A17" s="19" t="s">
         <v>51</v>
       </c>
@@ -3492,7 +3492,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A18" s="2" t="s">
         <v>4</v>
       </c>
@@ -3500,7 +3500,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A19" s="18" t="s">
         <v>67</v>
       </c>
@@ -3508,7 +3508,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A20" s="19" t="s">
         <v>9</v>
       </c>
@@ -3516,7 +3516,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A21" s="19" t="s">
         <v>9</v>
       </c>
@@ -3524,7 +3524,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A22" s="19" t="s">
         <v>9</v>
       </c>
@@ -3532,7 +3532,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A23" s="19" t="s">
         <v>9</v>
       </c>
@@ -3540,7 +3540,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A24" s="19" t="s">
         <v>9</v>
       </c>
@@ -3548,7 +3548,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A25" s="19" t="s">
         <v>9</v>
       </c>
@@ -3556,7 +3556,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A26" s="19" t="s">
         <v>67</v>
       </c>
@@ -3564,7 +3564,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A27" s="19" t="s">
         <v>69</v>
       </c>
@@ -3572,7 +3572,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A28" s="19" t="s">
         <v>4</v>
       </c>
@@ -3580,7 +3580,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A29" s="2" t="s">
         <v>9</v>
       </c>
@@ -3588,7 +3588,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A30" s="2" t="s">
         <v>9</v>
       </c>
@@ -3596,7 +3596,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A31" s="19" t="s">
         <v>9</v>
       </c>
@@ -3604,7 +3604,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A32" s="24" t="s">
         <v>9</v>
       </c>
@@ -3612,7 +3612,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A33" s="24" t="s">
         <v>9</v>
       </c>
@@ -3620,7 +3620,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A34" s="25" t="s">
         <v>4</v>
       </c>
@@ -3648,14 +3648,14 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="17.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A1" s="8" t="s">
         <v>56</v>
       </c>
@@ -3669,7 +3669,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>55</v>
       </c>
@@ -3683,7 +3683,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>97</v>
       </c>

--- a/app/config/tables/ronda/forms/ronda/ronda.xlsx
+++ b/app/config/tables/ronda/forms/ronda/ronda.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celso\odkx\QPS2020\app\config\tables\ronda\forms\ronda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9F14AB5-FCE0-4C75-9578-1E66DA6FD176}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81851D3C-DD2B-442B-97ED-E3E6E1008957}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="3" r:id="rId1"/>
@@ -1320,18 +1320,18 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.375" customWidth="1"/>
     <col min="3" max="3" width="28.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -1342,7 +1342,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1350,15 +1350,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
       <c r="B3">
-        <v>2020092600</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
+        <v>2020081300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1366,7 +1366,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -1374,7 +1374,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>195</v>
       </c>
@@ -1400,13 +1400,13 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.25" customWidth="1"/>
     <col min="2" max="2" width="125.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -1424,14 +1424,14 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Y125"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="H48" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="L77" sqref="L77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.125" style="2" customWidth="1"/>
     <col min="2" max="2" width="17.125" style="2" customWidth="1"/>
@@ -1452,7 +1452,7 @@
     <col min="17" max="16384" width="10.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>62</v>
       </c>
@@ -1529,7 +1529,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="G2" s="1"/>
@@ -1552,7 +1552,7 @@
       <c r="X2"/>
       <c r="Y2"/>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B3" s="17" t="s">
         <v>64</v>
       </c>
@@ -1578,7 +1578,7 @@
       <c r="X3"/>
       <c r="Y3"/>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="D4" s="1" t="s">
         <v>67</v>
       </c>
@@ -1594,7 +1594,7 @@
       <c r="J4" s="1"/>
       <c r="K4" s="3"/>
     </row>
-    <row r="5" spans="1:25" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:25" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D5" s="10" t="s">
         <v>59</v>
       </c>
@@ -1606,13 +1606,13 @@
       </c>
       <c r="K5" s="11"/>
     </row>
-    <row r="6" spans="1:25" s="10" customFormat="1" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:25" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="K6" s="11"/>
       <c r="N6" s="12"/>
       <c r="O6" s="12"/>
       <c r="P6" s="12"/>
     </row>
-    <row r="7" spans="1:25" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:25" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
       <c r="G7" s="13"/>
@@ -1621,16 +1621,16 @@
       <c r="J7" s="13"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:25" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:25" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="K8" s="11"/>
     </row>
-    <row r="9" spans="1:25" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:25" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
         <v>65</v>
       </c>
       <c r="K9" s="11"/>
     </row>
-    <row r="10" spans="1:25" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:25" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="10" t="s">
         <v>174</v>
       </c>
@@ -1639,7 +1639,7 @@
       </c>
       <c r="K10" s="11"/>
     </row>
-    <row r="11" spans="1:25" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:25" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="D11" s="10" t="s">
         <v>67</v>
       </c>
@@ -1651,13 +1651,13 @@
       </c>
       <c r="K11" s="11"/>
     </row>
-    <row r="12" spans="1:25" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:25" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
         <v>176</v>
       </c>
       <c r="K12" s="11"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="D14" s="2" t="s">
         <v>5</v>
       </c>
@@ -1677,7 +1677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="D15" s="2" t="s">
         <v>9</v>
       </c>
@@ -1694,7 +1694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>150</v>
       </c>
@@ -1703,17 +1703,17 @@
       </c>
       <c r="D16" s="18"/>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.5">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="2:12" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.5">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>197</v>
       </c>
@@ -1721,7 +1721,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="20" spans="2:12" s="20" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="20" spans="2:12" s="20" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="D20" s="20" t="s">
         <v>9</v>
       </c>
@@ -1739,7 +1739,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="21" spans="2:12" s="20" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="2:12" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="20" t="s">
         <v>146</v>
       </c>
@@ -1748,7 +1748,7 @@
       </c>
       <c r="K21" s="21"/>
     </row>
-    <row r="22" spans="2:12" s="20" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="22" spans="2:12" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D22" s="20" t="s">
         <v>51</v>
       </c>
@@ -1766,7 +1766,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="23" spans="2:12" s="20" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="23" spans="2:12" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="20" t="s">
         <v>147</v>
       </c>
@@ -1775,7 +1775,7 @@
       </c>
       <c r="K23" s="21"/>
     </row>
-    <row r="24" spans="2:12" s="20" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="24" spans="2:12" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D24" s="20" t="s">
         <v>4</v>
       </c>
@@ -1790,28 +1790,28 @@
         <v>105</v>
       </c>
     </row>
-    <row r="25" spans="2:12" s="20" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="25" spans="2:12" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="K25" s="21"/>
     </row>
-    <row r="26" spans="2:12" s="20" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="26" spans="2:12" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="20" t="s">
         <v>148</v>
       </c>
       <c r="K26" s="21"/>
     </row>
-    <row r="27" spans="2:12" s="20" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="27" spans="2:12" s="20" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B27" s="20" t="s">
         <v>149</v>
       </c>
       <c r="K27" s="21"/>
     </row>
-    <row r="28" spans="2:12" s="20" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="28" spans="2:12" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B28" s="20" t="s">
         <v>199</v>
       </c>
       <c r="K28" s="21"/>
     </row>
-    <row r="29" spans="2:12" s="20" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="29" spans="2:12" s="20" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B29" s="20" t="s">
         <v>160</v>
       </c>
@@ -1820,10 +1820,10 @@
       </c>
       <c r="K29" s="21"/>
     </row>
-    <row r="30" spans="2:12" s="20" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="30" spans="2:12" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="K30" s="21"/>
     </row>
-    <row r="31" spans="2:12" s="22" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="31" spans="2:12" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D31" s="22" t="s">
         <v>9</v>
       </c>
@@ -1841,7 +1841,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.5">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
         <v>168</v>
       </c>
@@ -1849,17 +1849,17 @@
         <v>144</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.5">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.5">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="36" spans="2:16" s="22" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="36" spans="2:16" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D36" s="22" t="s">
         <v>9</v>
       </c>
@@ -1877,7 +1877,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="37" spans="2:16" s="22" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="37" spans="2:16" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B37" s="22" t="s">
         <v>79</v>
       </c>
@@ -1886,7 +1886,7 @@
       </c>
       <c r="K37" s="23"/>
     </row>
-    <row r="42" spans="2:16" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="42" spans="2:16" ht="31.5" x14ac:dyDescent="0.25">
       <c r="D42" s="2" t="s">
         <v>97</v>
       </c>
@@ -1907,7 +1907,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.5">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D43" s="2" t="s">
         <v>97</v>
       </c>
@@ -1924,7 +1924,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.5">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D44" s="2" t="s">
         <v>97</v>
       </c>
@@ -1941,12 +1941,12 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.5">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B46" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="47" spans="2:16" ht="110.25" x14ac:dyDescent="0.5">
+    <row r="47" spans="2:16" ht="110.25" x14ac:dyDescent="0.25">
       <c r="D47" s="2" t="s">
         <v>67</v>
       </c>
@@ -1957,7 +1957,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="48" spans="2:16" ht="47.25" x14ac:dyDescent="0.5">
+    <row r="48" spans="2:16" ht="47.25" x14ac:dyDescent="0.25">
       <c r="D48" s="2" t="s">
         <v>9</v>
       </c>
@@ -1974,7 +1974,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.5">
+    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B49" s="2" t="s">
         <v>151</v>
       </c>
@@ -1982,7 +1982,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.5">
+    <row r="50" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D50" s="2" t="s">
         <v>9</v>
       </c>
@@ -1999,7 +1999,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.5">
+    <row r="51" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B51" s="2" t="s">
         <v>152</v>
       </c>
@@ -2007,13 +2007,13 @@
         <v>111</v>
       </c>
     </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.5">
+    <row r="52" spans="2:12" x14ac:dyDescent="0.25">
       <c r="K52" s="4"/>
     </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.5">
+    <row r="53" spans="2:12" x14ac:dyDescent="0.25">
       <c r="K53" s="4"/>
     </row>
-    <row r="54" spans="2:12" x14ac:dyDescent="0.5">
+    <row r="54" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D54" s="2" t="s">
         <v>9</v>
       </c>
@@ -2031,7 +2031,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="55" spans="2:12" x14ac:dyDescent="0.5">
+    <row r="55" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B55" s="2" t="s">
         <v>153</v>
       </c>
@@ -2039,7 +2039,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="58" spans="2:12" x14ac:dyDescent="0.5">
+    <row r="58" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D58" s="2" t="s">
         <v>9</v>
       </c>
@@ -2056,27 +2056,27 @@
         <v>113</v>
       </c>
     </row>
-    <row r="59" spans="2:12" x14ac:dyDescent="0.5">
+    <row r="59" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B59" s="2" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="60" spans="2:12" x14ac:dyDescent="0.5">
+    <row r="60" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B60" s="2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="61" spans="2:12" x14ac:dyDescent="0.5">
+    <row r="61" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B61" s="2" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="62" spans="2:12" x14ac:dyDescent="0.5">
+    <row r="62" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B62" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="64" spans="2:12" ht="47.25" x14ac:dyDescent="0.5">
+    <row r="64" spans="2:12" ht="47.25" x14ac:dyDescent="0.25">
       <c r="D64" s="2" t="s">
         <v>9</v>
       </c>
@@ -2093,7 +2093,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B65" s="2" t="s">
         <v>157</v>
       </c>
@@ -2101,7 +2101,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D67" s="2" t="s">
         <v>9</v>
       </c>
@@ -2115,17 +2115,17 @@
         <v>171</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B68" s="2" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B71" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="73" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="73" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="22" t="s">
         <v>142</v>
       </c>
@@ -2146,13 +2146,13 @@
         <v>170</v>
       </c>
     </row>
-    <row r="74" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="74" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B74" s="22" t="s">
         <v>66</v>
       </c>
       <c r="K74" s="23"/>
     </row>
-    <row r="75" spans="1:12" ht="47.25" x14ac:dyDescent="0.5">
+    <row r="75" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>140</v>
       </c>
@@ -2172,12 +2172,12 @@
         <v>161</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B76" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="77" spans="1:12" ht="47.25" x14ac:dyDescent="0.5">
+    <row r="77" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>68</v>
       </c>
@@ -2198,7 +2198,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B78" s="2" t="s">
         <v>71</v>
       </c>
@@ -2206,7 +2206,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D79" s="2" t="s">
         <v>4</v>
       </c>
@@ -2220,12 +2220,12 @@
         <v>117</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B80" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="81" spans="1:23" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="81" spans="1:23" ht="31.5" x14ac:dyDescent="0.25">
       <c r="D81" s="2" t="s">
         <v>9</v>
       </c>
@@ -2242,21 +2242,21 @@
         <v>78</v>
       </c>
     </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.5">
+    <row r="82" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B82" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.5">
+    <row r="84" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B84" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.5">
+    <row r="85" spans="1:23" x14ac:dyDescent="0.25">
       <c r="K85" s="4"/>
     </row>
-    <row r="87" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="89" spans="1:23" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="87" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" spans="1:23" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>74</v>
       </c>
@@ -2271,7 +2271,7 @@
       </c>
       <c r="K89" s="4"/>
     </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.5">
+    <row r="91" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D91" s="2" t="s">
         <v>4</v>
       </c>
@@ -2282,7 +2282,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.5">
+    <row r="92" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D92" s="2" t="s">
         <v>202</v>
       </c>
@@ -2296,37 +2296,37 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.5">
+    <row r="96" spans="1:23" x14ac:dyDescent="0.25">
       <c r="E96" s="15"/>
     </row>
-    <row r="97" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="97" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E97" s="15"/>
     </row>
-    <row r="98" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="98" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E98" s="15"/>
     </row>
-    <row r="100" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="100" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E100" s="15"/>
     </row>
-    <row r="101" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="101" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E101" s="15"/>
     </row>
-    <row r="102" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="102" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E102" s="15"/>
     </row>
-    <row r="103" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="103" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E103" s="15"/>
     </row>
-    <row r="104" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="104" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E104" s="15"/>
     </row>
-    <row r="105" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="105" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E105" s="15"/>
     </row>
-    <row r="106" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="106" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E106" s="15"/>
     </row>
-    <row r="109" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="109" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B109" s="15"/>
       <c r="C109" s="15"/>
       <c r="D109" s="15"/>
@@ -2335,7 +2335,7 @@
       <c r="G109" s="15"/>
       <c r="H109" s="15"/>
     </row>
-    <row r="110" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="110" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B110" s="15"/>
       <c r="C110" s="15"/>
       <c r="D110" s="15"/>
@@ -2345,7 +2345,7 @@
       <c r="H110" s="15"/>
       <c r="K110" s="4"/>
     </row>
-    <row r="111" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="111" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B111" s="15"/>
       <c r="C111" s="15"/>
       <c r="D111" s="15"/>
@@ -2355,7 +2355,7 @@
       <c r="H111" s="15"/>
       <c r="K111" s="4"/>
     </row>
-    <row r="112" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="112" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B112" s="15"/>
       <c r="C112" s="15"/>
       <c r="D112" s="15"/>
@@ -2364,7 +2364,7 @@
       <c r="G112" s="15"/>
       <c r="H112" s="15"/>
     </row>
-    <row r="113" spans="2:8" x14ac:dyDescent="0.5">
+    <row r="113" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B113" s="15"/>
       <c r="C113" s="15"/>
       <c r="D113" s="15"/>
@@ -2373,7 +2373,7 @@
       <c r="G113" s="15"/>
       <c r="H113" s="15"/>
     </row>
-    <row r="114" spans="2:8" x14ac:dyDescent="0.5">
+    <row r="114" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B114" s="15"/>
       <c r="C114" s="15"/>
       <c r="D114" s="15"/>
@@ -2382,7 +2382,7 @@
       <c r="G114" s="15"/>
       <c r="H114" s="15"/>
     </row>
-    <row r="115" spans="2:8" x14ac:dyDescent="0.5">
+    <row r="115" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B115" s="15"/>
       <c r="C115" s="15"/>
       <c r="D115" s="15"/>
@@ -2391,7 +2391,7 @@
       <c r="G115" s="15"/>
       <c r="H115" s="15"/>
     </row>
-    <row r="116" spans="2:8" x14ac:dyDescent="0.5">
+    <row r="116" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B116" s="15"/>
       <c r="C116" s="15"/>
       <c r="D116" s="15"/>
@@ -2400,7 +2400,7 @@
       <c r="G116" s="15"/>
       <c r="H116" s="15"/>
     </row>
-    <row r="117" spans="2:8" x14ac:dyDescent="0.5">
+    <row r="117" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B117" s="28"/>
       <c r="C117" s="28"/>
       <c r="D117" s="28"/>
@@ -2409,7 +2409,7 @@
       <c r="G117" s="28"/>
       <c r="H117" s="15"/>
     </row>
-    <row r="118" spans="2:8" x14ac:dyDescent="0.5">
+    <row r="118" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B118" s="28"/>
       <c r="C118" s="28"/>
       <c r="D118" s="28"/>
@@ -2418,7 +2418,7 @@
       <c r="G118" s="28"/>
       <c r="H118" s="15"/>
     </row>
-    <row r="119" spans="2:8" x14ac:dyDescent="0.5">
+    <row r="119" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B119" s="15"/>
       <c r="C119" s="15"/>
       <c r="D119" s="15"/>
@@ -2427,7 +2427,7 @@
       <c r="G119" s="15"/>
       <c r="H119" s="15"/>
     </row>
-    <row r="120" spans="2:8" x14ac:dyDescent="0.5">
+    <row r="120" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B120" s="15"/>
       <c r="C120" s="15"/>
       <c r="D120" s="15"/>
@@ -2436,7 +2436,7 @@
       <c r="G120" s="15"/>
       <c r="H120" s="15"/>
     </row>
-    <row r="121" spans="2:8" x14ac:dyDescent="0.5">
+    <row r="121" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B121" s="15"/>
       <c r="C121" s="15"/>
       <c r="D121" s="15"/>
@@ -2445,7 +2445,7 @@
       <c r="G121" s="15"/>
       <c r="H121" s="15"/>
     </row>
-    <row r="122" spans="2:8" x14ac:dyDescent="0.5">
+    <row r="122" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B122" s="15"/>
       <c r="C122" s="15"/>
       <c r="D122" s="15"/>
@@ -2454,7 +2454,7 @@
       <c r="G122" s="15"/>
       <c r="H122" s="15"/>
     </row>
-    <row r="123" spans="2:8" x14ac:dyDescent="0.5">
+    <row r="123" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B123" s="15"/>
       <c r="C123" s="15"/>
       <c r="D123" s="15"/>
@@ -2463,7 +2463,7 @@
       <c r="G123" s="15"/>
       <c r="H123" s="15"/>
     </row>
-    <row r="124" spans="2:8" x14ac:dyDescent="0.5">
+    <row r="124" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B124" s="15"/>
       <c r="C124" s="15"/>
       <c r="D124" s="15"/>
@@ -2472,7 +2472,7 @@
       <c r="G124" s="15"/>
       <c r="H124" s="15"/>
     </row>
-    <row r="125" spans="2:8" x14ac:dyDescent="0.5">
+    <row r="125" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B125" s="15"/>
       <c r="C125" s="15"/>
       <c r="D125" s="15"/>
@@ -2510,7 +2510,7 @@
       <selection activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.5" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="21.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.75" style="2" customWidth="1"/>
     <col min="2" max="2" width="21.5" style="2"/>
@@ -2518,7 +2518,7 @@
     <col min="5" max="16384" width="21.5" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -2529,7 +2529,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>22</v>
       </c>
@@ -2540,7 +2540,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>22</v>
       </c>
@@ -2551,7 +2551,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>34</v>
       </c>
@@ -2562,7 +2562,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>34</v>
       </c>
@@ -2573,11 +2573,11 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>38</v>
       </c>
@@ -2588,7 +2588,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>38</v>
       </c>
@@ -2599,11 +2599,11 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>50</v>
       </c>
@@ -2614,7 +2614,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>50</v>
       </c>
@@ -2625,7 +2625,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>50</v>
       </c>
@@ -2636,7 +2636,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>50</v>
       </c>
@@ -2647,7 +2647,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>50</v>
       </c>
@@ -2658,7 +2658,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>50</v>
       </c>
@@ -2669,7 +2669,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>50</v>
       </c>
@@ -2680,15 +2680,15 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="C18" s="1"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="C19" s="1"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>85</v>
       </c>
@@ -2699,7 +2699,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>85</v>
       </c>
@@ -2710,7 +2710,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>85</v>
       </c>
@@ -2721,7 +2721,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>85</v>
       </c>
@@ -2732,7 +2732,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>85</v>
       </c>
@@ -2743,10 +2743,10 @@
         <v>90</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>92</v>
       </c>
@@ -2757,7 +2757,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>92</v>
       </c>
@@ -2768,7 +2768,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>92</v>
       </c>
@@ -2779,7 +2779,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>92</v>
       </c>
@@ -2790,7 +2790,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>133</v>
       </c>
@@ -2801,7 +2801,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>133</v>
       </c>
@@ -2812,7 +2812,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>133</v>
       </c>
@@ -2823,7 +2823,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>133</v>
       </c>
@@ -2834,7 +2834,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>133</v>
       </c>
@@ -2845,10 +2845,10 @@
         <v>137</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>165</v>
       </c>
@@ -2859,474 +2859,474 @@
         <v>166</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="C40" s="1"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C41" s="1"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="C42" s="1"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="C43" s="1"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="C44" s="1"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="C45" s="1"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="C46" s="1"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="C47" s="1"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="C51" s="1"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="C52" s="1"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="C73" s="1"/>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="C74" s="1"/>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="C75" s="1"/>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="C77" s="1"/>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="C78" s="1"/>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="C79" s="1"/>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="C82" s="1"/>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="C83" s="1"/>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="C84" s="1"/>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="C85" s="1"/>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="C86" s="1"/>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="C87" s="1"/>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="C88" s="1"/>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="C89" s="1"/>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="C90" s="1"/>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="C91" s="1"/>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="C92" s="1"/>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
       <c r="C93" s="1"/>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="C94" s="1"/>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="C95" s="1"/>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="C96" s="1"/>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="C97" s="1"/>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="C98" s="1"/>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="C99" s="1"/>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
       <c r="C100" s="1"/>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="C101" s="1"/>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
       <c r="C102" s="1"/>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
       <c r="C103" s="1"/>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
       <c r="C104" s="1"/>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
       <c r="C105" s="1"/>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
       <c r="C106" s="1"/>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
       <c r="C107" s="1"/>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
       <c r="C108" s="1"/>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
       <c r="C109" s="1"/>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
       <c r="C110" s="1"/>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
       <c r="C111" s="1"/>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
       <c r="C112" s="1"/>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
       <c r="C113" s="1"/>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
       <c r="C114" s="1"/>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
       <c r="C115" s="1"/>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
       <c r="C116" s="1"/>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
       <c r="C117" s="1"/>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
       <c r="C118" s="1"/>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
       <c r="C119" s="1"/>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
       <c r="C120" s="1"/>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
       <c r="C121" s="1"/>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
       <c r="C122" s="1"/>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
       <c r="C123" s="1"/>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
       <c r="C124" s="1"/>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
       <c r="C125" s="1"/>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
       <c r="C126" s="1"/>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
       <c r="C127" s="1"/>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
       <c r="C128" s="1"/>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
       <c r="C129" s="1"/>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
       <c r="C130" s="1"/>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
       <c r="C131" s="1"/>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
       <c r="C132" s="1"/>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
       <c r="C133" s="1"/>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
       <c r="C134" s="1"/>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
       <c r="C135" s="1"/>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
       <c r="C136" s="1"/>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
       <c r="C137" s="1"/>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
       <c r="C138" s="1"/>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" s="1"/>
       <c r="C215" s="1"/>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" s="1"/>
       <c r="C216" s="1"/>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" s="1"/>
       <c r="C217" s="1"/>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" s="1"/>
       <c r="C218" s="1"/>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" s="1"/>
       <c r="C219" s="1"/>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" s="1"/>
       <c r="C220" s="1"/>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" s="1"/>
       <c r="C221" s="1"/>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" s="1"/>
       <c r="C222" s="1"/>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" s="1"/>
       <c r="C223" s="1"/>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" s="1"/>
       <c r="C224" s="1"/>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" s="1"/>
       <c r="C225" s="1"/>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" s="1"/>
       <c r="C226" s="1"/>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" s="1"/>
       <c r="C227" s="1"/>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" s="1"/>
       <c r="C228" s="1"/>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" s="1"/>
       <c r="C229" s="1"/>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" s="1"/>
       <c r="C230" s="1"/>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" s="1"/>
       <c r="C231" s="1"/>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" s="1"/>
       <c r="C232" s="1"/>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" s="1"/>
       <c r="C233" s="1"/>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" s="1"/>
       <c r="C234" s="1"/>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" s="1"/>
       <c r="C235" s="1"/>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" s="1"/>
       <c r="C236" s="1"/>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" s="1"/>
       <c r="C237" s="1"/>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" s="1"/>
       <c r="C238" s="1"/>
     </row>
@@ -3350,13 +3350,13 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.125" customWidth="1"/>
     <col min="2" max="2" width="40.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -3364,7 +3364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
         <v>59</v>
       </c>
@@ -3372,7 +3372,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="27" t="s">
         <v>4</v>
       </c>
@@ -3380,7 +3380,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="s">
         <v>4</v>
       </c>
@@ -3388,7 +3388,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
         <v>9</v>
       </c>
@@ -3396,7 +3396,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="27" t="s">
         <v>9</v>
       </c>
@@ -3404,7 +3404,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="27" t="s">
         <v>5</v>
       </c>
@@ -3412,7 +3412,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="27" t="s">
         <v>5</v>
       </c>
@@ -3420,7 +3420,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="27" t="s">
         <v>5</v>
       </c>
@@ -3428,7 +3428,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
         <v>59</v>
       </c>
@@ -3436,7 +3436,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>5</v>
       </c>
@@ -3444,7 +3444,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
@@ -3452,7 +3452,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
         <v>97</v>
       </c>
@@ -3460,7 +3460,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
         <v>97</v>
       </c>
@@ -3468,7 +3468,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>97</v>
       </c>
@@ -3476,7 +3476,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
         <v>9</v>
       </c>
@@ -3484,7 +3484,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
         <v>51</v>
       </c>
@@ -3492,7 +3492,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>4</v>
       </c>
@@ -3500,7 +3500,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
         <v>67</v>
       </c>
@@ -3508,7 +3508,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="19" t="s">
         <v>9</v>
       </c>
@@ -3516,7 +3516,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="19" t="s">
         <v>9</v>
       </c>
@@ -3524,7 +3524,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="19" t="s">
         <v>9</v>
       </c>
@@ -3532,7 +3532,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="19" t="s">
         <v>9</v>
       </c>
@@ -3540,7 +3540,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="19" t="s">
         <v>9</v>
       </c>
@@ -3548,7 +3548,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="19" t="s">
         <v>9</v>
       </c>
@@ -3556,7 +3556,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="19" t="s">
         <v>67</v>
       </c>
@@ -3564,7 +3564,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="19" t="s">
         <v>69</v>
       </c>
@@ -3572,7 +3572,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="19" t="s">
         <v>4</v>
       </c>
@@ -3580,7 +3580,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>9</v>
       </c>
@@ -3588,7 +3588,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>9</v>
       </c>
@@ -3596,7 +3596,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="19" t="s">
         <v>9</v>
       </c>
@@ -3604,7 +3604,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="24" t="s">
         <v>9</v>
       </c>
@@ -3612,7 +3612,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="24" t="s">
         <v>9</v>
       </c>
@@ -3620,7 +3620,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="25" t="s">
         <v>4</v>
       </c>
@@ -3648,14 +3648,14 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>56</v>
       </c>
@@ -3669,7 +3669,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>55</v>
       </c>
@@ -3683,7 +3683,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>97</v>
       </c>
